--- a/1137372539/localisation/excel/designer_l_german.xlsx
+++ b/1137372539/localisation/excel/designer_l_german.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="765">
   <si>
     <t xml:space="preserve">l_german:</t>
   </si>
@@ -43,12 +43,42 @@
     <t xml:space="preserve">§GKlick zum Ändern§!</t>
   </si>
   <si>
+    <t xml:space="preserve"> DESIGNER_CHANGE_REMOVE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Gshift+Klick§! zu entfernen</t>
+  </si>
+  <si>
     <t xml:space="preserve"> DESIGNER_DUPLICATE_TO_MODIFY:0</t>
   </si>
   <si>
     <t xml:space="preserve">§RDuplizieren der Vorlage zum Ändern§!</t>
   </si>
   <si>
+    <t xml:space="preserve"> DESIGNER_BLOCKED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dieser Bataillon-Slot ist §gesperrt§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESIGNER_BLOCKED_BY_TECH:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wird durch eine der folgenden Doktrinen freigeschaltet:$TECH$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESIGNER_BLOCKED_TECH_DESC:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n £trigger_no §H$NAME$ ($CATEGORY$)§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESIGNER_BLOCKED_BY_NOT_HANDLED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§HUm den Spieler freizuschalten, müssen bestimmte Bedingungen erfüllt sein.§!</t>
+  </si>
+  <si>
     <t xml:space="preserve"> DESIGNER_UNLOCK:0</t>
   </si>
   <si>
@@ -2249,6 +2279,42 @@
   </si>
   <si>
     <t xml:space="preserve">Klicken Sie hier, um die Filterung für veraltete Designs einzuschalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HISTORICAL_PRESET:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voreinstellungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HISTORICAL_TEMPLATE_ENABLED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellen Sie eine $ROLE|H$-Vorlage, die möglichst genau zu $NAME|H$ passt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HISTORICAL_TEMPLATE_DISABLED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie benötigen die folgenden Module, um dieses $ROLE|H$-Design zu erstellen:\n\n$RESTRICTIONS$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SLOT_TITLE_REQUIRED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$SLOT|H$:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MODULE_NONE_FIXED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EQUIPMENT_DESIGNER_HISTORICAL_DESIGN_DISABLED_CHASSIS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auf historische Voreinstellungen kann nur über ein Blueprint-Chassis oder einen Blueprint-Rumpf zugegriffen werden.</t>
   </si>
 </sst>
 </file>
@@ -2364,10 +2430,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D383" activeCellId="0" sqref="D1:D383"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B361" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C382" activeCellId="0" sqref="C382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2399,11 +2465,11 @@
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v> DESIGNER_LOCKED:0 "§RLocked§!"</v>
+        <v>DESIGNER_LOCKED:0 "§RLocked§!"</v>
       </c>
       <c r="D2" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2),"",C2)</f>
-        <v> DESIGNER_LOCKED:0 "§RLocked§!"</v>
+        <v>DESIGNER_LOCKED:0 "§RLocked§!"</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,11 +2481,11 @@
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v> DESIGNER_ADD:0 "§GKlick zum Hinzufügen§!"</v>
+        <v>DESIGNER_ADD:0 "§GKlick zum Hinzufügen§!"</v>
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">IF(ISBLANK(A3),"",C3)</f>
-        <v> DESIGNER_ADD:0 "§GKlick zum Hinzufügen§!"</v>
+        <v>DESIGNER_ADD:0 "§GKlick zum Hinzufügen§!"</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,11 +2497,11 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> DESIGNER_CHANGE:0 "§GKlick zum Ändern§!"</v>
+        <v>DESIGNER_CHANGE:0 "§GKlick zum Ändern§!"</v>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v> DESIGNER_CHANGE:0 "§GKlick zum Ändern§!"</v>
+        <v>DESIGNER_CHANGE:0 "§GKlick zum Ändern§!"</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,11 +2513,11 @@
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v> DESIGNER_DUPLICATE_TO_MODIFY:0 "§RDuplizieren der Vorlage zum Ändern§!"</v>
+        <v> DESIGNER_CHANGE_REMOVE: "§Gshift+Klick§! zu entfernen"</v>
       </c>
       <c r="D5" s="1" t="str">
         <f aca="false">IF(ISBLANK(A5),"",C5)</f>
-        <v> DESIGNER_DUPLICATE_TO_MODIFY:0 "§RDuplizieren der Vorlage zum Ändern§!"</v>
+        <v> DESIGNER_CHANGE_REMOVE: "§Gshift+Klick§! zu entfernen"</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,11 +2529,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> DESIGNER_UNLOCK:0 "$VALUE|H0$ £army_experience"</v>
+        <v> DESIGNER_DUPLICATE_TO_MODIFY:0 "§RDuplizieren der Vorlage zum Ändern§!"</v>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v> DESIGNER_UNLOCK:0 "$VALUE|H0$ £army_experience"</v>
+        <v> DESIGNER_DUPLICATE_TO_MODIFY:0 "§RDuplizieren der Vorlage zum Ändern§!"</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,11 +2545,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> DESIGNER_REPLACE_DESC:0 "Kosten $VALUE|H0$ £army_experience zu ersetzen"</v>
+        <v> DESIGNER_BLOCKED: "Dieser Bataillon-Slot ist §gesperrt§!"</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v> DESIGNER_REPLACE_DESC:0 "Kosten $VALUE|H0$ £army_experience zu ersetzen"</v>
+        <v> DESIGNER_BLOCKED: "Dieser Bataillon-Slot ist §gesperrt§!"</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,11 +2561,11 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v> DESIGNER_ADD_DESC:0 "Kosten $VALUE|H0$ £army_experience zum Hinzufügen"</v>
+        <v> DESIGNER_BLOCKED_BY_TECH: "Wird durch eine der folgenden Doktrinen freigeschaltet:$TECH$"</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">IF(ISBLANK(A8),"",C8)</f>
-        <v> DESIGNER_ADD_DESC:0 "Kosten $VALUE|H0$ £army_experience zum Hinzufügen"</v>
+        <v> DESIGNER_BLOCKED_BY_TECH: "Wird durch eine der folgenden Doktrinen freigeschaltet:$TECH$"</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,11 +2577,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> DESIGNER_REMOVE_DESC:0 "Kosten $VALUE|H0$ £army_experience zum Entfernen"</v>
+        <v> DESIGNER_BLOCKED_TECH_DESC: "\n £trigger_no §H$NAME$ ($CATEGORY$)§!"</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v> DESIGNER_REMOVE_DESC:0 "Kosten $VALUE|H0$ £army_experience zum Entfernen"</v>
+        <v> DESIGNER_BLOCKED_TECH_DESC: "\n £trigger_no §H$NAME$ ($CATEGORY$)§!"</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,11 +2593,11 @@
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v> DESIGNER_REMOVE_NO_COST:1 "Keine Kosten für das Entfernen"</v>
+        <v> DESIGNER_BLOCKED_BY_NOT_HANDLED: "§HUm den Spieler freizuschalten, müssen bestimmte Bedingungen erfüllt sein.§!"</v>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">IF(ISBLANK(A10),"",C10)</f>
-        <v> DESIGNER_REMOVE_NO_COST:1 "Keine Kosten für das Entfernen"</v>
+        <v> DESIGNER_BLOCKED_BY_NOT_HANDLED: "§HUm den Spieler freizuschalten, müssen bestimmte Bedingungen erfüllt sein.§!"</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,11 +2609,11 @@
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> DESIGNER_NO_COST:0 "Keine Kosten für das Ersetzen"</v>
+        <v>DESIGNER_UNLOCK:0 "$VALUE|H0$ £army_experience"</v>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">IF(ISBLANK(A11),"",C11)</f>
-        <v> DESIGNER_NO_COST:0 "Keine Kosten für das Ersetzen"</v>
+        <v>DESIGNER_UNLOCK:0 "$VALUE|H0$ £army_experience"</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,11 +2625,11 @@
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v> DESIGNER_REMOVE_NEGATIVE_DESC:0 "Entfernen, um $VALUE|H0$ £Armee_Erfahrung zu gewinnen"</v>
+        <v>DESIGNER_REPLACE_DESC:0 "Kosten $VALUE|H0$ £army_experience zu ersetzen"</v>
       </c>
       <c r="D12" s="1" t="str">
         <f aca="false">IF(ISBLANK(A12),"",C12)</f>
-        <v> DESIGNER_REMOVE_NEGATIVE_DESC:0 "Entfernen, um $VALUE|H0$ £Armee_Erfahrung zu gewinnen"</v>
+        <v>DESIGNER_REPLACE_DESC:0 "Kosten $VALUE|H0$ £army_experience zu ersetzen"</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,11 +2641,11 @@
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v> DESIGNER_REMOVE:0 "Entfernen"</v>
+        <v>DESIGNER_ADD_DESC:0 "Kosten $VALUE|H0$ £army_experience zum Hinzufügen"</v>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">IF(ISBLANK(A13),"",C13)</f>
-        <v> DESIGNER_REMOVE:0 "Entfernen"</v>
+        <v>DESIGNER_ADD_DESC:0 "Kosten $VALUE|H0$ £army_experience zum Hinzufügen"</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,11 +2657,11 @@
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v> DESIGNER_BASE_STATS_LABEL:0 "Basis-Statistiken"</v>
+        <v>DESIGNER_REMOVE_DESC:0 "Kosten $VALUE|H0$ £army_experience zum Entfernen"</v>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">IF(ISBLANK(A14),"",C14)</f>
-        <v> DESIGNER_BASE_STATS_LABEL:0 "Basis-Statistiken"</v>
+        <v>DESIGNER_REMOVE_DESC:0 "Kosten $VALUE|H0$ £army_experience zum Entfernen"</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,11 +2673,11 @@
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15 &amp;" " &amp;"""" &amp;B15 &amp;""""</f>
-        <v> DESIGNER_COMBAT_STATS_LABEL:0 "Kampfstatistiken"</v>
+        <v>DESIGNER_REMOVE_NO_COST:1 "Keine Kosten für das Entfernen"</v>
       </c>
       <c r="D15" s="1" t="str">
         <f aca="false">IF(ISBLANK(A15),"",C15)</f>
-        <v> DESIGNER_COMBAT_STATS_LABEL:0 "Kampfstatistiken"</v>
+        <v>DESIGNER_REMOVE_NO_COST:1 "Keine Kosten für das Entfernen"</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,11 +2689,11 @@
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v> DESIGNER_EQUIPMENT_STATS_LABEL:0 "Kosten für Ausrüstung"</v>
+        <v>DESIGNER_NO_COST:0 "Keine Kosten für das Ersetzen"</v>
       </c>
       <c r="D16" s="1" t="str">
         <f aca="false">IF(ISBLANK(A16),"",C16)</f>
-        <v> DESIGNER_EQUIPMENT_STATS_LABEL:0 "Kosten für Ausrüstung"</v>
+        <v>DESIGNER_NO_COST:0 "Keine Kosten für das Ersetzen"</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,11 +2705,11 @@
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v> DESIGNER_COMBATWIDTH:0 "Kampfbreite: "</v>
+        <v>DESIGNER_REMOVE_NEGATIVE_DESC:0 "Entfernen, um $VALUE|H0$ £Armee_Erfahrung zu gewinnen"</v>
       </c>
       <c r="D17" s="1" t="str">
         <f aca="false">IF(ISBLANK(A17),"",C17)</f>
-        <v> DESIGNER_COMBATWIDTH:0 "Kampfbreite: "</v>
+        <v>DESIGNER_REMOVE_NEGATIVE_DESC:0 "Entfernen, um $VALUE|H0$ £Armee_Erfahrung zu gewinnen"</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,11 +2721,11 @@
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v> DESIGNER_COMBATWIDTH_DESC:0 "Die Kampfbreite gibt an, wie viel Platz diese Abteilung im Kampf einnehmen wird. Wenn ein Kampf zum Beispiel eine Gesamtbreite von §Y75§! hat, können Sie §Y3§! Abteilungen mit einer Breite von §Y25§! unterbringen."</v>
+        <v>DESIGNER_REMOVE:0 "Entfernen"</v>
       </c>
       <c r="D18" s="1" t="str">
         <f aca="false">IF(ISBLANK(A18),"",C18)</f>
-        <v> DESIGNER_COMBATWIDTH_DESC:0 "Die Kampfbreite gibt an, wie viel Platz diese Abteilung im Kampf einnehmen wird. Wenn ein Kampf zum Beispiel eine Gesamtbreite von §Y75§! hat, können Sie §Y3§! Abteilungen mit einer Breite von §Y25§! unterbringen."</v>
+        <v>DESIGNER_REMOVE:0 "Entfernen"</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,11 +2737,11 @@
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19 &amp;" " &amp;"""" &amp;B19 &amp;""""</f>
-        <v> DESIGNER_MANPOWER:0 "£manpower_texticon Manpower: "</v>
+        <v>DESIGNER_BASE_STATS_LABEL:0 "Basis-Statistiken"</v>
       </c>
       <c r="D19" s="1" t="str">
         <f aca="false">IF(ISBLANK(A19),"",C19)</f>
-        <v> DESIGNER_MANPOWER:0 "£manpower_texticon Manpower: "</v>
+        <v>DESIGNER_BASE_STATS_LABEL:0 "Basis-Statistiken"</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,11 +2753,11 @@
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v> DESIGNER_MANPOWER_DESC:0 "Wie viel Manpower wird benötigt, um diese Abteilung zu füllen."</v>
+        <v>DESIGNER_COMBAT_STATS_LABEL:0 "Kampfstatistiken"</v>
       </c>
       <c r="D20" s="1" t="str">
         <f aca="false">IF(ISBLANK(A20),"",C20)</f>
-        <v> DESIGNER_MANPOWER_DESC:0 "Wie viel Manpower wird benötigt, um diese Abteilung zu füllen."</v>
+        <v>DESIGNER_COMBAT_STATS_LABEL:0 "Kampfstatistiken"</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,11 +2769,11 @@
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v> DESIGNER_TRAINING_TIME:0 "£training_speed_texticon Ausbildungszeit: "</v>
+        <v>DESIGNER_EQUIPMENT_STATS_LABEL:0 "Kosten für Ausrüstung"</v>
       </c>
       <c r="D21" s="1" t="str">
         <f aca="false">IF(ISBLANK(A21),"",C21)</f>
-        <v> DESIGNER_TRAINING_TIME:0 "£training_speed_texticon Ausbildungszeit: "</v>
+        <v>DESIGNER_EQUIPMENT_STATS_LABEL:0 "Kosten für Ausrüstung"</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,11 +2785,11 @@
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v> DESIGNER_TRAINING_TIME_DESC:0 "Wie lange es dauert, eine Division auszubilden."</v>
+        <v>DESIGNER_COMBATWIDTH:0 "Kampfbreite: "</v>
       </c>
       <c r="D22" s="1" t="str">
         <f aca="false">IF(ISBLANK(A22),"",C22)</f>
-        <v> DESIGNER_TRAINING_TIME_DESC:0 "Wie lange es dauert, eine Division auszubilden."</v>
+        <v>DESIGNER_COMBATWIDTH:0 "Kampfbreite: "</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,11 +2801,11 @@
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v> DESIGNER_NO_STAT:0 "--"</v>
+        <v>DESIGNER_COMBATWIDTH_DESC:0 "Die Kampfbreite gibt an, wie viel Platz diese Abteilung im Kampf einnehmen wird. Wenn ein Kampf zum Beispiel eine Gesamtbreite von §Y75§! hat, können Sie §Y3§! Abteilungen mit einer Breite von §Y25§! unterbringen."</v>
       </c>
       <c r="D23" s="1" t="str">
         <f aca="false">IF(ISBLANK(A23),"",C23)</f>
-        <v> DESIGNER_NO_STAT:0 "--"</v>
+        <v>DESIGNER_COMBATWIDTH_DESC:0 "Die Kampfbreite gibt an, wie viel Platz diese Abteilung im Kampf einnehmen wird. Wenn ein Kampf zum Beispiel eine Gesamtbreite von §Y75§! hat, können Sie §Y3§! Abteilungen mit einer Breite von §Y25§! unterbringen."</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,11 +2817,11 @@
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v> DESIGNER_CREATE_NEW_DIVISION:1 "Leere erstellen"</v>
+        <v>DESIGNER_MANPOWER:0 "£manpower_texticon Manpower: "</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">IF(ISBLANK(A24),"",C24)</f>
-        <v> DESIGNER_CREATE_NEW_DIVISION:1 "Leere erstellen"</v>
+        <v>DESIGNER_MANPOWER:0 "£manpower_texticon Manpower: "</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2767,11 +2833,11 @@
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v> DESIGNER_NEW_DIVISION:0 "Neue Abteilung"</v>
+        <v>DESIGNER_MANPOWER_DESC:0 "Wie viel Manpower wird benötigt, um diese Abteilung zu füllen."</v>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">IF(ISBLANK(A25),"",C25)</f>
-        <v> DESIGNER_NEW_DIVISION:0 "Neue Abteilung"</v>
+        <v>DESIGNER_MANPOWER_DESC:0 "Wie viel Manpower wird benötigt, um diese Abteilung zu füllen."</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,11 +2849,11 @@
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v> DESIGNER_DEFAULT_DIVISION:1 "$DOMINANT_UNIT$ Vorlage $NUMBER$"</v>
+        <v>DESIGNER_TRAINING_TIME:0 "£training_speed_texticon Ausbildungszeit: "</v>
       </c>
       <c r="D26" s="1" t="str">
         <f aca="false">IF(ISBLANK(A26),"",C26)</f>
-        <v> DESIGNER_DEFAULT_DIVISION:1 "$DOMINANT_UNIT$ Vorlage $NUMBER$"</v>
+        <v>DESIGNER_TRAINING_TIME:0 "£training_speed_texticon Ausbildungszeit: "</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,11 +2865,11 @@
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27 &amp;" " &amp;"""" &amp;B27 &amp;""""</f>
-        <v> DESIGNER_DUPLICATE:0 "Duplizieren"</v>
+        <v>DESIGNER_TRAINING_TIME_DESC:0 "Wie lange es dauert, eine Division auszubilden."</v>
       </c>
       <c r="D27" s="1" t="str">
         <f aca="false">IF(ISBLANK(A27),"",C27)</f>
-        <v> DESIGNER_DUPLICATE:0 "Duplizieren"</v>
+        <v>DESIGNER_TRAINING_TIME_DESC:0 "Wie lange es dauert, eine Division auszubilden."</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,11 +2881,11 @@
       </c>
       <c r="C28" s="1" t="str">
         <f aca="false">A28 &amp;" " &amp;"""" &amp;B28 &amp;""""</f>
-        <v> DESIGNER_DUPLICATE_DESC:1 "Duplizieren, um eine neue Vorlage für §Gfree§! zu erstellen, wenn Sie diese Vorlage speichern. Die ursprüngliche Vorlage bleibt unverändert und Sie können sie weiter verwenden, während Sie die neue Vorlage einsetzen."</v>
+        <v>DESIGNER_NO_STAT:0 "--"</v>
       </c>
       <c r="D28" s="1" t="str">
         <f aca="false">IF(ISBLANK(A28),"",C28)</f>
-        <v> DESIGNER_DUPLICATE_DESC:1 "Duplizieren, um eine neue Vorlage für §Gfree§! zu erstellen, wenn Sie diese Vorlage speichern. Die ursprüngliche Vorlage bleibt unverändert und Sie können sie weiter verwenden, während Sie die neue Vorlage einsetzen."</v>
+        <v>DESIGNER_NO_STAT:0 "--"</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,11 +2897,11 @@
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">A29 &amp;" " &amp;"""" &amp;B29 &amp;""""</f>
-        <v> DESIGNER_DUPLICATE_OF_NAME:0 "Kopie von $TEMPLATE_NAME$"</v>
+        <v>DESIGNER_CREATE_NEW_DIVISION:1 "Leere erstellen"</v>
       </c>
       <c r="D29" s="1" t="str">
         <f aca="false">IF(ISBLANK(A29),"",C29)</f>
-        <v> DESIGNER_DUPLICATE_OF_NAME:0 "Kopie von $TEMPLATE_NAME$"</v>
+        <v>DESIGNER_CREATE_NEW_DIVISION:1 "Leere erstellen"</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,11 +2913,11 @@
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v> DESIGNER_NO_XP:0 "Keine Erfahrungspunkte zum Ausgeben"</v>
+        <v>DESIGNER_NEW_DIVISION:0 "Neue Abteilung"</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">IF(ISBLANK(A30),"",C30)</f>
-        <v> DESIGNER_NO_XP:0 "Keine Erfahrungspunkte zum Ausgeben"</v>
+        <v>DESIGNER_NEW_DIVISION:0 "Neue Abteilung"</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,11 +2929,11 @@
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v> DESIGNER_EXPENSIVE:0 "Der Entwurf ist zu teuer"</v>
+        <v>DESIGNER_DEFAULT_DIVISION:1 "$DOMINANT_UNIT$ Vorlage $NUMBER$"</v>
       </c>
       <c r="D31" s="1" t="str">
         <f aca="false">IF(ISBLANK(A31),"",C31)</f>
-        <v> DESIGNER_EXPENSIVE:0 "Der Entwurf ist zu teuer"</v>
+        <v>DESIGNER_DEFAULT_DIVISION:1 "$DOMINANT_UNIT$ Vorlage $NUMBER$"</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2879,11 +2945,11 @@
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">A32 &amp;" " &amp;"""" &amp;B32 &amp;""""</f>
-        <v> DESIGNER_NOT_ENOUGH_SPECIAL_FORCES:0 "Die Änderung des Designs würde das Limit für Spezialeinheiten überschreiten"</v>
+        <v>DESIGNER_DUPLICATE:0 "Duplizieren"</v>
       </c>
       <c r="D32" s="1" t="str">
         <f aca="false">IF(ISBLANK(A32),"",C32)</f>
-        <v> DESIGNER_NOT_ENOUGH_SPECIAL_FORCES:0 "Die Änderung des Designs würde das Limit für Spezialeinheiten überschreiten"</v>
+        <v>DESIGNER_DUPLICATE:0 "Duplizieren"</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,11 +2961,11 @@
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> DESIGNER_NOT_ENOUGH_DIVISION_CAP:0 "Entwurfsänderung würde das Divisionslimit überschreiten"</v>
+        <v>DESIGNER_DUPLICATE_DESC:1 "Duplizieren, um eine neue Vorlage für §Gfree§! zu erstellen, wenn Sie diese Vorlage speichern. Die ursprüngliche Vorlage bleibt unverändert und Sie können sie weiter verwenden, während Sie die neue Vorlage einsetzen."</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">IF(ISBLANK(A33),"",C33)</f>
-        <v> DESIGNER_NOT_ENOUGH_DIVISION_CAP:0 "Entwurfsänderung würde das Divisionslimit überschreiten"</v>
+        <v>DESIGNER_DUPLICATE_DESC:1 "Duplizieren, um eine neue Vorlage für §Gfree§! zu erstellen, wenn Sie diese Vorlage speichern. Die ursprüngliche Vorlage bleibt unverändert und Sie können sie weiter verwenden, während Sie die neue Vorlage einsetzen."</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,11 +2977,11 @@
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">A34 &amp;" " &amp;"""" &amp;B34 &amp;""""</f>
-        <v> DESIGNER_NO_CHANGES:0 "§TKeine Änderungen zu speichern§!"</v>
+        <v>DESIGNER_DUPLICATE_OF_NAME:0 "Kopie von $TEMPLATE_NAME$"</v>
       </c>
       <c r="D34" s="1" t="str">
         <f aca="false">IF(ISBLANK(A34),"",C34)</f>
-        <v> DESIGNER_NO_CHANGES:0 "§TKeine Änderungen zu speichern§!"</v>
+        <v>DESIGNER_DUPLICATE_OF_NAME:0 "Kopie von $TEMPLATE_NAME$"</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,11 +2993,11 @@
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v> DESIGNER_ARMY_SAVE:1 "Sparen Sie £army_experience $VALUE|Y0$"</v>
+        <v>DESIGNER_NO_XP:0 "Keine Erfahrungspunkte zum Ausgeben"</v>
       </c>
       <c r="D35" s="1" t="str">
         <f aca="false">IF(ISBLANK(A35),"",C35)</f>
-        <v> DESIGNER_ARMY_SAVE:1 "Sparen Sie £army_experience $VALUE|Y0$"</v>
+        <v>DESIGNER_NO_XP:0 "Keine Erfahrungspunkte zum Ausgeben"</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,11 +3009,11 @@
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v> DESIGNER_NAVY_SAVE:1 "Save £navy_experience $VALUE|Y0$"</v>
+        <v>DESIGNER_EXPENSIVE:0 "Der Entwurf ist zu teuer"</v>
       </c>
       <c r="D36" s="1" t="str">
         <f aca="false">IF(ISBLANK(A36),"",C36)</f>
-        <v> DESIGNER_NAVY_SAVE:1 "Save £navy_experience $VALUE|Y0$"</v>
+        <v>DESIGNER_EXPENSIVE:0 "Der Entwurf ist zu teuer"</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,11 +3025,11 @@
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> DESIGNER_AIR_SAVE:1 "Speichern £air_experience $VALUE|Y0$"</v>
+        <v>DESIGNER_NOT_ENOUGH_SPECIAL_FORCES:0 "Die Änderung des Designs würde das Limit für Spezialeinheiten überschreiten"</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">IF(ISBLANK(A37),"",C37)</f>
-        <v> DESIGNER_AIR_SAVE:1 "Speichern £air_experience $VALUE|Y0$"</v>
+        <v>DESIGNER_NOT_ENOUGH_SPECIAL_FORCES:0 "Die Änderung des Designs würde das Limit für Spezialeinheiten überschreiten"</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,11 +3041,11 @@
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v> DESIGNER_INFANTRY_LABEL:0 "Infanterie"</v>
+        <v>DESIGNER_NOT_ENOUGH_DIVISION_CAP:0 "Entwurfsänderung würde das Divisionslimit überschreiten"</v>
       </c>
       <c r="D38" s="1" t="str">
         <f aca="false">IF(ISBLANK(A38),"",C38)</f>
-        <v> DESIGNER_INFANTRY_LABEL:0 "Infanterie"</v>
+        <v>DESIGNER_NOT_ENOUGH_DIVISION_CAP:0 "Entwurfsänderung würde das Divisionslimit überschreiten"</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,11 +3057,11 @@
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> DESIGNER_INFANTRY_RATIO:0 "Infanterie: $VALUE|%Y$"</v>
+        <v>DESIGNER_NO_CHANGES:0 "§TKeine Änderungen zu speichern§!"</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v> DESIGNER_INFANTRY_RATIO:0 "Infanterie: $VALUE|%Y$"</v>
+        <v>DESIGNER_NO_CHANGES:0 "§TKeine Änderungen zu speichern§!"</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,11 +3073,11 @@
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v> DESIGNER_ARMORED_LABEL:0 "Gepanzert"</v>
+        <v>DESIGNER_ARMY_SAVE:1 "Sparen Sie £army_experience $VALUE|Y0$"</v>
       </c>
       <c r="D40" s="1" t="str">
         <f aca="false">IF(ISBLANK(A40),"",C40)</f>
-        <v> DESIGNER_ARMORED_LABEL:0 "Gepanzert"</v>
+        <v>DESIGNER_ARMY_SAVE:1 "Sparen Sie £army_experience $VALUE|Y0$"</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,11 +3089,11 @@
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v> DESIGNER_ARMORED_RATIO:0 "Gepanzert: $VALUE|%Y$"</v>
+        <v>DESIGNER_NAVY_SAVE:1 "Save £navy_experience $VALUE|Y0$"</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IF(ISBLANK(A41),"",C41)</f>
-        <v> DESIGNER_ARMORED_RATIO:0 "Gepanzert: $VALUE|%Y$"</v>
+        <v>DESIGNER_NAVY_SAVE:1 "Save £navy_experience $VALUE|Y0$"</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,11 +3105,11 @@
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">A42 &amp;" " &amp;"""" &amp;B42 &amp;""""</f>
-        <v> DESIGNER_RESET:0 "Zurücksetzen"</v>
+        <v>DESIGNER_AIR_SAVE:1 "Speichern £air_experience $VALUE|Y0$"</v>
       </c>
       <c r="D42" s="1" t="str">
         <f aca="false">IF(ISBLANK(A42),"",C42)</f>
-        <v> DESIGNER_RESET:0 "Zurücksetzen"</v>
+        <v>DESIGNER_AIR_SAVE:1 "Speichern £air_experience $VALUE|Y0$"</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3055,11 +3121,11 @@
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v> DESIGNER_RESET_DESC:0 "Setzt die aktuellen Änderungen an der Divisionsvorlage zurück."</v>
+        <v>DESIGNER_INFANTRY_LABEL:0 "Infanterie"</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IF(ISBLANK(A43),"",C43)</f>
-        <v> DESIGNER_RESET_DESC:0 "Setzt die aktuellen Änderungen an der Divisionsvorlage zurück."</v>
+        <v>DESIGNER_INFANTRY_LABEL:0 "Infanterie"</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3071,11 +3137,11 @@
       </c>
       <c r="C44" s="1" t="str">
         <f aca="false">A44 &amp;" " &amp;"""" &amp;B44 &amp;""""</f>
-        <v> DESIGNER_ARMY_EXPERIENCE:0 "$VALUE|Y$ £army_experience"</v>
+        <v>DESIGNER_INFANTRY_RATIO:0 "Infanterie: $VALUE|%Y$"</v>
       </c>
       <c r="D44" s="1" t="str">
         <f aca="false">IF(ISBLANK(A44),"",C44)</f>
-        <v> DESIGNER_ARMY_EXPERIENCE:0 "$VALUE|Y$ £army_experience"</v>
+        <v>DESIGNER_INFANTRY_RATIO:0 "Infanterie: $VALUE|%Y$"</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,11 +3153,11 @@
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> DESIGNER_NAVY_EXPERIENCE:0 "$VALUE|Y$ £Marine_Erfahrung"</v>
+        <v>DESIGNER_ARMORED_LABEL:0 "Gepanzert"</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v> DESIGNER_NAVY_EXPERIENCE:0 "$VALUE|Y$ £Marine_Erfahrung"</v>
+        <v>DESIGNER_ARMORED_LABEL:0 "Gepanzert"</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,11 +3169,11 @@
       </c>
       <c r="C46" s="1" t="str">
         <f aca="false">A46 &amp;" " &amp;"""" &amp;B46 &amp;""""</f>
-        <v> DESIGNER_AIR_EXPERIENCE:0 "$VALUE|Y$ £Luft_Erfahrung "</v>
+        <v>DESIGNER_ARMORED_RATIO:0 "Gepanzert: $VALUE|%Y$"</v>
       </c>
       <c r="D46" s="1" t="str">
         <f aca="false">IF(ISBLANK(A46),"",C46)</f>
-        <v> DESIGNER_AIR_EXPERIENCE:0 "$VALUE|Y$ £Luft_Erfahrung "</v>
+        <v>DESIGNER_ARMORED_RATIO:0 "Gepanzert: $VALUE|%Y$"</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,11 +3185,11 @@
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v> DESIGNER_CREATE_VARIANT:0 "Variante erstellen"</v>
+        <v>DESIGNER_RESET:0 "Zurücksetzen"</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
-        <v> DESIGNER_CREATE_VARIANT:0 "Variante erstellen"</v>
+        <v>DESIGNER_RESET:0 "Zurücksetzen"</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,11 +3201,11 @@
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> DESIGNER_MODIFY_VARIANT:0 "Variante ändern"</v>
+        <v>DESIGNER_RESET_DESC:0 "Setzt die aktuellen Änderungen an der Divisionsvorlage zurück."</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v> DESIGNER_MODIFY_VARIANT:0 "Variante ändern"</v>
+        <v>DESIGNER_RESET_DESC:0 "Setzt die aktuellen Änderungen an der Divisionsvorlage zurück."</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3151,11 +3217,11 @@
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v> DESIGNER_RENAME:0 "Umbenennen"</v>
+        <v>DESIGNER_ARMY_EXPERIENCE:0 "$VALUE|Y$ £army_experience"</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">IF(ISBLANK(A49),"",C49)</f>
-        <v> DESIGNER_RENAME:0 "Umbenennen"</v>
+        <v>DESIGNER_ARMY_EXPERIENCE:0 "$VALUE|Y$ £army_experience"</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,11 +3233,11 @@
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v> DIVISION_DIVISION:0 "Abteilung Designer"</v>
+        <v>DESIGNER_NAVY_EXPERIENCE:0 "$VALUE|Y$ £Marine_Erfahrung"</v>
       </c>
       <c r="D50" s="1" t="str">
         <f aca="false">IF(ISBLANK(A50),"",C50)</f>
-        <v> DIVISION_DIVISION:0 "Abteilung Designer"</v>
+        <v>DESIGNER_NAVY_EXPERIENCE:0 "$VALUE|Y$ £Marine_Erfahrung"</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,11 +3249,11 @@
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> CURRENT_EXPERIENCE:0 "Aktuelle Erfahrungspunkte"</v>
+        <v>DESIGNER_AIR_EXPERIENCE:0 "$VALUE|Y$ £Luft_Erfahrung "</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
-        <v> CURRENT_EXPERIENCE:0 "Aktuelle Erfahrungspunkte"</v>
+        <v>DESIGNER_AIR_EXPERIENCE:0 "$VALUE|Y$ £Luft_Erfahrung "</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,11 +3265,11 @@
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v> DESIGNER_OPTION_CHANGE_EFFECTS:0 "Die Auswahl dieser Option hat Auswirkungen auf:"</v>
+        <v>DESIGNER_CREATE_VARIANT:0 "Variante erstellen"</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">IF(ISBLANK(A52),"",C52)</f>
-        <v> DESIGNER_OPTION_CHANGE_EFFECTS:0 "Die Auswahl dieser Option hat Auswirkungen auf:"</v>
+        <v>DESIGNER_CREATE_VARIANT:0 "Variante erstellen"</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3215,11 +3281,11 @@
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> COMBAT_HEADER:0 "Kämpfen"</v>
+        <v>DESIGNER_MODIFY_VARIANT:0 "Variante ändern"</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> COMBAT_HEADER:0 "Kämpfen"</v>
+        <v>DESIGNER_MODIFY_VARIANT:0 "Variante ändern"</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,11 +3297,11 @@
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v> SUPPORT_HEADER:0 "Unterstützung"</v>
+        <v>DESIGNER_RENAME:0 "Umbenennen"</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">IF(ISBLANK(A54),"",C54)</f>
-        <v> SUPPORT_HEADER:0 "Unterstützung"</v>
+        <v>DESIGNER_RENAME:0 "Umbenennen"</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,11 +3313,11 @@
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v> FOREIGN_EQUIPMENT_NOW_FORBIDDEN:0 "Die Verwendung von ausländischer Ausrüstung ist jetzt verboten\n"</v>
+        <v>DIVISION_DIVISION:0 "Abteilung Designer"</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
-        <v> FOREIGN_EQUIPMENT_NOW_FORBIDDEN:0 "Die Verwendung von ausländischer Ausrüstung ist jetzt verboten\n"</v>
+        <v>DIVISION_DIVISION:0 "Abteilung Designer"</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,11 +3329,11 @@
       </c>
       <c r="C56" s="1" t="str">
         <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v> FOREIGN_EQUIPMENT_NOW_ALLOWED:0 "Die Verwendung von fremder Ausrüstung ist nun erlaubt\n"</v>
+        <v>CURRENT_EXPERIENCE:0 "Aktuelle Erfahrungspunkte"</v>
       </c>
       <c r="D56" s="1" t="str">
         <f aca="false">IF(ISBLANK(A56),"",C56)</f>
-        <v> FOREIGN_EQUIPMENT_NOW_ALLOWED:0 "Die Verwendung von fremder Ausrüstung ist nun erlaubt\n"</v>
+        <v>CURRENT_EXPERIENCE:0 "Aktuelle Erfahrungspunkte"</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,11 +3345,11 @@
       </c>
       <c r="C57" s="1" t="str">
         <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v> NEW_EQUIPMENT_NOW_FORBIDDEN:0 "Die Verwendung von neuer Ausrüstung ist jetzt verboten\n"</v>
+        <v>DESIGNER_OPTION_CHANGE_EFFECTS:0 "Die Auswahl dieser Option hat Auswirkungen auf:"</v>
       </c>
       <c r="D57" s="1" t="str">
         <f aca="false">IF(ISBLANK(A57),"",C57)</f>
-        <v> NEW_EQUIPMENT_NOW_FORBIDDEN:0 "Die Verwendung von neuer Ausrüstung ist jetzt verboten\n"</v>
+        <v>DESIGNER_OPTION_CHANGE_EFFECTS:0 "Die Auswahl dieser Option hat Auswirkungen auf:"</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,11 +3361,11 @@
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v> NEW_EQUIPMENT_NOW_ALLOWED:0 "Verwendung neuer Ausrüstung ist jetzt erlaubt\n"</v>
+        <v>COMBAT_HEADER:0 "Kämpfen"</v>
       </c>
       <c r="D58" s="1" t="str">
         <f aca="false">IF(ISBLANK(A58),"",C58)</f>
-        <v> NEW_EQUIPMENT_NOW_ALLOWED:0 "Verwendung neuer Ausrüstung ist jetzt erlaubt\n"</v>
+        <v>COMBAT_HEADER:0 "Kämpfen"</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,11 +3377,11 @@
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v> EQUIPMENT_TYPE_NOW_FORBIDDEN:0 "\nAusrüstungstypen sind jetzt §Verboten§!:\n"</v>
+        <v>SUPPORT_HEADER:0 "Unterstützung"</v>
       </c>
       <c r="D59" s="1" t="str">
         <f aca="false">IF(ISBLANK(A59),"",C59)</f>
-        <v> EQUIPMENT_TYPE_NOW_FORBIDDEN:0 "\nAusrüstungstypen sind jetzt §Verboten§!:\n"</v>
+        <v>SUPPORT_HEADER:0 "Unterstützung"</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,11 +3393,11 @@
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v> EQUIPMENT_TYPE_NOW_ALLOWED:0 "\nAusrüstungstypen sind jetzt §Gallowed§!:\n"</v>
+        <v>FOREIGN_EQUIPMENT_NOW_FORBIDDEN:0 "Die Verwendung von ausländischer Ausrüstung ist jetzt verboten\n"</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
-        <v> EQUIPMENT_TYPE_NOW_ALLOWED:0 "\nAusrüstungstypen sind jetzt §Gallowed§!:\n"</v>
+        <v>FOREIGN_EQUIPMENT_NOW_FORBIDDEN:0 "Die Verwendung von ausländischer Ausrüstung ist jetzt verboten\n"</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,11 +3409,11 @@
       </c>
       <c r="C61" s="1" t="str">
         <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v> EQUIPMENT_TYPE_ALL_FORBIDDEN:0 "- $EQUIPMENT_TYPE|H$ (§Rrequired§!)\n"</v>
+        <v>FOREIGN_EQUIPMENT_NOW_ALLOWED:0 "Die Verwendung von fremder Ausrüstung ist nun erlaubt\n"</v>
       </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
-        <v> EQUIPMENT_TYPE_ALL_FORBIDDEN:0 "- $EQUIPMENT_TYPE|H$ (§Rrequired§!)\n"</v>
+        <v>FOREIGN_EQUIPMENT_NOW_ALLOWED:0 "Die Verwendung von fremder Ausrüstung ist nun erlaubt\n"</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,11 +3425,11 @@
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v> EQUIPMENT_TYPE_HIGHLIGHTED:0 "- $EQUIPMENT_TYPE|H$\n"</v>
+        <v>NEW_EQUIPMENT_NOW_FORBIDDEN:0 "Die Verwendung von neuer Ausrüstung ist jetzt verboten\n"</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
-        <v> EQUIPMENT_TYPE_HIGHLIGHTED:0 "- $EQUIPMENT_TYPE|H$\n"</v>
+        <v>NEW_EQUIPMENT_NOW_FORBIDDEN:0 "Die Verwendung von neuer Ausrüstung ist jetzt verboten\n"</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,11 +3441,11 @@
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v> EQUIPMENT_ARCHETYPE_DESELECTED:1 "§RDer Vorlage fehlt die Ausrüstung:§!\n"</v>
+        <v>NEW_EQUIPMENT_NOW_ALLOWED:0 "Verwendung neuer Ausrüstung ist jetzt erlaubt\n"</v>
       </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
-        <v> EQUIPMENT_ARCHETYPE_DESELECTED:1 "§RDer Vorlage fehlt die Ausrüstung:§!\n"</v>
+        <v>NEW_EQUIPMENT_NOW_ALLOWED:0 "Verwendung neuer Ausrüstung ist jetzt erlaubt\n"</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,11 +3457,11 @@
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v> ALLOWED_EQUIPMENT_CHANGED_FOR_TYPE:0 "\nErlaubte Ausrüstung wurde geändert für:\n"</v>
+        <v>EQUIPMENT_TYPE_NOW_FORBIDDEN:0 "\nAusrüstungstypen sind jetzt §Verboten§!:\n"</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
-        <v> ALLOWED_EQUIPMENT_CHANGED_FOR_TYPE:0 "\nErlaubte Ausrüstung wurde geändert für:\n"</v>
+        <v>EQUIPMENT_TYPE_NOW_FORBIDDEN:0 "\nAusrüstungstypen sind jetzt §Verboten§!:\n"</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,11 +3473,11 @@
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v> ALLOWED_AND_TOTAL_EQUIPMENT_OF_TYPE:0 "$EQUIPMENT_TYPE|H$ ($ALLOWED$/$TOTAL$)\n"</v>
+        <v>EQUIPMENT_TYPE_NOW_ALLOWED:0 "\nAusrüstungstypen sind jetzt §Gallowed§!:\n"</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
-        <v> ALLOWED_AND_TOTAL_EQUIPMENT_OF_TYPE:0 "$EQUIPMENT_TYPE|H$ ($ALLOWED$/$TOTAL$)\n"</v>
+        <v>EQUIPMENT_TYPE_NOW_ALLOWED:0 "\nAusrüstungstypen sind jetzt §Gallowed§!:\n"</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3423,11 +3489,11 @@
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v> NO_INTERSECTED_EQUIPMENT_TITLE:0 "Gefährliche Änderung"</v>
+        <v>EQUIPMENT_TYPE_ALL_FORBIDDEN:0 "- $EQUIPMENT_TYPE|H$ (§Rrequired§!)\n"</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
-        <v> NO_INTERSECTED_EQUIPMENT_TITLE:0 "Gefährliche Änderung"</v>
+        <v>EQUIPMENT_TYPE_ALL_FORBIDDEN:0 "- $EQUIPMENT_TYPE|H$ (§Rrequired§!)\n"</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,11 +3505,11 @@
       </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v> NO_INTERSECTED_EQUIPMENT_DESC:0 "Diese Änderung führt zu §RDISBANDING§! von bestehenden Abteilungen mit dieser Vorlage. Es gibt keine Ausrüstungsüberschneidung zwischen der geänderten und der ursprünglichen Vorlage."</v>
+        <v>EQUIPMENT_TYPE_HIGHLIGHTED:0 "- $EQUIPMENT_TYPE|H$\n"</v>
       </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
-        <v> NO_INTERSECTED_EQUIPMENT_DESC:0 "Diese Änderung führt zu §RDISBANDING§! von bestehenden Abteilungen mit dieser Vorlage. Es gibt keine Ausrüstungsüberschneidung zwischen der geänderten und der ursprünglichen Vorlage."</v>
+        <v>EQUIPMENT_TYPE_HIGHLIGHTED:0 "- $EQUIPMENT_TYPE|H$\n"</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,11 +3521,11 @@
       </c>
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v> REGIMENT_WINDOW_DESC:0 "Eine Auswahl treffen, um ein Bataillon zu ändern oder hinzuzufügen"</v>
+        <v>EQUIPMENT_ARCHETYPE_DESELECTED:1 "§RDer Vorlage fehlt die Ausrüstung:§!\n"</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
-        <v> REGIMENT_WINDOW_DESC:0 "Eine Auswahl treffen, um ein Bataillon zu ändern oder hinzuzufügen"</v>
+        <v>EQUIPMENT_ARCHETYPE_DESELECTED:1 "§RDer Vorlage fehlt die Ausrüstung:§!\n"</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,11 +3537,11 @@
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v> PRODUCTION_RESOURCE_DESC:0 "Ressourcen, die für eine Fabrik benötigt werden, um diese Ausrüstung mit höchster Effizienz zu produzieren."</v>
+        <v>ALLOWED_EQUIPMENT_CHANGED_FOR_TYPE:0 "\nErlaubte Ausrüstung wurde geändert für:\n"</v>
       </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
-        <v> PRODUCTION_RESOURCE_DESC:0 "Ressourcen, die für eine Fabrik benötigt werden, um diese Ausrüstung mit höchster Effizienz zu produzieren."</v>
+        <v>ALLOWED_EQUIPMENT_CHANGED_FOR_TYPE:0 "\nErlaubte Ausrüstung wurde geändert für:\n"</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,11 +3553,11 @@
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_RESOURCE_DESC:0 "Ressourcen, die für die Produktion von Ausrüstung für diese Vorlage verwendet werden."</v>
+        <v>ALLOWED_AND_TOTAL_EQUIPMENT_OF_TYPE:0 "$EQUIPMENT_TYPE|H$ ($ALLOWED$/$TOTAL$)\n"</v>
       </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
-        <v> DIVISION_PRODUCTION_RESOURCE_DESC:0 "Ressourcen, die für die Produktion von Ausrüstung für diese Vorlage verwendet werden."</v>
+        <v>ALLOWED_AND_TOTAL_EQUIPMENT_OF_TYPE:0 "$EQUIPMENT_TYPE|H$ ($ALLOWED$/$TOTAL$)\n"</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3503,11 +3569,11 @@
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_COST_DESC:0 "Dies sind die §YMinimal§! und §YMaximal§! Produktionskosten für die aktuelle Division."</v>
+        <v>NO_INTERSECTED_EQUIPMENT_TITLE:0 "Gefährliche Änderung"</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
-        <v> DIVISION_PRODUCTION_COST_DESC:0 "Dies sind die §YMinimal§! und §YMaximal§! Produktionskosten für die aktuelle Division."</v>
+        <v>NO_INTERSECTED_EQUIPMENT_TITLE:0 "Gefährliche Änderung"</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,11 +3585,11 @@
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_COST_SINGLE_VAL:0 "Geschätzte Produktionskosten: £production_cost£$VALUE|0$"</v>
+        <v>NO_INTERSECTED_EQUIPMENT_DESC:0 "Diese Änderung führt zu §RDISBANDING§! von bestehenden Abteilungen mit dieser Vorlage. Es gibt keine Ausrüstungsüberschneidung zwischen der geänderten und der ursprünglichen Vorlage."</v>
       </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
-        <v> DIVISION_PRODUCTION_COST_SINGLE_VAL:0 "Geschätzte Produktionskosten: £production_cost£$VALUE|0$"</v>
+        <v>NO_INTERSECTED_EQUIPMENT_DESC:0 "Diese Änderung führt zu §RDISBANDING§! von bestehenden Abteilungen mit dieser Vorlage. Es gibt keine Ausrüstungsüberschneidung zwischen der geänderten und der ursprünglichen Vorlage."</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,11 +3601,11 @@
       </c>
       <c r="C73" s="1" t="str">
         <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v> DIVISION_REFIT_COST_LAND:1 "Umrüstungskosten: £production_cost $VALUE|2$"</v>
+        <v>REGIMENT_WINDOW_DESC:0 "Eine Auswahl treffen, um ein Bataillon zu ändern oder hinzuzufügen"</v>
       </c>
       <c r="D73" s="1" t="str">
         <f aca="false">IF(ISBLANK(A73),"",C73)</f>
-        <v> DIVISION_REFIT_COST_LAND:1 "Umrüstungskosten: £production_cost $VALUE|2$"</v>
+        <v>REGIMENT_WINDOW_DESC:0 "Eine Auswahl treffen, um ein Bataillon zu ändern oder hinzuzufügen"</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,11 +3617,11 @@
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v> DIVISION_REFIT_COST_NAVAL:2 "Umrüstungskosten: £navprod_cost£ $VALUE|0$"</v>
+        <v>PRODUCTION_RESOURCE_DESC:0 "Ressourcen, die für eine Fabrik benötigt werden, um diese Ausrüstung mit höchster Effizienz zu produzieren."</v>
       </c>
       <c r="D74" s="1" t="str">
         <f aca="false">IF(ISBLANK(A74),"",C74)</f>
-        <v> DIVISION_REFIT_COST_NAVAL:2 "Umrüstungskosten: £navprod_cost£ $VALUE|0$"</v>
+        <v>PRODUCTION_RESOURCE_DESC:0 "Ressourcen, die für eine Fabrik benötigt werden, um diese Ausrüstung mit höchster Effizienz zu produzieren."</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,11 +3633,11 @@
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL:2 "Die Kosten für die Umrüstung eines Schiffes des Typs §Horiginal design§! auf diesen Typ."</v>
+        <v>DIVISION_PRODUCTION_RESOURCE_DESC:0 "Ressourcen, die für die Produktion von Ausrüstung für diese Vorlage verwendet werden."</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
-        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL:2 "Die Kosten für die Umrüstung eines Schiffes des Typs §Horiginal design§! auf diesen Typ."</v>
+        <v>DIVISION_PRODUCTION_RESOURCE_DESC:0 "Ressourcen, die für die Produktion von Ausrüstung für diese Vorlage verwendet werden."</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,11 +3649,11 @@
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL_LAND:0 "Die Kosten für die Umrüstung von Ausrüstung des §Horiginaldesign§! auf dieses Design."</v>
+        <v>DIVISION_PRODUCTION_COST_DESC:0 "Dies sind die §YMinimal§! und §YMaximal§! Produktionskosten für die aktuelle Division."</v>
       </c>
       <c r="D76" s="1" t="str">
         <f aca="false">IF(ISBLANK(A76),"",C76)</f>
-        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL_LAND:0 "Die Kosten für die Umrüstung von Ausrüstung des §Horiginaldesign§! auf dieses Design."</v>
+        <v>DIVISION_PRODUCTION_COST_DESC:0 "Dies sind die §YMinimal§! und §YMaximal§! Produktionskosten für die aktuelle Division."</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,11 +3665,11 @@
       </c>
       <c r="C77" s="1" t="str">
         <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v> DESIGNER_REFIT_COST_FROM_PARENT:2 "Die Kosten für die Umrüstung eines Schiffes des Designs $PARENT_NAME|H$ auf dieses Design."</v>
+        <v>DIVISION_PRODUCTION_COST_SINGLE_VAL:0 "Geschätzte Produktionskosten: £production_cost£$VALUE|0$"</v>
       </c>
       <c r="D77" s="1" t="str">
         <f aca="false">IF(ISBLANK(A77),"",C77)</f>
-        <v> DESIGNER_REFIT_COST_FROM_PARENT:2 "Die Kosten für die Umrüstung eines Schiffes des Designs $PARENT_NAME|H$ auf dieses Design."</v>
+        <v>DIVISION_PRODUCTION_COST_SINGLE_VAL:0 "Geschätzte Produktionskosten: £production_cost£$VALUE|0$"</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,11 +3681,11 @@
       </c>
       <c r="C78" s="1" t="str">
         <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v> DESIGNER_REFIT_COST_FROM_PARENT_LAND:0 "Die Kosten für den Umbau von Ausrüstung des $PARENT_NAME|H$-Designs in dieses Design."</v>
+        <v>DIVISION_REFIT_COST_LAND:1 "Umrüstungskosten: £production_cost $VALUE|2$"</v>
       </c>
       <c r="D78" s="1" t="str">
         <f aca="false">IF(ISBLANK(A78),"",C78)</f>
-        <v> DESIGNER_REFIT_COST_FROM_PARENT_LAND:0 "Die Kosten für den Umbau von Ausrüstung des $PARENT_NAME|H$-Designs in dieses Design."</v>
+        <v>DIVISION_REFIT_COST_LAND:1 "Umrüstungskosten: £production_cost $VALUE|2$"</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,11 +3697,11 @@
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_COST_LAND:1 "Produktionskosten: £production_cost $VALUE|2$"</v>
+        <v>DIVISION_REFIT_COST_NAVAL:2 "Umrüstungskosten: £navprod_cost£ $VALUE|0$"</v>
       </c>
       <c r="D79" s="1" t="str">
         <f aca="false">IF(ISBLANK(A79),"",C79)</f>
-        <v> DIVISION_PRODUCTION_COST_LAND:1 "Produktionskosten: £production_cost $VALUE|2$"</v>
+        <v>DIVISION_REFIT_COST_NAVAL:2 "Umrüstungskosten: £navprod_cost£ $VALUE|0$"</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,11 +3713,11 @@
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_COST_LAND_MAX:1 "Produktionskosten: £production_cost $VALUE|2$/$MAX|0$"</v>
+        <v>DESIGNER_REFIT_COST_FROM_ORIGINAL:2 "Die Kosten für die Umrüstung eines Schiffes des Typs §Horiginal design§! auf diesen Typ."</v>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
-        <v> DIVISION_PRODUCTION_COST_LAND_MAX:1 "Produktionskosten: £production_cost $VALUE|2$/$MAX|0$"</v>
+        <v>DESIGNER_REFIT_COST_FROM_ORIGINAL:2 "Die Kosten für die Umrüstung eines Schiffes des Typs §Horiginal design§! auf diesen Typ."</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,11 +3729,11 @@
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_COST_LAND_MAX_EXCEEDED:0 "Herstellungskosten: £production_cost $VALUE|2R$/$MAX|0$"</v>
+        <v>DESIGNER_REFIT_COST_FROM_ORIGINAL_LAND:0 "Die Kosten für die Umrüstung von Ausrüstung des §Horiginaldesign§! auf dieses Design."</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v> DIVISION_PRODUCTION_COST_LAND_MAX_EXCEEDED:0 "Herstellungskosten: £production_cost $VALUE|2R$/$MAX|0$"</v>
+        <v>DESIGNER_REFIT_COST_FROM_ORIGINAL_LAND:0 "Die Kosten für die Umrüstung von Ausrüstung des §Horiginaldesign§! auf dieses Design."</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,11 +3745,11 @@
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_COST_NAVAL:2 "Herstellungskosten: £navprod_cost£ $VALUE|0$"</v>
+        <v>DESIGNER_REFIT_COST_FROM_PARENT:2 "Die Kosten für die Umrüstung eines Schiffes des Designs $PARENT_NAME|H$ auf dieses Design."</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
-        <v> DIVISION_PRODUCTION_COST_NAVAL:2 "Herstellungskosten: £navprod_cost£ $VALUE|0$"</v>
+        <v>DESIGNER_REFIT_COST_FROM_PARENT:2 "Die Kosten für die Umrüstung eines Schiffes des Designs $PARENT_NAME|H$ auf dieses Design."</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,11 +3761,11 @@
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_COST_NAVAL_MAX:1 "Herstellungskosten: £navprod_cost£ $VALUE|0$/$MAX|0$"</v>
+        <v>DESIGNER_REFIT_COST_FROM_PARENT_LAND:0 "Die Kosten für den Umbau von Ausrüstung des $PARENT_NAME|H$-Designs in dieses Design."</v>
       </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
-        <v> DIVISION_PRODUCTION_COST_NAVAL_MAX:1 "Herstellungskosten: £navprod_cost£ $VALUE|0$/$MAX|0$"</v>
+        <v>DESIGNER_REFIT_COST_FROM_PARENT_LAND:0 "Die Kosten für den Umbau von Ausrüstung des $PARENT_NAME|H$-Designs in dieses Design."</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,11 +3777,11 @@
       </c>
       <c r="C84" s="1" t="str">
         <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_COST_NAVAL_MAX_EXCEEDED:0 "Herstellungskosten: £navprod_cost£ $VALUE|0R$/$MAX|0$"</v>
+        <v>DIVISION_PRODUCTION_COST_LAND:1 "Produktionskosten: £production_cost $VALUE|2$"</v>
       </c>
       <c r="D84" s="1" t="str">
         <f aca="false">IF(ISBLANK(A84),"",C84)</f>
-        <v> DIVISION_PRODUCTION_COST_NAVAL_MAX_EXCEEDED:0 "Herstellungskosten: £navprod_cost£ $VALUE|0R$/$MAX|0$"</v>
+        <v>DIVISION_PRODUCTION_COST_LAND:1 "Produktionskosten: £production_cost $VALUE|2$"</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,11 +3793,11 @@
       </c>
       <c r="C85" s="1" t="str">
         <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_COST_VAL:0 "Geschätzte Produktionskosten: £production_cost£ $MINVALUE|0$ bis £production_cost£ $MAXVALUE|0$"</v>
+        <v>DIVISION_PRODUCTION_COST_LAND_MAX:1 "Produktionskosten: £production_cost $VALUE|2$/$MAX|0$"</v>
       </c>
       <c r="D85" s="1" t="str">
         <f aca="false">IF(ISBLANK(A85),"",C85)</f>
-        <v> DIVISION_PRODUCTION_COST_VAL:0 "Geschätzte Produktionskosten: £production_cost£ $MINVALUE|0$ bis £production_cost£ $MAXVALUE|0$"</v>
+        <v>DIVISION_PRODUCTION_COST_LAND_MAX:1 "Produktionskosten: £production_cost $VALUE|2$/$MAX|0$"</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,11 +3809,11 @@
       </c>
       <c r="C86" s="1" t="str">
         <f aca="false">A86 &amp;" " &amp;"""" &amp;B86 &amp;""""</f>
-        <v> DIVISION_MODIFICATION_HEADER:1 "Diese Änderung der Vorlage wirkt sich auf die Abteilungen $AMOUNT|H$ aus."</v>
+        <v>DIVISION_PRODUCTION_COST_LAND_MAX_EXCEEDED:0 "Herstellungskosten: £production_cost $VALUE|2R$/$MAX|0$"</v>
       </c>
       <c r="D86" s="1" t="str">
         <f aca="false">IF(ISBLANK(A86),"",C86)</f>
-        <v> DIVISION_MODIFICATION_HEADER:1 "Diese Änderung der Vorlage wirkt sich auf die Abteilungen $AMOUNT|H$ aus."</v>
+        <v>DIVISION_PRODUCTION_COST_LAND_MAX_EXCEEDED:0 "Herstellungskosten: £production_cost $VALUE|2R$/$MAX|0$"</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,11 +3825,11 @@
       </c>
       <c r="C87" s="1" t="str">
         <f aca="false">A87 &amp;" " &amp;"""" &amp;B87 &amp;""""</f>
-        <v> DIVISION_GARRISON_MODIFICATION_HEADER:0 "Diese Änderung wirkt sich auf $AMOUNT|H$ Divisionen und die Garnison von $NUMGARRISON|H$ Staaten aus."</v>
+        <v>DIVISION_PRODUCTION_COST_NAVAL:2 "Herstellungskosten: £navprod_cost£ $VALUE|0$"</v>
       </c>
       <c r="D87" s="1" t="str">
         <f aca="false">IF(ISBLANK(A87),"",C87)</f>
-        <v> DIVISION_GARRISON_MODIFICATION_HEADER:0 "Diese Änderung wirkt sich auf $AMOUNT|H$ Divisionen und die Garnison von $NUMGARRISON|H$ Staaten aus."</v>
+        <v>DIVISION_PRODUCTION_COST_NAVAL:2 "Herstellungskosten: £navprod_cost£ $VALUE|0$"</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,11 +3841,11 @@
       </c>
       <c r="C88" s="1" t="str">
         <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
-        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED:1 "\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ benötigt um Divisionen zu besetzen ( §R$STOCK_AMOUNT|H0^$ vorhanden§! )"</v>
+        <v>DIVISION_PRODUCTION_COST_NAVAL_MAX:1 "Herstellungskosten: £navprod_cost£ $VALUE|0$/$MAX|0$"</v>
       </c>
       <c r="D88" s="1" t="str">
         <f aca="false">IF(ISBLANK(A88),"",C88)</f>
-        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED:1 "\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ benötigt um Divisionen zu besetzen ( §R$STOCK_AMOUNT|H0^$ vorhanden§! )"</v>
+        <v>DIVISION_PRODUCTION_COST_NAVAL_MAX:1 "Herstellungskosten: £navprod_cost£ $VALUE|0$/$MAX|0$"</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,11 +3857,11 @@
       </c>
       <c r="C89" s="1" t="str">
         <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v> DIVISION_MODIFICATION_NEED_FILLED:1 "\t- $AMOUNT|H0$ zusätzliches $EQUIPMENT|H$ benötigt, um Abteilungen zu füllen ( $STOCK_AMOUNT|H0^$ verfügbar )"</v>
+        <v>DIVISION_PRODUCTION_COST_NAVAL_MAX_EXCEEDED:0 "Herstellungskosten: £navprod_cost£ $VALUE|0R$/$MAX|0$"</v>
       </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
-        <v> DIVISION_MODIFICATION_NEED_FILLED:1 "\t- $AMOUNT|H0$ zusätzliches $EQUIPMENT|H$ benötigt, um Abteilungen zu füllen ( $STOCK_AMOUNT|H0^$ verfügbar )"</v>
+        <v>DIVISION_PRODUCTION_COST_NAVAL_MAX_EXCEEDED:0 "Herstellungskosten: £navprod_cost£ $VALUE|0R$/$MAX|0$"</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,11 +3873,11 @@
       </c>
       <c r="C90" s="1" t="str">
         <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
-        <v> DIVISION_MODIFICATION_LESS_EQUIPMENT_NEEDED:0 "\t- $AMOUNT|H0$ weniger $EQUIPMENT|H$ benötigt, um Abteilungen zu füllen"</v>
+        <v>DIVISION_PRODUCTION_COST_VAL:0 "Geschätzte Produktionskosten: £production_cost£ $MINVALUE|0$ bis £production_cost£ $MAXVALUE|0$"</v>
       </c>
       <c r="D90" s="1" t="str">
         <f aca="false">IF(ISBLANK(A90),"",C90)</f>
-        <v> DIVISION_MODIFICATION_LESS_EQUIPMENT_NEEDED:0 "\t- $AMOUNT|H0$ weniger $EQUIPMENT|H$ benötigt, um Abteilungen zu füllen"</v>
+        <v>DIVISION_PRODUCTION_COST_VAL:0 "Geschätzte Produktionskosten: £production_cost£ $MINVALUE|0$ bis £production_cost£ $MAXVALUE|0$"</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,11 +3889,11 @@
       </c>
       <c r="C91" s="1" t="str">
         <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
-        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED_GARRISON:0 "\t- $AMOUNT|H0$ zusätzlich $EQUIPMENT|H$ benötigt, um Divisionen und Garnisonen zu füllen ( §R$STOCK_AMOUNT|H0^$ verfügbar§! )"</v>
+        <v>DIVISION_MODIFICATION_HEADER:1 "Diese Änderung der Vorlage wirkt sich auf die Abteilungen $AMOUNT|H$ aus."</v>
       </c>
       <c r="D91" s="1" t="str">
         <f aca="false">IF(ISBLANK(A91),"",C91)</f>
-        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED_GARRISON:0 "\t- $AMOUNT|H0$ zusätzlich $EQUIPMENT|H$ benötigt, um Divisionen und Garnisonen zu füllen ( §R$STOCK_AMOUNT|H0^$ verfügbar§! )"</v>
+        <v>DIVISION_MODIFICATION_HEADER:1 "Diese Änderung der Vorlage wirkt sich auf die Abteilungen $AMOUNT|H$ aus."</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,11 +3905,11 @@
       </c>
       <c r="C92" s="1" t="str">
         <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v> DIVISION_MODIFICATION_NEED_FILLED_GARRISON:0 "\t- $AMOUNT|H0$ zusätzliches $EQUIPMENT|H$ benötigt zur Besetzung von Divisionen und Garnisonen ( $STOCK_AMOUNT|H0^$ verfügbar )"</v>
+        <v>DIVISION_GARRISON_MODIFICATION_HEADER:0 "Diese Änderung wirkt sich auf $AMOUNT|H$ Divisionen und die Garnison von $NUMGARRISON|H$ Staaten aus."</v>
       </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
-        <v> DIVISION_MODIFICATION_NEED_FILLED_GARRISON:0 "\t- $AMOUNT|H0$ zusätzliches $EQUIPMENT|H$ benötigt zur Besetzung von Divisionen und Garnisonen ( $STOCK_AMOUNT|H0^$ verfügbar )"</v>
+        <v>DIVISION_GARRISON_MODIFICATION_HEADER:0 "Diese Änderung wirkt sich auf $AMOUNT|H$ Divisionen und die Garnison von $NUMGARRISON|H$ Staaten aus."</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3855,11 +3921,11 @@
       </c>
       <c r="C93" s="1" t="str">
         <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v> DIVISION_MODIFICATION_LESS_EQUIPMENT_NEEDED_GARRISON:0 "\t- $AMOUNT|H0$ abzüglich $EQUIPMENT|H$ benötigt, um Divisionen und Garnisonen zu füllen"</v>
+        <v>DIVISION_MODIFICATION_NEED_NOT_FILLED:1 "\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ benötigt um Divisionen zu besetzen ( §R$STOCK_AMOUNT|H0^$ vorhanden§! )"</v>
       </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
-        <v> DIVISION_MODIFICATION_LESS_EQUIPMENT_NEEDED_GARRISON:0 "\t- $AMOUNT|H0$ abzüglich $EQUIPMENT|H$ benötigt, um Divisionen und Garnisonen zu füllen"</v>
+        <v>DIVISION_MODIFICATION_NEED_NOT_FILLED:1 "\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ benötigt um Divisionen zu besetzen ( §R$STOCK_AMOUNT|H0^$ vorhanden§! )"</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,11 +3937,11 @@
       </c>
       <c r="C94" s="1" t="str">
         <f aca="false">A94 &amp;" " &amp;"""" &amp;B94 &amp;""""</f>
-        <v> SELECTED_SUBUNIT:0 "§G(Currently selected)§!"</v>
+        <v>DIVISION_MODIFICATION_NEED_FILLED:1 "\t- $AMOUNT|H0$ zusätzliches $EQUIPMENT|H$ benötigt, um Abteilungen zu füllen ( $STOCK_AMOUNT|H0^$ verfügbar )"</v>
       </c>
       <c r="D94" s="1" t="str">
         <f aca="false">IF(ISBLANK(A94),"",C94)</f>
-        <v> SELECTED_SUBUNIT:0 "§G(Currently selected)§!"</v>
+        <v>DIVISION_MODIFICATION_NEED_FILLED:1 "\t- $AMOUNT|H0$ zusätzliches $EQUIPMENT|H$ benötigt, um Abteilungen zu füllen ( $STOCK_AMOUNT|H0^$ verfügbar )"</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,11 +3953,11 @@
       </c>
       <c r="C95" s="1" t="str">
         <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v> DESIGNER_TEMPLATE_NAME_TIP:0 "Division basierend auf $NAME|Y$ Vorlage"</v>
+        <v>DIVISION_MODIFICATION_LESS_EQUIPMENT_NEEDED:0 "\t- $AMOUNT|H0$ weniger $EQUIPMENT|H$ benötigt, um Abteilungen zu füllen"</v>
       </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
-        <v> DESIGNER_TEMPLATE_NAME_TIP:0 "Division basierend auf $NAME|Y$ Vorlage"</v>
+        <v>DIVISION_MODIFICATION_LESS_EQUIPMENT_NEEDED:0 "\t- $AMOUNT|H0$ weniger $EQUIPMENT|H$ benötigt, um Abteilungen zu füllen"</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,11 +3969,11 @@
       </c>
       <c r="C96" s="1" t="str">
         <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v> DESIGNER_EMPTY_REGIMENT:0 "§Sie müssen ein Kampfbataillon hinzufügen, um eine neue Divisionsvorlage zu erstellen§!"</v>
+        <v>DIVISION_MODIFICATION_NEED_NOT_FILLED_GARRISON:0 "\t- $AMOUNT|H0$ zusätzlich $EQUIPMENT|H$ benötigt, um Divisionen und Garnisonen zu füllen ( §R$STOCK_AMOUNT|H0^$ verfügbar§! )"</v>
       </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
-        <v> DESIGNER_EMPTY_REGIMENT:0 "§Sie müssen ein Kampfbataillon hinzufügen, um eine neue Divisionsvorlage zu erstellen§!"</v>
+        <v>DIVISION_MODIFICATION_NEED_NOT_FILLED_GARRISON:0 "\t- $AMOUNT|H0$ zusätzlich $EQUIPMENT|H$ benötigt, um Divisionen und Garnisonen zu füllen ( §R$STOCK_AMOUNT|H0^$ verfügbar§! )"</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,11 +3985,11 @@
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v> DESIGNER_EMPTY_NAME:0 "§RDivisionsvorlage sollte keinen leeren Namen haben§!"</v>
+        <v>DIVISION_MODIFICATION_NEED_FILLED_GARRISON:0 "\t- $AMOUNT|H0$ zusätzliches $EQUIPMENT|H$ benötigt zur Besetzung von Divisionen und Garnisonen ( $STOCK_AMOUNT|H0^$ verfügbar )"</v>
       </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
-        <v> DESIGNER_EMPTY_NAME:0 "§RDivisionsvorlage sollte keinen leeren Namen haben§!"</v>
+        <v>DIVISION_MODIFICATION_NEED_FILLED_GARRISON:0 "\t- $AMOUNT|H0$ zusätzliches $EQUIPMENT|H$ benötigt zur Besetzung von Divisionen und Garnisonen ( $STOCK_AMOUNT|H0^$ verfügbar )"</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,11 +4001,11 @@
       </c>
       <c r="C98" s="1" t="str">
         <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v> DESIGNER_TEMPLATE_NAME_EXISTS:0 "§RAnother division template with the same name already exists§!"</v>
+        <v>DIVISION_MODIFICATION_LESS_EQUIPMENT_NEEDED_GARRISON:0 "\t- $AMOUNT|H0$ abzüglich $EQUIPMENT|H$ benötigt, um Divisionen und Garnisonen zu füllen"</v>
       </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
-        <v> DESIGNER_TEMPLATE_NAME_EXISTS:0 "§RAnother division template with the same name already exists§!"</v>
+        <v>DIVISION_MODIFICATION_LESS_EQUIPMENT_NEEDED_GARRISON:0 "\t- $AMOUNT|H0$ abzüglich $EQUIPMENT|H$ benötigt, um Divisionen und Garnisonen zu füllen"</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,11 +4017,11 @@
       </c>
       <c r="C99" s="1" t="str">
         <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v> DESIGNER_SUPPORT_COLUMN_TITLE:1 "Unterstützungskompanien. Dies sind Unterstützungstruppen, die hinter den Fronttruppen stehen, um ihnen zu helfen.\n\Nur eine von jedem Typ kann ausgewählt werden. Sie erhöhen normalerweise nicht die §YKampfbreite§! der §YDivision§!"</v>
+        <v>SELECTED_SUBUNIT:0 "§G(Currently selected)§!"</v>
       </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
-        <v> DESIGNER_SUPPORT_COLUMN_TITLE:1 "Unterstützungskompanien. Dies sind Unterstützungstruppen, die hinter den Fronttruppen stehen, um ihnen zu helfen.\n\Nur eine von jedem Typ kann ausgewählt werden. Sie erhöhen normalerweise nicht die §YKampfbreite§! der §YDivision§!"</v>
+        <v>SELECTED_SUBUNIT:0 "§G(Currently selected)§!"</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,11 +4033,11 @@
       </c>
       <c r="C100" s="1" t="str">
         <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v> DESIGNER_MAIN_COLUMN_TITLE:2 "Kampfbataillone sind deine Fronttruppen.\n\nJede Kolonne ist ein Regiment eines bestimmten Basistyps wie §YPanzer§!, §YInfanterie§! oder §YMotorisierte Truppen§!.\n§Y3 Bataillone§! bilden ein §RRegiment§! \n§Y1 Regiment§! kann maximal §Y5 Bataillone§! haben.\n§Y2 Regimenter§! bilden eine §RBrigade§!\n§Y3 oder mehr Regimenter§! bilden eine §RDivision§!.\nDer oberste Typ entscheidet, was man noch in die Regimentsspalte packen kann. Je mehr Kampfkompanien du hast, desto größer ist deine §YCombat Width§! und desto weniger von diesen Divisionen kannst du in dieselbe Schlacht einbauen."</v>
+        <v>DESIGNER_TEMPLATE_NAME_TIP:0 "Division basierend auf $NAME|Y$ Vorlage"</v>
       </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
-        <v> DESIGNER_MAIN_COLUMN_TITLE:2 "Kampfbataillone sind deine Fronttruppen.\n\nJede Kolonne ist ein Regiment eines bestimmten Basistyps wie §YPanzer§!, §YInfanterie§! oder §YMotorisierte Truppen§!.\n§Y3 Bataillone§! bilden ein §RRegiment§! \n§Y1 Regiment§! kann maximal §Y5 Bataillone§! haben.\n§Y2 Regimenter§! bilden eine §RBrigade§!\n§Y3 oder mehr Regimenter§! bilden eine §RDivision§!.\nDer oberste Typ entscheidet, was man noch in die Regimentsspalte packen kann. Je mehr Kampfkompanien du hast, desto größer ist deine §YCombat Width§! und desto weniger von diesen Divisionen kannst du in dieselbe Schlacht einbauen."</v>
+        <v>DESIGNER_TEMPLATE_NAME_TIP:0 "Division basierend auf $NAME|Y$ Vorlage"</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3983,11 +4049,11 @@
       </c>
       <c r="C101" s="1" t="str">
         <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v> REINFORCE_WITH_RESEARCHED_EQUIPMENT:1 "Deaktivieren, um automatisch alle neuen Ausrüstungen zu verbieten, wenn sie erforscht werden."</v>
+        <v>DESIGNER_EMPTY_REGIMENT:0 "§Sie müssen ein Kampfbataillon hinzufügen, um eine neue Divisionsvorlage zu erstellen§!"</v>
       </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
-        <v> REINFORCE_WITH_RESEARCHED_EQUIPMENT:1 "Deaktivieren, um automatisch alle neuen Ausrüstungen zu verbieten, wenn sie erforscht werden."</v>
+        <v>DESIGNER_EMPTY_REGIMENT:0 "§Sie müssen ein Kampfbataillon hinzufügen, um eine neue Divisionsvorlage zu erstellen§!"</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,11 +4065,11 @@
       </c>
       <c r="C102" s="1" t="str">
         <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v> REINFORCE_WITH_RESEARCHED_EQUIPMENT_FORBIDDEN:0 "Neue Ausrüstung ist derzeit verboten."</v>
+        <v>DESIGNER_EMPTY_NAME:0 "§RDivisionsvorlage sollte keinen leeren Namen haben§!"</v>
       </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
-        <v> REINFORCE_WITH_RESEARCHED_EQUIPMENT_FORBIDDEN:0 "Neue Ausrüstung ist derzeit verboten."</v>
+        <v>DESIGNER_EMPTY_NAME:0 "§RDivisionsvorlage sollte keinen leeren Namen haben§!"</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,11 +4081,11 @@
       </c>
       <c r="C103" s="1" t="str">
         <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v> REINFORCE_WITH_EQUIPMENT:1 "Aktivieren, um mit dieser Ausrüstung zu verstärken. \n§GShift-Klick§! um alle Ausrüstungen dieses Typs zu verbieten.\n"</v>
+        <v>DESIGNER_TEMPLATE_NAME_EXISTS:0 "§RAnother division template with the same name already exists§!"</v>
       </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
-        <v> REINFORCE_WITH_EQUIPMENT:1 "Aktivieren, um mit dieser Ausrüstung zu verstärken. \n§GShift-Klick§! um alle Ausrüstungen dieses Typs zu verbieten.\n"</v>
+        <v>DESIGNER_TEMPLATE_NAME_EXISTS:0 "§RAnother division template with the same name already exists§!"</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,11 +4097,11 @@
       </c>
       <c r="C104" s="1" t="str">
         <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v> ALLOW_FOREIGN_EQUIPMENT:0 "Fremde Ausrüstung zulassen"</v>
+        <v>DESIGNER_SUPPORT_COLUMN_TITLE:1 "Unterstützungskompanien. Dies sind Unterstützungstruppen, die hinter den Fronttruppen stehen, um ihnen zu helfen.\n\Nur eine von jedem Typ kann ausgewählt werden. Sie erhöhen normalerweise nicht die §YKampfbreite§! der §YDivision§!"</v>
       </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
-        <v> ALLOW_FOREIGN_EQUIPMENT:0 "Fremde Ausrüstung zulassen"</v>
+        <v>DESIGNER_SUPPORT_COLUMN_TITLE:1 "Unterstützungskompanien. Dies sind Unterstützungstruppen, die hinter den Fronttruppen stehen, um ihnen zu helfen.\n\Nur eine von jedem Typ kann ausgewählt werden. Sie erhöhen normalerweise nicht die §YKampfbreite§! der §YDivision§!"</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,11 +4113,11 @@
       </c>
       <c r="C105" s="1" t="str">
         <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v> ALLOW_FOREIGN_EQUIPMENT_TT:1 "Deaktivieren Sie diese Option, um alle aktuellen und zukünftigen ausländischen Ausrüstungen zu verbieten, was sowohl geliehene als auch erbeutete Ausrüstungen einschließt."</v>
+        <v>DESIGNER_MAIN_COLUMN_TITLE:2 "Kampfbataillone sind deine Fronttruppen.\n\nJede Kolonne ist ein Regiment eines bestimmten Basistyps wie §YPanzer§!, §YInfanterie§! oder §YMotorisierte Truppen§!.\n§Y3 Bataillone§! bilden ein §RRegiment§! \n§Y1 Regiment§! kann maximal §Y5 Bataillone§! haben.\n§Y2 Regimenter§! bilden eine §RBrigade§!\n§Y3 oder mehr Regimenter§! bilden eine §RDivision§!.\nDer oberste Typ entscheidet, was man noch in die Regimentsspalte packen kann. Je mehr Kampfkompanien du hast, desto größer ist deine §YCombat Width§! und desto weniger von diesen Divisionen kannst du in dieselbe Schlacht einbauen."</v>
       </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
-        <v> ALLOW_FOREIGN_EQUIPMENT_TT:1 "Deaktivieren Sie diese Option, um alle aktuellen und zukünftigen ausländischen Ausrüstungen zu verbieten, was sowohl geliehene als auch erbeutete Ausrüstungen einschließt."</v>
+        <v>DESIGNER_MAIN_COLUMN_TITLE:2 "Kampfbataillone sind deine Fronttruppen.\n\nJede Kolonne ist ein Regiment eines bestimmten Basistyps wie §YPanzer§!, §YInfanterie§! oder §YMotorisierte Truppen§!.\n§Y3 Bataillone§! bilden ein §RRegiment§! \n§Y1 Regiment§! kann maximal §Y5 Bataillone§! haben.\n§Y2 Regimenter§! bilden eine §RBrigade§!\n§Y3 oder mehr Regimenter§! bilden eine §RDivision§!.\nDer oberste Typ entscheidet, was man noch in die Regimentsspalte packen kann. Je mehr Kampfkompanien du hast, desto größer ist deine §YCombat Width§! und desto weniger von diesen Divisionen kannst du in dieselbe Schlacht einbauen."</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,11 +4129,11 @@
       </c>
       <c r="C106" s="1" t="str">
         <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
-        <v> ALLOW_FOREIGN_EQUIPMENT_DISABLED_TT:0 "Ausländische Ausrüstung ist jetzt verboten.\n"</v>
+        <v>REINFORCE_WITH_RESEARCHED_EQUIPMENT:1 "Deaktivieren, um automatisch alle neuen Ausrüstungen zu verbieten, wenn sie erforscht werden."</v>
       </c>
       <c r="D106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A106),"",C106)</f>
-        <v> ALLOW_FOREIGN_EQUIPMENT_DISABLED_TT:0 "Ausländische Ausrüstung ist jetzt verboten.\n"</v>
+        <v>REINFORCE_WITH_RESEARCHED_EQUIPMENT:1 "Deaktivieren, um automatisch alle neuen Ausrüstungen zu verbieten, wenn sie erforscht werden."</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4079,11 +4145,11 @@
       </c>
       <c r="C107" s="1" t="str">
         <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
-        <v> REINFORCE_WITH_TYPE_OF_EQUIPMENT:1 "Verstärkung mit dieser Art von Ausrüstung umschalten.\n"</v>
+        <v>REINFORCE_WITH_RESEARCHED_EQUIPMENT_FORBIDDEN:0 "Neue Ausrüstung ist derzeit verboten."</v>
       </c>
       <c r="D107" s="1" t="str">
         <f aca="false">IF(ISBLANK(A107),"",C107)</f>
-        <v> REINFORCE_WITH_TYPE_OF_EQUIPMENT:1 "Verstärkung mit dieser Art von Ausrüstung umschalten.\n"</v>
+        <v>REINFORCE_WITH_RESEARCHED_EQUIPMENT_FORBIDDEN:0 "Neue Ausrüstung ist derzeit verboten."</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,11 +4161,11 @@
       </c>
       <c r="C108" s="1" t="str">
         <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v> ALLOWED_EQUIPMENT_OF_TYPE:0 "Anzahl der erlaubten Ausrüstungen in dieser Kategorie."</v>
+        <v>REINFORCE_WITH_EQUIPMENT:1 "Aktivieren, um mit dieser Ausrüstung zu verstärken. \n§GShift-Klick§! um alle Ausrüstungen dieses Typs zu verbieten.\n"</v>
       </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
-        <v> ALLOWED_EQUIPMENT_OF_TYPE:0 "Anzahl der erlaubten Ausrüstungen in dieser Kategorie."</v>
+        <v>REINFORCE_WITH_EQUIPMENT:1 "Aktivieren, um mit dieser Ausrüstung zu verstärken. \n§GShift-Klick§! um alle Ausrüstungen dieses Typs zu verbieten.\n"</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4111,11 +4177,11 @@
       </c>
       <c r="C109" s="1" t="str">
         <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v> ALLOWED_EQUIPMENT_STRING_FORMAT:0 "$ERLAUBT$ / $GESAMT$"</v>
+        <v>ALLOW_FOREIGN_EQUIPMENT:0 "Fremde Ausrüstung zulassen"</v>
       </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
-        <v> ALLOWED_EQUIPMENT_STRING_FORMAT:0 "$ERLAUBT$ / $GESAMT$"</v>
+        <v>ALLOW_FOREIGN_EQUIPMENT:0 "Fremde Ausrüstung zulassen"</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,11 +4193,11 @@
       </c>
       <c r="C110" s="1" t="str">
         <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v> DESIGNER_EQUIPMENT_CHANGE:2 "$UNITS|Y$ Divisionen verwenden diese Vorlage.\nDie Anforderungen für $EQ|Y$ werden sich insgesamt um $TOT|R$ ändern.\nWir haben $STOCK|Y$ im Lager.\nWenn wir die Änderungen an dieser Vorlage akzeptieren, werden wir voraussichtlich $END$ im Lager haben."</v>
+        <v>ALLOW_FOREIGN_EQUIPMENT_TT:1 "Deaktivieren Sie diese Option, um alle aktuellen und zukünftigen ausländischen Ausrüstungen zu verbieten, was sowohl geliehene als auch erbeutete Ausrüstungen einschließt."</v>
       </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
-        <v> DESIGNER_EQUIPMENT_CHANGE:2 "$UNITS|Y$ Divisionen verwenden diese Vorlage.\nDie Anforderungen für $EQ|Y$ werden sich insgesamt um $TOT|R$ ändern.\nWir haben $STOCK|Y$ im Lager.\nWenn wir die Änderungen an dieser Vorlage akzeptieren, werden wir voraussichtlich $END$ im Lager haben."</v>
+        <v>ALLOW_FOREIGN_EQUIPMENT_TT:1 "Deaktivieren Sie diese Option, um alle aktuellen und zukünftigen ausländischen Ausrüstungen zu verbieten, was sowohl geliehene als auch erbeutete Ausrüstungen einschließt."</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,11 +4209,11 @@
       </c>
       <c r="C111" s="1" t="str">
         <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v> DIVISION_NAMES_GROUP_LIST_HEADER:0 "§HExample names:§!"</v>
+        <v>ALLOW_FOREIGN_EQUIPMENT_DISABLED_TT:0 "Ausländische Ausrüstung ist jetzt verboten.\n"</v>
       </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
-        <v> DIVISION_NAMES_GROUP_LIST_HEADER:0 "§HExample names:§!"</v>
+        <v>ALLOW_FOREIGN_EQUIPMENT_DISABLED_TT:0 "Ausländische Ausrüstung ist jetzt verboten.\n"</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,11 +4225,11 @@
       </c>
       <c r="C112" s="1" t="str">
         <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v> DIVISION_NAMES_GROUP_LIST_ENTRY:0 "\n $NAME$"</v>
+        <v>REINFORCE_WITH_TYPE_OF_EQUIPMENT:1 "Verstärkung mit dieser Art von Ausrüstung umschalten.\n"</v>
       </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
-        <v> DIVISION_NAMES_GROUP_LIST_ENTRY:0 "\n $NAME$"</v>
+        <v>REINFORCE_WITH_TYPE_OF_EQUIPMENT:1 "Verstärkung mit dieser Art von Ausrüstung umschalten.\n"</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4175,11 +4241,11 @@
       </c>
       <c r="C113" s="1" t="str">
         <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
-        <v> DIVISION_NAMES_GROUP_LIST_ENTRY_ETC:0 "\n ..."</v>
+        <v>ALLOWED_EQUIPMENT_OF_TYPE:0 "Anzahl der erlaubten Ausrüstungen in dieser Kategorie."</v>
       </c>
       <c r="D113" s="1" t="str">
         <f aca="false">IF(ISBLANK(A113),"",C113)</f>
-        <v> DIVISION_NAMES_GROUP_LIST_ENTRY_ETC:0 "\n ..."</v>
+        <v>ALLOWED_EQUIPMENT_OF_TYPE:0 "Anzahl der erlaubten Ausrüstungen in dieser Kategorie."</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,11 +4257,11 @@
       </c>
       <c r="C114" s="1" t="str">
         <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
-        <v> DIVISION_NAMES_GROUP_LIST_ENTRY_FALLBACK:0 "\n\n§HFallback name:§!\n $NAME$"</v>
+        <v>ALLOWED_EQUIPMENT_STRING_FORMAT:0 "$ERLAUBT$ / $GESAMT$"</v>
       </c>
       <c r="D114" s="1" t="str">
         <f aca="false">IF(ISBLANK(A114),"",C114)</f>
-        <v> DIVISION_NAMES_GROUP_LIST_ENTRY_FALLBACK:0 "\n\n§HFallback name:§!\n $NAME$"</v>
+        <v>ALLOWED_EQUIPMENT_STRING_FORMAT:0 "$ERLAUBT$ / $GESAMT$"</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4207,11 +4273,11 @@
       </c>
       <c r="C115" s="1" t="str">
         <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v> DIVISION_NAMES_GROUP_DESC:0 "§Historische Abteilungsnamen Gruppe:§!\nAlle Abteilungen dieser Vorlage, werden die Namen aus diesem Pool verwenden. Wenn Sie die Gruppe jetzt ändern, werden alle Abteilungen dieser aktuellen Vorlage umbenannt, außer denen, die Sie selbst benannt haben."</v>
+        <v>DESIGNER_EQUIPMENT_CHANGE:2 "$UNITS|Y$ Divisionen verwenden diese Vorlage.\nDie Anforderungen für $EQ|Y$ werden sich insgesamt um $TOT|R$ ändern.\nWir haben $STOCK|Y$ im Lager.\nWenn wir die Änderungen an dieser Vorlage akzeptieren, werden wir voraussichtlich $END$ im Lager haben."</v>
       </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
-        <v> DIVISION_NAMES_GROUP_DESC:0 "§Historische Abteilungsnamen Gruppe:§!\nAlle Abteilungen dieser Vorlage, werden die Namen aus diesem Pool verwenden. Wenn Sie die Gruppe jetzt ändern, werden alle Abteilungen dieser aktuellen Vorlage umbenannt, außer denen, die Sie selbst benannt haben."</v>
+        <v>DESIGNER_EQUIPMENT_CHANGE:2 "$UNITS|Y$ Divisionen verwenden diese Vorlage.\nDie Anforderungen für $EQ|Y$ werden sich insgesamt um $TOT|R$ ändern.\nWir haben $STOCK|Y$ im Lager.\nWenn wir die Änderungen an dieser Vorlage akzeptieren, werden wir voraussichtlich $END$ im Lager haben."</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4223,11 +4289,11 @@
       </c>
       <c r="C116" s="1" t="str">
         <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_TITLE:0 "Ausstattungsdesigner"</v>
+        <v>DIVISION_NAMES_GROUP_LIST_HEADER:0 "§HExample names:§!"</v>
       </c>
       <c r="D116" s="1" t="str">
         <f aca="false">IF(ISBLANK(A116),"",C116)</f>
-        <v> EQUIPMENT_DESIGNER_TITLE:0 "Ausstattungsdesigner"</v>
+        <v>DIVISION_NAMES_GROUP_LIST_HEADER:0 "§HExample names:§!"</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,11 +4305,11 @@
       </c>
       <c r="C117" s="1" t="str">
         <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_SELECTION:0 "Treffen Sie eine Auswahl, um ein Modul zu ändern oder hinzuzufügen"</v>
+        <v>DIVISION_NAMES_GROUP_LIST_ENTRY:0 "\n $NAME$"</v>
       </c>
       <c r="D117" s="1" t="str">
         <f aca="false">IF(ISBLANK(A117),"",C117)</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_SELECTION:0 "Treffen Sie eine Auswahl, um ein Modul zu ändern oder hinzuzufügen"</v>
+        <v>DIVISION_NAMES_GROUP_LIST_ENTRY:0 "\n $NAME$"</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4255,11 +4321,11 @@
       </c>
       <c r="C118" s="1" t="str">
         <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_REPLACE_DESC:1 "Kosten £$EXPERIENCE_TYPE$ $VALUE|H0$ zu ersetzen"</v>
+        <v>DIVISION_NAMES_GROUP_LIST_ENTRY_ETC:0 "\n ..."</v>
       </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
-        <v> EQUIPMENT_DESIGNER_REPLACE_DESC:1 "Kosten £$EXPERIENCE_TYPE$ $VALUE|H0$ zu ersetzen"</v>
+        <v>DIVISION_NAMES_GROUP_LIST_ENTRY_ETC:0 "\n ..."</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,11 +4337,11 @@
       </c>
       <c r="C119" s="1" t="str">
         <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_REPLACE_NEGATIVE_DESC:1 "Ersetzen, um £$EXPERIENCE_TYPE$ $VALUE|H0$ zu erhalten"</v>
+        <v>DIVISION_NAMES_GROUP_LIST_ENTRY_FALLBACK:0 "\n\n§HFallback name:§!\n $NAME$"</v>
       </c>
       <c r="D119" s="1" t="str">
         <f aca="false">IF(ISBLANK(A119),"",C119)</f>
-        <v> EQUIPMENT_DESIGNER_REPLACE_NEGATIVE_DESC:1 "Ersetzen, um £$EXPERIENCE_TYPE$ $VALUE|H0$ zu erhalten"</v>
+        <v>DIVISION_NAMES_GROUP_LIST_ENTRY_FALLBACK:0 "\n\n§HFallback name:§!\n $NAME$"</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,11 +4353,11 @@
       </c>
       <c r="C120" s="1" t="str">
         <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_ADD_DESC:1 "Hinzufügen kostet £$EXPERIENCE_TYPE$ $VALUE|H0$"</v>
+        <v>DIVISION_NAMES_GROUP_DESC:0 "§Historische Abteilungsnamen Gruppe:§!\nAlle Abteilungen dieser Vorlage, werden die Namen aus diesem Pool verwenden. Wenn Sie die Gruppe jetzt ändern, werden alle Abteilungen dieser aktuellen Vorlage umbenannt, außer denen, die Sie selbst benannt haben."</v>
       </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
-        <v> EQUIPMENT_DESIGNER_ADD_DESC:1 "Hinzufügen kostet £$EXPERIENCE_TYPE$ $VALUE|H0$"</v>
+        <v>DIVISION_NAMES_GROUP_DESC:0 "§Historische Abteilungsnamen Gruppe:§!\nAlle Abteilungen dieser Vorlage, werden die Namen aus diesem Pool verwenden. Wenn Sie die Gruppe jetzt ändern, werden alle Abteilungen dieser aktuellen Vorlage umbenannt, außer denen, die Sie selbst benannt haben."</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4303,11 +4369,11 @@
       </c>
       <c r="C121" s="1" t="str">
         <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_REMOVE_DESC:1 "Entfernen kostet £$EXPERIENCE_TYPE$ $VALUE|H0$"</v>
+        <v>EQUIPMENT_DESIGNER_TITLE:0 "Ausstattungsdesigner"</v>
       </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
-        <v> EQUIPMENT_DESIGNER_REMOVE_DESC:1 "Entfernen kostet £$EXPERIENCE_TYPE$ $VALUE|H0$"</v>
+        <v>EQUIPMENT_DESIGNER_TITLE:0 "Ausstattungsdesigner"</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,11 +4385,11 @@
       </c>
       <c r="C122" s="1" t="str">
         <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_REMOVE_NEGATIVE_DESC:1 "Entfernen, um £$EXPERIENCE_TYPE$ $VALUE|H0$ zu gewinnen"</v>
+        <v>EQUIPMENT_DESIGNER_MODULE_SELECTION:0 "Treffen Sie eine Auswahl, um ein Modul zu ändern oder hinzuzufügen"</v>
       </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
-        <v> EQUIPMENT_DESIGNER_REMOVE_NEGATIVE_DESC:1 "Entfernen, um £$EXPERIENCE_TYPE$ $VALUE|H0$ zu gewinnen"</v>
+        <v>EQUIPMENT_DESIGNER_MODULE_SELECTION:0 "Treffen Sie eine Auswahl, um ein Modul zu ändern oder hinzuzufügen"</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,11 +4401,11 @@
       </c>
       <c r="C123" s="1" t="str">
         <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_SLOT_NOT_AVAILABLE:1 "Dieser Slot ist für diesen Ausrüstungstyp nicht verfügbar."</v>
+        <v>EQUIPMENT_DESIGNER_REPLACE_DESC:1 "Kosten £$EXPERIENCE_TYPE$ $VALUE|H0$ zu ersetzen"</v>
       </c>
       <c r="D123" s="1" t="str">
         <f aca="false">IF(ISBLANK(A123),"",C123)</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_SLOT_NOT_AVAILABLE:1 "Dieser Slot ist für diesen Ausrüstungstyp nicht verfügbar."</v>
+        <v>EQUIPMENT_DESIGNER_REPLACE_DESC:1 "Kosten £$EXPERIENCE_TYPE$ $VALUE|H0$ zu ersetzen"</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4351,11 +4417,11 @@
       </c>
       <c r="C124" s="1" t="str">
         <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SAVE:0 "Sparen Sie £$XPICON$ $XPCOST|Y0$"</v>
+        <v>EQUIPMENT_DESIGNER_REPLACE_NEGATIVE_DESC:1 "Ersetzen, um £$EXPERIENCE_TYPE$ $VALUE|H0$ zu erhalten"</v>
       </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
-        <v> EQUIPMENT_DESIGNER_SAVE:0 "Sparen Sie £$XPICON$ $XPCOST|Y0$"</v>
+        <v>EQUIPMENT_DESIGNER_REPLACE_NEGATIVE_DESC:1 "Ersetzen, um £$EXPERIENCE_TYPE$ $VALUE|H0$ zu erhalten"</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,11 +4433,11 @@
       </c>
       <c r="C125" s="1" t="str">
         <f aca="false">A125 &amp;" " &amp;"""" &amp;B125 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SAVE_DESC:1 "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um dies als §Hneuen Entwurf§! zu speichern."</v>
+        <v>EQUIPMENT_DESIGNER_ADD_DESC:1 "Hinzufügen kostet £$EXPERIENCE_TYPE$ $VALUE|H0$"</v>
       </c>
       <c r="D125" s="1" t="str">
         <f aca="false">IF(ISBLANK(A125),"",C125)</f>
-        <v> EQUIPMENT_DESIGNER_SAVE_DESC:1 "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um dies als §Hneuen Entwurf§! zu speichern."</v>
+        <v>EQUIPMENT_DESIGNER_ADD_DESC:1 "Hinzufügen kostet £$EXPERIENCE_TYPE$ $VALUE|H0$"</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4383,11 +4449,11 @@
       </c>
       <c r="C126" s="1" t="str">
         <f aca="false">A126 &amp;" " &amp;"""" &amp;B126 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SAVE_DESC_NO_CHANGE_TO_PARENT:1 "Es werden keine Änderungen am ursprünglichen Entwurf vorgenommen."</v>
+        <v>EQUIPMENT_DESIGNER_REMOVE_DESC:1 "Entfernen kostet £$EXPERIENCE_TYPE$ $VALUE|H0$"</v>
       </c>
       <c r="D126" s="1" t="str">
         <f aca="false">IF(ISBLANK(A126),"",C126)</f>
-        <v> EQUIPMENT_DESIGNER_SAVE_DESC_NO_CHANGE_TO_PARENT:1 "Es werden keine Änderungen am ursprünglichen Entwurf vorgenommen."</v>
+        <v>EQUIPMENT_DESIGNER_REMOVE_DESC:1 "Entfernen kostet £$EXPERIENCE_TYPE$ $VALUE|H0$"</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,11 +4465,11 @@
       </c>
       <c r="C127" s="1" t="str">
         <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE:0 "Aktualisieren £$XPICON$ $XPCOST|Y0$"</v>
+        <v>EQUIPMENT_DESIGNER_REMOVE_NEGATIVE_DESC:1 "Entfernen, um £$EXPERIENCE_TYPE$ $VALUE|H0$ zu gewinnen"</v>
       </c>
       <c r="D127" s="1" t="str">
         <f aca="false">IF(ISBLANK(A127),"",C127)</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE:0 "Aktualisieren £$XPICON$ $XPCOST|Y0$"</v>
+        <v>EQUIPMENT_DESIGNER_REMOVE_NEGATIVE_DESC:1 "Entfernen, um £$EXPERIENCE_TYPE$ $VALUE|H0$ zu gewinnen"</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,11 +4481,11 @@
       </c>
       <c r="C128" s="1" t="str">
         <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC:1 "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um die Änderungen an §Hdiesem Entwurf§! zu speichern."</v>
+        <v>EQUIPMENT_DESIGNER_MODULE_SLOT_NOT_AVAILABLE:1 "Dieser Slot ist für diesen Ausrüstungstyp nicht verfügbar."</v>
       </c>
       <c r="D128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A128),"",C128)</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC:1 "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um die Änderungen an §Hdiesem Entwurf§! zu speichern."</v>
+        <v>EQUIPMENT_DESIGNER_MODULE_SLOT_NOT_AVAILABLE:1 "Dieser Slot ist für diesen Ausrüstungstyp nicht verfügbar."</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,11 +4497,11 @@
       </c>
       <c r="C129" s="1" t="str">
         <f aca="false">A129 &amp;" " &amp;"""" &amp;B129 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_OBSOLETE_PARENT:1 "Da der ursprüngliche Entwurf §Hin use§! ist, wird ein neuer Entwurf erstellt. Der ursprüngliche Entwurf wird §Haushalt§! außer Betrieb genommen."</v>
+        <v>EQUIPMENT_DESIGNER_SAVE:0 "Sparen Sie £$XPICON$ $XPCOST|Y0$"</v>
       </c>
       <c r="D129" s="1" t="str">
         <f aca="false">IF(ISBLANK(A129),"",C129)</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_OBSOLETE_PARENT:1 "Da der ursprüngliche Entwurf §Hin use§! ist, wird ein neuer Entwurf erstellt. Der ursprüngliche Entwurf wird §Haushalt§! außer Betrieb genommen."</v>
+        <v>EQUIPMENT_DESIGNER_SAVE:0 "Sparen Sie £$XPICON$ $XPCOST|Y0$"</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4447,11 +4513,11 @@
       </c>
       <c r="C130" s="1" t="str">
         <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_NEW_ROLE:1 "Da die §Rolle§! geändert wurde, wird ein neues Muster erstellt."</v>
+        <v>EQUIPMENT_DESIGNER_SAVE_DESC:1 "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um dies als §Hneuen Entwurf§! zu speichern."</v>
       </c>
       <c r="D130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A130),"",C130)</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_NEW_ROLE:1 "Da die §Rolle§! geändert wurde, wird ein neues Muster erstellt."</v>
+        <v>EQUIPMENT_DESIGNER_SAVE_DESC:1 "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um dies als §Hneuen Entwurf§! zu speichern."</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,11 +4529,11 @@
       </c>
       <c r="C131" s="1" t="str">
         <f aca="false">A131 &amp;" " &amp;"""" &amp;B131 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_COSMETIC:1 "Speichern"</v>
+        <v>EQUIPMENT_DESIGNER_SAVE_DESC_NO_CHANGE_TO_PARENT:1 "Es werden keine Änderungen am ursprünglichen Entwurf vorgenommen."</v>
       </c>
       <c r="D131" s="1" t="str">
         <f aca="false">IF(ISBLANK(A131),"",C131)</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_COSMETIC:1 "Speichern"</v>
+        <v>EQUIPMENT_DESIGNER_SAVE_DESC_NO_CHANGE_TO_PARENT:1 "Es werden keine Änderungen am ursprünglichen Entwurf vorgenommen."</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,11 +4545,11 @@
       </c>
       <c r="C132" s="1" t="str">
         <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC:1 "Die Änderungen an §Hdiesem Entwurf§! speichern."</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE:0 "Aktualisieren £$XPICON$ $XPCOST|Y0$"</v>
       </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC:1 "Die Änderungen an §Hdiesem Entwurf§! speichern."</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE:0 "Aktualisieren £$XPICON$ $XPCOST|Y0$"</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4495,11 +4561,11 @@
       </c>
       <c r="C133" s="1" t="str">
         <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC_NO_COST:0 "Aktualisieren Sie das aktuelle Geschmacksmuster mit den neuen Änderungen."</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_DESC:1 "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um die Änderungen an §Hdiesem Entwurf§! zu speichern."</v>
       </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC_NO_COST:0 "Aktualisieren Sie das aktuelle Geschmacksmuster mit den neuen Änderungen."</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_DESC:1 "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um die Änderungen an §Hdiesem Entwurf§! zu speichern."</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,11 +4577,11 @@
       </c>
       <c r="C134" s="1" t="str">
         <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_EMPTY_NAME:1 "§Dem Muster muss ein Name gegeben werden!"</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_DESC_OBSOLETE_PARENT:1 "Da der ursprüngliche Entwurf §Hin use§! ist, wird ein neuer Entwurf erstellt. Der ursprüngliche Entwurf wird §Haushalt§! außer Betrieb genommen."</v>
       </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
-        <v> EQUIPMENT_DESIGNER_EMPTY_NAME:1 "§Dem Muster muss ein Name gegeben werden!"</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_DESC_OBSOLETE_PARENT:1 "Da der ursprüngliche Entwurf §Hin use§! ist, wird ein neuer Entwurf erstellt. Der ursprüngliche Entwurf wird §Haushalt§! außer Betrieb genommen."</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,11 +4593,11 @@
       </c>
       <c r="C135" s="1" t="str">
         <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_NOT_ENOUGH_XP:0 "§Entwurf ist zu teuer."</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_DESC_NEW_ROLE:1 "Da die §Rolle§! geändert wurde, wird ein neues Muster erstellt."</v>
       </c>
       <c r="D135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A135),"",C135)</f>
-        <v> EQUIPMENT_DESIGNER_NOT_ENOUGH_XP:0 "§Entwurf ist zu teuer."</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_DESC_NEW_ROLE:1 "Da die §Rolle§! geändert wurde, wird ein neues Muster erstellt."</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,11 +4609,11 @@
       </c>
       <c r="C136" s="1" t="str">
         <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_NO_XP:0 "§RKeine Erfahrungspunkte zum Ausgeben.§!"</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_COSMETIC:1 "Speichern"</v>
       </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
-        <v> EQUIPMENT_DESIGNER_NO_XP:0 "§RKeine Erfahrungspunkte zum Ausgeben.§!"</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_COSMETIC:1 "Speichern"</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,11 +4625,11 @@
       </c>
       <c r="C137" s="1" t="str">
         <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_NO_CHANGES:0 "§REs wurden keine Änderungen vorgenommen.§!"</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC:1 "Die Änderungen an §Hdiesem Entwurf§! speichern."</v>
       </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
-        <v> EQUIPMENT_DESIGNER_NO_CHANGES:0 "§REs wurden keine Änderungen vorgenommen.§!"</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC:1 "Die Änderungen an §Hdiesem Entwurf§! speichern."</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,143 +4637,143 @@
         <v>273</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="C138" s="1" t="str">
         <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_DUPLICATE:0 "Duplizieren"</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC_NO_COST:0 "Aktualisieren Sie das aktuelle Geschmacksmuster mit den neuen Änderungen."</v>
       </c>
       <c r="D138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A138),"",C138)</f>
-        <v> EQUIPMENT_DESIGNER_DUPLICATE:0 "Duplizieren"</v>
+        <v>EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC_NO_COST:0 "Aktualisieren Sie das aktuelle Geschmacksmuster mit den neuen Änderungen."</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C139" s="1" t="str">
         <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_DUPLICATE_DESC:1 "§HSave As New§!\nWenn Sie diesen Entwurf speichern, erstellen Sie einen neuen Entwurf für §Hfree§! Das ursprüngliche Geschmacksmuster bleibt unverändert, und Sie können es weiter verwenden, während Sie das neue Geschmacksmuster einsetzen."</v>
+        <v>EQUIPMENT_DESIGNER_EMPTY_NAME:1 "§Dem Muster muss ein Name gegeben werden!"</v>
       </c>
       <c r="D139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A139),"",C139)</f>
-        <v> EQUIPMENT_DESIGNER_DUPLICATE_DESC:1 "§HSave As New§!\nWenn Sie diesen Entwurf speichern, erstellen Sie einen neuen Entwurf für §Hfree§! Das ursprüngliche Geschmacksmuster bleibt unverändert, und Sie können es weiter verwenden, während Sie das neue Geschmacksmuster einsetzen."</v>
+        <v>EQUIPMENT_DESIGNER_EMPTY_NAME:1 "§Dem Muster muss ein Name gegeben werden!"</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C140" s="1" t="str">
         <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_DUPLICATE_DESC_NEW_DESIGN:0 "Dies ist bereits ein neues Muster, das getrennt von dem Muster, auf dem es basiert, gespeichert wird."</v>
+        <v>EQUIPMENT_DESIGNER_NOT_ENOUGH_XP:0 "§Entwurf ist zu teuer."</v>
       </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
-        <v> EQUIPMENT_DESIGNER_DUPLICATE_DESC_NEW_DESIGN:0 "Dies ist bereits ein neues Muster, das getrennt von dem Muster, auf dem es basiert, gespeichert wird."</v>
+        <v>EQUIPMENT_DESIGNER_NOT_ENOUGH_XP:0 "§Entwurf ist zu teuer."</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="C141" s="1" t="str">
         <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_RESET:0 "Zurücksetzen"</v>
+        <v>EQUIPMENT_DESIGNER_NO_XP:0 "§RKeine Erfahrungspunkte zum Ausgeben.§!"</v>
       </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
-        <v> EQUIPMENT_DESIGNER_RESET:0 "Zurücksetzen"</v>
+        <v>EQUIPMENT_DESIGNER_NO_XP:0 "§RKeine Erfahrungspunkte zum Ausgeben.§!"</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C142" s="1" t="str">
         <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_RESET_DESC:1 "Setzt alle nicht gespeicherten Änderungen zurück."</v>
+        <v>EQUIPMENT_DESIGNER_NO_CHANGES:0 "§REs wurden keine Änderungen vorgenommen.§!"</v>
       </c>
       <c r="D142" s="1" t="str">
         <f aca="false">IF(ISBLANK(A142),"",C142)</f>
-        <v> EQUIPMENT_DESIGNER_RESET_DESC:1 "Setzt alle nicht gespeicherten Änderungen zurück."</v>
+        <v>EQUIPMENT_DESIGNER_NO_CHANGES:0 "§REs wurden keine Änderungen vorgenommen.§!"</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="C143" s="1" t="str">
         <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
-        <v> SHIP_DESIGNER_TITLE:0 "Schiffsdesigner"</v>
+        <v>EQUIPMENT_DESIGNER_DUPLICATE:0 "Duplizieren"</v>
       </c>
       <c r="D143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A143),"",C143)</f>
-        <v> SHIP_DESIGNER_TITLE:0 "Schiffsdesigner"</v>
+        <v>EQUIPMENT_DESIGNER_DUPLICATE:0 "Duplizieren"</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C144" s="1" t="str">
         <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
-        <v> TANK_DESIGNER_TITLE:0 "Panzer-Designer"</v>
+        <v>EQUIPMENT_DESIGNER_DUPLICATE_DESC:1 "§HSave As New§!\nWenn Sie diesen Entwurf speichern, erstellen Sie einen neuen Entwurf für §Hfree§! Das ursprüngliche Geschmacksmuster bleibt unverändert, und Sie können es weiter verwenden, während Sie das neue Geschmacksmuster einsetzen."</v>
       </c>
       <c r="D144" s="1" t="str">
         <f aca="false">IF(ISBLANK(A144),"",C144)</f>
-        <v> TANK_DESIGNER_TITLE:0 "Panzer-Designer"</v>
+        <v>EQUIPMENT_DESIGNER_DUPLICATE_DESC:1 "§HSave As New§!\nWenn Sie diesen Entwurf speichern, erstellen Sie einen neuen Entwurf für §Hfree§! Das ursprüngliche Geschmacksmuster bleibt unverändert, und Sie können es weiter verwenden, während Sie das neue Geschmacksmuster einsetzen."</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C145" s="1" t="str">
         <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
-        <v> PLANE_DESIGNER_TITLE:0 "Flugzeug-Designer"</v>
+        <v>EQUIPMENT_DESIGNER_DUPLICATE_DESC_NEW_DESIGN:0 "Dies ist bereits ein neues Muster, das getrennt von dem Muster, auf dem es basiert, gespeichert wird."</v>
       </c>
       <c r="D145" s="1" t="str">
         <f aca="false">IF(ISBLANK(A145),"",C145)</f>
-        <v> PLANE_DESIGNER_TITLE:0 "Flugzeug-Designer"</v>
+        <v>EQUIPMENT_DESIGNER_DUPLICATE_DESC_NEW_DESIGN:0 "Dies ist bereits ein neues Muster, das getrennt von dem Muster, auf dem es basiert, gespeichert wird."</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="C146" s="1" t="str">
         <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, sind §HCapital Ships§!"</v>
+        <v>EQUIPMENT_DESIGNER_RESET:0 "Zurücksetzen"</v>
       </c>
       <c r="D146" s="1" t="str">
         <f aca="false">IF(ISBLANK(A146),"",C146)</f>
-        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, sind §HCapital Ships§!"</v>
+        <v>EQUIPMENT_DESIGNER_RESET:0 "Zurücksetzen"</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4719,11 +4785,11 @@
       </c>
       <c r="C147" s="1" t="str">
         <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_EFFECTS_TOOLTIP:0 "§HCapital Ships§! zeigen ein anderes Verhalten im Kampf und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
+        <v>EQUIPMENT_DESIGNER_RESET_DESC:1 "Setzt alle nicht gespeicherten Änderungen zurück."</v>
       </c>
       <c r="D147" s="1" t="str">
         <f aca="false">IF(ISBLANK(A147),"",C147)</f>
-        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_EFFECTS_TOOLTIP:0 "§HCapital Ships§! zeigen ein anderes Verhalten im Kampf und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
+        <v>EQUIPMENT_DESIGNER_RESET_DESC:1 "Setzt alle nicht gespeicherten Änderungen zurück."</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,11 +4801,11 @@
       </c>
       <c r="C148" s="1" t="str">
         <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, sind §HScreen-Schiffe§!"</v>
+        <v>SHIP_DESIGNER_TITLE:0 "Schiffsdesigner"</v>
       </c>
       <c r="D148" s="1" t="str">
         <f aca="false">IF(ISBLANK(A148),"",C148)</f>
-        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, sind §HScreen-Schiffe§!"</v>
+        <v>SHIP_DESIGNER_TITLE:0 "Schiffsdesigner"</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4751,11 +4817,11 @@
       </c>
       <c r="C149" s="1" t="str">
         <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_EFFECTS_TOOLTIP:0 "§HScreen Ships§! zeigen ein anderes Verhalten im Kampf und werden von einer anderen Reihe von Modifikatoren beeinflusst als andere Schiffskategorien."</v>
+        <v>TANK_DESIGNER_TITLE:0 "Panzer-Designer"</v>
       </c>
       <c r="D149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A149),"",C149)</f>
-        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_EFFECTS_TOOLTIP:0 "§HScreen Ships§! zeigen ein anderes Verhalten im Kampf und werden von einer anderen Reihe von Modifikatoren beeinflusst als andere Schiffskategorien."</v>
+        <v>TANK_DESIGNER_TITLE:0 "Panzer-Designer"</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4767,11 +4833,11 @@
       </c>
       <c r="C150" s="1" t="str">
         <f aca="false">A150 &amp;" " &amp;"""" &amp;B150 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_IS_NOT_CAPITAL_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, werden keine §HCapital Ships§! sein."</v>
+        <v>PLANE_DESIGNER_TITLE:0 "Flugzeug-Designer"</v>
       </c>
       <c r="D150" s="1" t="str">
         <f aca="false">IF(ISBLANK(A150),"",C150)</f>
-        <v> EQUIPMENT_DESIGNER_IS_NOT_CAPITAL_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, werden keine §HCapital Ships§! sein."</v>
+        <v>PLANE_DESIGNER_TITLE:0 "Flugzeug-Designer"</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4783,11 +4849,11 @@
       </c>
       <c r="C151" s="1" t="str">
         <f aca="false">A151 &amp;" " &amp;"""" &amp;B151 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_VARIABLE_CATEGORY_TOOLTIP:0 "§Die Wahl der Ausrüstungsmodule kann die Schiffskategorie dieses Entwurfs beeinflussen!"</v>
+        <v>EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, sind §HCapital Ships§!"</v>
       </c>
       <c r="D151" s="1" t="str">
         <f aca="false">IF(ISBLANK(A151),"",C151)</f>
-        <v> EQUIPMENT_DESIGNER_VARIABLE_CATEGORY_TOOLTIP:0 "§Die Wahl der Ausrüstungsmodule kann die Schiffskategorie dieses Entwurfs beeinflussen!"</v>
+        <v>EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, sind §HCapital Ships§!"</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,11 +4865,11 @@
       </c>
       <c r="C152" s="1" t="str">
         <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_PRODUCTION_RESOURCE_DESC:1 "Die §HRessourcen§!, die für die Herstellung dieses Entwurfs verwendet werden."</v>
+        <v>EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_EFFECTS_TOOLTIP:0 "§HCapital Ships§! zeigen ein anderes Verhalten im Kampf und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
       </c>
       <c r="D152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A152),"",C152)</f>
-        <v> EQUIPMENT_DESIGNER_PRODUCTION_RESOURCE_DESC:1 "Die §HRessourcen§!, die für die Herstellung dieses Entwurfs verwendet werden."</v>
+        <v>EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_EFFECTS_TOOLTIP:0 "§HCapital Ships§! zeigen ein anderes Verhalten im Kampf und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,11 +4881,11 @@
       </c>
       <c r="C153" s="1" t="str">
         <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_PRODUCTION_COST_DESC:1 "Die §HIndustrielle Kapazität§! kostet die §HProduktion§! dieses Entwurfs."</v>
+        <v>EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, sind §HScreen-Schiffe§!"</v>
       </c>
       <c r="D153" s="1" t="str">
         <f aca="false">IF(ISBLANK(A153),"",C153)</f>
-        <v> EQUIPMENT_DESIGNER_PRODUCTION_COST_DESC:1 "Die §HIndustrielle Kapazität§! kostet die §HProduktion§! dieses Entwurfs."</v>
+        <v>EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, sind §HScreen-Schiffe§!"</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,11 +4897,11 @@
       </c>
       <c r="C154" s="1" t="str">
         <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_STAT_AVERAGED:0 " (gemittelt)"</v>
+        <v>EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_EFFECTS_TOOLTIP:0 "§HScreen Ships§! zeigen ein anderes Verhalten im Kampf und werden von einer anderen Reihe von Modifikatoren beeinflusst als andere Schiffskategorien."</v>
       </c>
       <c r="D154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A154),"",C154)</f>
-        <v> EQUIPMENT_MODULE_STAT_AVERAGED:0 " (gemittelt)"</v>
+        <v>EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_EFFECTS_TOOLTIP:0 "§HScreen Ships§! zeigen ein anderes Verhalten im Kampf und werden von einer anderen Reihe von Modifikatoren beeinflusst als andere Schiffskategorien."</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,11 +4913,11 @@
       </c>
       <c r="C155" s="1" t="str">
         <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_ARMY_XP_COST:0 "£army_experience Entwurfskosten: $COST|Y0$"</v>
+        <v>EQUIPMENT_DESIGNER_IS_NOT_CAPITAL_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, werden keine §HCapital Ships§! sein."</v>
       </c>
       <c r="D155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A155),"",C155)</f>
-        <v> EQUIPMENT_DESIGNER_ARMY_XP_COST:0 "£army_experience Entwurfskosten: $COST|Y0$"</v>
+        <v>EQUIPMENT_DESIGNER_IS_NOT_CAPITAL_SHIP_TOOLTIP:0 "Schiffe, die dieses Design verwenden, werden keine §HCapital Ships§! sein."</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4863,11 +4929,11 @@
       </c>
       <c r="C156" s="1" t="str">
         <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_NAVY_XP_COST:0 "£navy_experience Entwurfskosten: $COST|Y0$"</v>
+        <v>EQUIPMENT_DESIGNER_VARIABLE_CATEGORY_TOOLTIP:0 "§Die Wahl der Ausrüstungsmodule kann die Schiffskategorie dieses Entwurfs beeinflussen!"</v>
       </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
-        <v> EQUIPMENT_DESIGNER_NAVY_XP_COST:0 "£navy_experience Entwurfskosten: $COST|Y0$"</v>
+        <v>EQUIPMENT_DESIGNER_VARIABLE_CATEGORY_TOOLTIP:0 "§Die Wahl der Ausrüstungsmodule kann die Schiffskategorie dieses Entwurfs beeinflussen!"</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,11 +4945,11 @@
       </c>
       <c r="C157" s="1" t="str">
         <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AIR_XP_COST:0 "£air_experience Entwurfskosten: $COST|Y0$"</v>
+        <v>EQUIPMENT_DESIGNER_PRODUCTION_RESOURCE_DESC:1 "Die §HRessourcen§!, die für die Herstellung dieses Entwurfs verwendet werden."</v>
       </c>
       <c r="D157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A157),"",C157)</f>
-        <v> EQUIPMENT_DESIGNER_AIR_XP_COST:0 "£air_experience Entwurfskosten: $COST|Y0$"</v>
+        <v>EQUIPMENT_DESIGNER_PRODUCTION_RESOURCE_DESC:1 "Die §HRessourcen§!, die für die Herstellung dieses Entwurfs verwendet werden."</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4895,11 +4961,11 @@
       </c>
       <c r="C158" s="1" t="str">
         <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_NAME_TOOLTIP:0 "§HModule Slot:§! $NAME$"</v>
+        <v>EQUIPMENT_DESIGNER_PRODUCTION_COST_DESC:1 "Die §HIndustrielle Kapazität§! kostet die §HProduktion§! dieses Entwurfs."</v>
       </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_NAME_TOOLTIP:0 "§HModule Slot:§! $NAME$"</v>
+        <v>EQUIPMENT_DESIGNER_PRODUCTION_COST_DESC:1 "Die §HIndustrielle Kapazität§! kostet die §HProduktion§! dieses Entwurfs."</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4911,11 +4977,11 @@
       </c>
       <c r="C159" s="1" t="str">
         <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_MODULE_TOOLTIP:0 "§HInstalled Module:§! $NAME$"</v>
+        <v>EQUIPMENT_MODULE_STAT_AVERAGED:0 " (gemittelt)"</v>
       </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_MODULE_TOOLTIP:0 "§HInstalled Module:§! $NAME$"</v>
+        <v>EQUIPMENT_MODULE_STAT_AVERAGED:0 " (gemittelt)"</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,11 +4993,11 @@
       </c>
       <c r="C160" s="1" t="str">
         <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_ADD_CAPITAL_SHIP_CATEGORY:0 "Schiffe, die dieses Modul in ihrem Design enthalten, sind §HCapital Ships§!"</v>
+        <v>EQUIPMENT_DESIGNER_ARMY_XP_COST:0 "£army_experience Entwurfskosten: $COST|Y0$"</v>
       </c>
       <c r="D160" s="1" t="str">
         <f aca="false">IF(ISBLANK(A160),"",C160)</f>
-        <v> EQUIPMENT_MODULE_ADD_CAPITAL_SHIP_CATEGORY:0 "Schiffe, die dieses Modul in ihrem Design enthalten, sind §HCapital Ships§!"</v>
+        <v>EQUIPMENT_DESIGNER_ARMY_XP_COST:0 "£army_experience Entwurfskosten: $COST|Y0$"</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,11 +5009,11 @@
       </c>
       <c r="C161" s="1" t="str">
         <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_EMPTY_TOOLTIP:0 "§HInstalliertes Modul:§! Keine"</v>
+        <v>EQUIPMENT_DESIGNER_NAVY_XP_COST:0 "£navy_experience Entwurfskosten: $COST|Y0$"</v>
       </c>
       <c r="D161" s="1" t="str">
         <f aca="false">IF(ISBLANK(A161),"",C161)</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_EMPTY_TOOLTIP:0 "§HInstalliertes Modul:§! Keine"</v>
+        <v>EQUIPMENT_DESIGNER_NAVY_XP_COST:0 "£navy_experience Entwurfskosten: $COST|Y0$"</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,11 +5025,11 @@
       </c>
       <c r="C162" s="1" t="str">
         <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_ALLOWED_CATEGORIES_TOOLTIP:0 "§Erlaubte Modulkategorien§!"</v>
+        <v>EQUIPMENT_DESIGNER_AIR_XP_COST:0 "£air_experience Entwurfskosten: $COST|Y0$"</v>
       </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_ALLOWED_CATEGORIES_TOOLTIP:0 "§Erlaubte Modulkategorien§!"</v>
+        <v>EQUIPMENT_DESIGNER_AIR_XP_COST:0 "£air_experience Entwurfskosten: $COST|Y0$"</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,11 +5041,11 @@
       </c>
       <c r="C163" s="1" t="str">
         <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_REQUIRED_TOOLTIP:0 "Auf diesem Steckplatz muss ein Modul installiert sein."</v>
+        <v>EQUIPMENT_DESIGNER_SLOT_NAME_TOOLTIP:0 "§HModule Slot:§! $NAME$"</v>
       </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_REQUIRED_TOOLTIP:0 "Auf diesem Steckplatz muss ein Modul installiert sein."</v>
+        <v>EQUIPMENT_DESIGNER_SLOT_NAME_TOOLTIP:0 "§HModule Slot:§! $NAME$"</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,11 +5057,11 @@
       </c>
       <c r="C164" s="1" t="str">
         <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_TORPEDO_ATTACK_ICON_TOOLTIP:0 "Torpedo-Angriff"</v>
+        <v>EQUIPMENT_DESIGNER_SLOT_MODULE_TOOLTIP:0 "§HInstalled Module:§! $NAME$"</v>
       </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
-        <v> EQUIPMENT_DESIGNER_TORPEDO_ATTACK_ICON_TOOLTIP:0 "Torpedo-Angriff"</v>
+        <v>EQUIPMENT_DESIGNER_SLOT_MODULE_TOOLTIP:0 "§HInstalled Module:§! $NAME$"</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,11 +5073,11 @@
       </c>
       <c r="C165" s="1" t="str">
         <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_LG_ATTACK_ICON_TOOLTIP:0 "Leichter Geschützangriff"</v>
+        <v>EQUIPMENT_MODULE_ADD_CAPITAL_SHIP_CATEGORY:0 "Schiffe, die dieses Modul in ihrem Design enthalten, sind §HCapital Ships§!"</v>
       </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
-        <v> EQUIPMENT_DESIGNER_LG_ATTACK_ICON_TOOLTIP:0 "Leichter Geschützangriff"</v>
+        <v>EQUIPMENT_MODULE_ADD_CAPITAL_SHIP_CATEGORY:0 "Schiffe, die dieses Modul in ihrem Design enthalten, sind §HCapital Ships§!"</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,11 +5089,11 @@
       </c>
       <c r="C166" s="1" t="str">
         <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_HG_ATTACK_ICON_TOOLTIP:0 "Schwerer Geschützangriff"</v>
+        <v>EQUIPMENT_DESIGNER_SLOT_EMPTY_TOOLTIP:0 "§HInstalliertes Modul:§! Keine"</v>
       </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
-        <v> EQUIPMENT_DESIGNER_HG_ATTACK_ICON_TOOLTIP:0 "Schwerer Geschützangriff"</v>
+        <v>EQUIPMENT_DESIGNER_SLOT_EMPTY_TOOLTIP:0 "§HInstalliertes Modul:§! Keine"</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5039,11 +5105,11 @@
       </c>
       <c r="C167" s="1" t="str">
         <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_ANTI_AIR_ATTACK_ICON_TOOLTIP:0 "Anti-Luft-Angriff"</v>
+        <v>EQUIPMENT_DESIGNER_SLOT_ALLOWED_CATEGORIES_TOOLTIP:0 "§Erlaubte Modulkategorien§!"</v>
       </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
-        <v> EQUIPMENT_DESIGNER_ANTI_AIR_ATTACK_ICON_TOOLTIP:0 "Anti-Luft-Angriff"</v>
+        <v>EQUIPMENT_DESIGNER_SLOT_ALLOWED_CATEGORIES_TOOLTIP:0 "§Erlaubte Modulkategorien§!"</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5055,11 +5121,11 @@
       </c>
       <c r="C168" s="1" t="str">
         <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_ANTI_SUB_ATTACK_ICON_TOOLTIP:0 "Anti-U-Boot-Angriff"</v>
+        <v>EQUIPMENT_DESIGNER_SLOT_REQUIRED_TOOLTIP:0 "Auf diesem Steckplatz muss ein Modul installiert sein."</v>
       </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
-        <v> EQUIPMENT_DESIGNER_ANTI_SUB_ATTACK_ICON_TOOLTIP:0 "Anti-U-Boot-Angriff"</v>
+        <v>EQUIPMENT_DESIGNER_SLOT_REQUIRED_TOOLTIP:0 "Auf diesem Steckplatz muss ein Modul installiert sein."</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,11 +5137,11 @@
       </c>
       <c r="C169" s="1" t="str">
         <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v> ILLEGAL_EQUIPMENT_CATEGORY:1 "§Der aktuelle Entwurf kann nicht in der $ROLE|H$-Rolle verwendet werden!"</v>
+        <v>EQUIPMENT_DESIGNER_TORPEDO_ATTACK_ICON_TOOLTIP:0 "Torpedo-Angriff"</v>
       </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
-        <v> ILLEGAL_EQUIPMENT_CATEGORY:1 "§Der aktuelle Entwurf kann nicht in der $ROLE|H$-Rolle verwendet werden!"</v>
+        <v>EQUIPMENT_DESIGNER_TORPEDO_ATTACK_ICON_TOOLTIP:0 "Torpedo-Angriff"</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5087,11 +5153,11 @@
       </c>
       <c r="C170" s="1" t="str">
         <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v> REQUIRED_MODULE_EMPTY:0 "§RDem Entwurf fehlen ein oder mehrere erforderliche Module:§!"</v>
+        <v>EQUIPMENT_DESIGNER_LG_ATTACK_ICON_TOOLTIP:0 "Leichter Geschützangriff"</v>
       </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
-        <v> REQUIRED_MODULE_EMPTY:0 "§RDem Entwurf fehlen ein oder mehrere erforderliche Module:§!"</v>
+        <v>EQUIPMENT_DESIGNER_LG_ATTACK_ICON_TOOLTIP:0 "Leichter Geschützangriff"</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,11 +5169,11 @@
       </c>
       <c r="C171" s="1" t="str">
         <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_NOT_EQUAL:1 "§RDer Entwurf muss $REQ_COUNT|0$ $TITLE|H$ haben.§!"</v>
+        <v>EQUIPMENT_DESIGNER_HG_ATTACK_ICON_TOOLTIP:0 "Schwerer Geschützangriff"</v>
       </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_NOT_EQUAL:1 "§RDer Entwurf muss $REQ_COUNT|0$ $TITLE|H$ haben.§!"</v>
+        <v>EQUIPMENT_DESIGNER_HG_ATTACK_ICON_TOOLTIP:0 "Schwerer Geschützangriff"</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5119,11 +5185,11 @@
       </c>
       <c r="C172" s="1" t="str">
         <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_MAX_EXCEEDED:1 "§RDer Entwurf darf nicht mehr als $MAX|0$ $TITLE|H$ haben.§!"</v>
+        <v>EQUIPMENT_DESIGNER_ANTI_AIR_ATTACK_ICON_TOOLTIP:0 "Anti-Luft-Angriff"</v>
       </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_MAX_EXCEEDED:1 "§RDer Entwurf darf nicht mehr als $MAX|0$ $TITLE|H$ haben.§!"</v>
+        <v>EQUIPMENT_DESIGNER_ANTI_AIR_ATTACK_ICON_TOOLTIP:0 "Anti-Luft-Angriff"</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,11 +5201,11 @@
       </c>
       <c r="C173" s="1" t="str">
         <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_MIN_EXCEEDED:1 "§RDer Entwurf muss mindestens $MIN|0$ $TITLE|H$.§ haben!"</v>
+        <v>EQUIPMENT_DESIGNER_ANTI_SUB_ATTACK_ICON_TOOLTIP:0 "Anti-U-Boot-Angriff"</v>
       </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_MIN_EXCEEDED:1 "§RDer Entwurf muss mindestens $MIN|0$ $TITLE|H$.§ haben!"</v>
+        <v>EQUIPMENT_DESIGNER_ANTI_SUB_ATTACK_ICON_TOOLTIP:0 "Anti-U-Boot-Angriff"</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,11 +5217,11 @@
       </c>
       <c r="C174" s="1" t="str">
         <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_ANY:1 "§RModule jeglicher Art§!"</v>
+        <v>ILLEGAL_EQUIPMENT_CATEGORY:1 "§Der aktuelle Entwurf kann nicht in der $ROLE|H$-Rolle verwendet werden!"</v>
       </c>
       <c r="D174" s="1" t="str">
         <f aca="false">IF(ISBLANK(A174),"",C174)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_ANY:1 "§RModule jeglicher Art§!"</v>
+        <v>ILLEGAL_EQUIPMENT_CATEGORY:1 "§Der aktuelle Entwurf kann nicht in der $ROLE|H$-Rolle verwendet werden!"</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5167,11 +5233,11 @@
       </c>
       <c r="C175" s="1" t="str">
         <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_EMPTY:1 "§Leere Modul-Slots§!"</v>
+        <v>REQUIRED_MODULE_EMPTY:0 "§RDem Entwurf fehlen ein oder mehrere erforderliche Module:§!"</v>
       </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_EMPTY:1 "§Leere Modul-Slots§!"</v>
+        <v>REQUIRED_MODULE_EMPTY:0 "§RDem Entwurf fehlen ein oder mehrere erforderliche Module:§!"</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5183,11 +5249,11 @@
       </c>
       <c r="C176" s="1" t="str">
         <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_NAME:1 "$NAME$ §RModule§!"</v>
+        <v>EQUIPMENT_MODULE_LIMIT_NOT_EQUAL:1 "§RDer Entwurf muss $REQ_COUNT|0$ $TITLE|H$ haben.§!"</v>
       </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_NAME:1 "$NAME$ §RModule§!"</v>
+        <v>EQUIPMENT_MODULE_LIMIT_NOT_EQUAL:1 "§RDer Entwurf muss $REQ_COUNT|0$ $TITLE|H$ haben.§!"</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5199,11 +5265,11 @@
       </c>
       <c r="C177" s="1" t="str">
         <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_UNKNOWN:1 "§Rspezifische Module§!"</v>
+        <v>EQUIPMENT_MODULE_LIMIT_MAX_EXCEEDED:1 "§RDer Entwurf darf nicht mehr als $MAX|0$ $TITLE|H$ haben.§!"</v>
       </c>
       <c r="D177" s="1" t="str">
         <f aca="false">IF(ISBLANK(A177),"",C177)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_UNKNOWN:1 "§Rspezifische Module§!"</v>
+        <v>EQUIPMENT_MODULE_LIMIT_MAX_EXCEEDED:1 "§RDer Entwurf darf nicht mehr als $MAX|0$ $TITLE|H$ haben.§!"</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5215,11 +5281,11 @@
       </c>
       <c r="C178" s="1" t="str">
         <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
-        <v> DESIGN_MAX_COST_REACHED:1 "§RDer Entwurf liegt über den maximal zulässigen Kosten von $MAX|0$ für diese Klasse.§!"</v>
+        <v>EQUIPMENT_MODULE_LIMIT_MIN_EXCEEDED:1 "§RDer Entwurf muss mindestens $MIN|0$ $TITLE|H$.§ haben!"</v>
       </c>
       <c r="D178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A178),"",C178)</f>
-        <v> DESIGN_MAX_COST_REACHED:1 "§RDer Entwurf liegt über den maximal zulässigen Kosten von $MAX|0$ für diese Klasse.§!"</v>
+        <v>EQUIPMENT_MODULE_LIMIT_MIN_EXCEEDED:1 "§RDer Entwurf muss mindestens $MIN|0$ $TITLE|H$.§ haben!"</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,11 +5297,11 @@
       </c>
       <c r="C179" s="1" t="str">
         <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v> COST_RESTRICTED_DESIGN:0 "Wir sind bei der Herstellung dieser Klasse auf maximale Kosten von $MAX|Y0$ beschränkt."</v>
+        <v>EQUIPMENT_MODULE_LIMIT_TITLE_ANY:1 "§RModule jeglicher Art§!"</v>
       </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
-        <v> COST_RESTRICTED_DESIGN:0 "Wir sind bei der Herstellung dieser Klasse auf maximale Kosten von $MAX|Y0$ beschränkt."</v>
+        <v>EQUIPMENT_MODULE_LIMIT_TITLE_ANY:1 "§RModule jeglicher Art§!"</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5247,11 +5313,11 @@
       </c>
       <c r="C180" s="1" t="str">
         <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON:0 "Auto"</v>
+        <v>EQUIPMENT_MODULE_LIMIT_TITLE_EMPTY:1 "§Leere Modul-Slots§!"</v>
       </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON:0 "Auto"</v>
+        <v>EQUIPMENT_MODULE_LIMIT_TITLE_EMPTY:1 "§Leere Modul-Slots§!"</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5263,11 +5329,11 @@
       </c>
       <c r="C181" s="1" t="str">
         <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC:1 "§HAuto Design§!\nErstellen Sie einen vollständigen Entwurf, der dem aktuellen Entwurf am besten entspricht."</v>
+        <v>EQUIPMENT_MODULE_LIMIT_TITLE_NAME:1 "$NAME$ §RModule§!"</v>
       </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC:1 "§HAuto Design§!\nErstellen Sie einen vollständigen Entwurf, der dem aktuellen Entwurf am besten entspricht."</v>
+        <v>EQUIPMENT_MODULE_LIMIT_TITLE_NAME:1 "$NAME$ §RModule§!"</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,11 +5345,11 @@
       </c>
       <c r="C182" s="1" t="str">
         <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC_DELAYED:0 "Sie können den generierten Entwurf überprüfen und ändern, bevor Sie ihn genehmigen und die Erfahrungskosten bezahlen."</v>
+        <v>EQUIPMENT_MODULE_LIMIT_TITLE_UNKNOWN:1 "§Rspezifische Module§!"</v>
       </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC_DELAYED:0 "Sie können den generierten Entwurf überprüfen und ändern, bevor Sie ihn genehmigen und die Erfahrungskosten bezahlen."</v>
+        <v>EQUIPMENT_MODULE_LIMIT_TITLE_UNKNOWN:1 "§Rspezifische Module§!"</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5295,11 +5361,11 @@
       </c>
       <c r="C183" s="1" t="str">
         <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_ADJUST:0 "§Klicken Sie auf §Hadjust§!, um den aktuellen Entwurf anzupassen."</v>
+        <v>DESIGN_MAX_COST_REACHED:1 "§RDer Entwurf liegt über den maximal zulässigen Kosten von $MAX|0$ für diese Klasse.§!"</v>
       </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_ADJUST:0 "§Klicken Sie auf §Hadjust§!, um den aktuellen Entwurf anzupassen."</v>
+        <v>DESIGN_MAX_COST_REACHED:1 "§RDer Entwurf liegt über den maximal zulässigen Kosten von $MAX|0$ für diese Klasse.§!"</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,11 +5377,11 @@
       </c>
       <c r="C184" s="1" t="str">
         <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_REPLACE:0 "§GShift+Klick§! zum §Ersetzen§! des aktuellen Entwurfs."</v>
+        <v>COST_RESTRICTED_DESIGN:0 "Wir sind bei der Herstellung dieser Klasse auf maximale Kosten von $MAX|Y0$ beschränkt."</v>
       </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_REPLACE:0 "§GShift+Klick§! zum §Ersetzen§! des aktuellen Entwurfs."</v>
+        <v>COST_RESTRICTED_DESIGN:0 "Wir sind bei der Herstellung dieser Klasse auf maximale Kosten von $MAX|Y0$ beschränkt."</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5327,11 +5393,11 @@
       </c>
       <c r="C185" s="1" t="str">
         <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC:1 "§HUpgrade All Modules§!\nErsetzen Sie jedes veraltete Modul durch das beste verfügbare Modul der gleichen Linie."</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_BUTTON:0 "Auto"</v>
       </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC:1 "§HUpgrade All Modules§!\nErsetzen Sie jedes veraltete Modul durch das beste verfügbare Modul der gleichen Linie."</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_BUTTON:0 "Auto"</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,11 +5409,11 @@
       </c>
       <c r="C186" s="1" t="str">
         <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC_DELAYED:0 "Sie haben die Möglichkeit, das Design zu überprüfen und zu ändern, bevor Sie es genehmigen und die Kosten für die Erfahrung bezahlen."</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC:1 "§HAuto Design§!\nErstellen Sie einen vollständigen Entwurf, der dem aktuellen Entwurf am besten entspricht."</v>
       </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC_DELAYED:0 "Sie haben die Möglichkeit, das Design zu überprüfen und zu ändern, bevor Sie es genehmigen und die Kosten für die Erfahrung bezahlen."</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC:1 "§HAuto Design§!\nErstellen Sie einen vollständigen Entwurf, der dem aktuellen Entwurf am besten entspricht."</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,11 +5425,11 @@
       </c>
       <c r="C187" s="1" t="str">
         <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADED_CHECKBOX_BUTTON_DESC:1 "§Wenn dieses Kontrollkästchen aktiviert ist, wird der Entwurf automatisch aktualisiert, wenn bessere Chassis und Module verfügbar sind."</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC_DELAYED:0 "Sie können den generierten Entwurf überprüfen und ändern, bevor Sie ihn genehmigen und die Erfahrungskosten bezahlen."</v>
       </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADED_CHECKBOX_BUTTON_DESC:1 "§Wenn dieses Kontrollkästchen aktiviert ist, wird der Entwurf automatisch aktualisiert, wenn bessere Chassis und Module verfügbar sind."</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC_DELAYED:0 "Sie können den generierten Entwurf überprüfen und ändern, bevor Sie ihn genehmigen und die Erfahrungskosten bezahlen."</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,11 +5441,11 @@
       </c>
       <c r="C188" s="1" t="str">
         <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED:0 "§Rollenwechsel nicht erlaubt§!"</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_ADJUST:0 "§Klicken Sie auf §Hadjust§!, um den aktuellen Entwurf anzupassen."</v>
       </c>
       <c r="D188" s="1" t="str">
         <f aca="false">IF(ISBLANK(A188),"",C188)</f>
-        <v> EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED:0 "§Rollenwechsel nicht erlaubt§!"</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_ADJUST:0 "§Klicken Sie auf §Hadjust§!, um den aktuellen Entwurf anzupassen."</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,11 +5457,11 @@
       </c>
       <c r="C189" s="1" t="str">
         <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED_LICENSED:0 "Dies ist eine lizenzierte Konstruktion und darf nur in der angegebenen Rolle verwendet werden. Für jede zusätzliche Rolle müssen neue Lizenzen erworben werden."</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_REPLACE:0 "§GShift+Klick§! zum §Ersetzen§! des aktuellen Entwurfs."</v>
       </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
-        <v> EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED_LICENSED:0 "Dies ist eine lizenzierte Konstruktion und darf nur in der angegebenen Rolle verwendet werden. Für jede zusätzliche Rolle müssen neue Lizenzen erworben werden."</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_REPLACE:0 "§GShift+Klick§! zum §Ersetzen§! des aktuellen Entwurfs."</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5407,11 +5473,11 @@
       </c>
       <c r="C190" s="1" t="str">
         <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_BELOW_MINIMUM_SPEED:0 "§RMax Speed liegt unter dem $SPEED$-Minimum§!"</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC:1 "§HUpgrade All Modules§!\nErsetzen Sie jedes veraltete Modul durch das beste verfügbare Modul der gleichen Linie."</v>
       </c>
       <c r="D190" s="1" t="str">
         <f aca="false">IF(ISBLANK(A190),"",C190)</f>
-        <v> EQUIPMENT_DESIGNER_BELOW_MINIMUM_SPEED:0 "§RMax Speed liegt unter dem $SPEED$-Minimum§!"</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC:1 "§HUpgrade All Modules§!\nErsetzen Sie jedes veraltete Modul durch das beste verfügbare Modul der gleichen Linie."</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5423,11 +5489,11 @@
       </c>
       <c r="C191" s="1" t="str">
         <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST:0 "§RWeight exceeds Thrust§!"</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC_DELAYED:0 "Sie haben die Möglichkeit, das Design zu überprüfen und zu ändern, bevor Sie es genehmigen und die Kosten für die Erfahrung bezahlen."</v>
       </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
-        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST:0 "§RWeight exceeds Thrust§!"</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC_DELAYED:0 "Sie haben die Möglichkeit, das Design zu überprüfen und zu ändern, bevor Sie es genehmigen und die Kosten für die Erfahrung bezahlen."</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5439,11 +5505,11 @@
       </c>
       <c r="C192" s="1" t="str">
         <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST_FOR_MISSIONS:0 "§RWeight exceeds Thrust für diese Missionen:§!"</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_UPGRADED_CHECKBOX_BUTTON_DESC:1 "§Wenn dieses Kontrollkästchen aktiviert ist, wird der Entwurf automatisch aktualisiert, wenn bessere Chassis und Module verfügbar sind."</v>
       </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
-        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST_FOR_MISSIONS:0 "§RWeight exceeds Thrust für diese Missionen:§!"</v>
+        <v>EQUIPMENT_DESIGNER_AUTO_UPGRADED_CHECKBOX_BUTTON_DESC:1 "§Wenn dieses Kontrollkästchen aktiviert ist, wird der Entwurf automatisch aktualisiert, wenn bessere Chassis und Module verfügbar sind."</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,114 +5521,114 @@
       </c>
       <c r="C193" s="1" t="str">
         <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_PLANE_ROLE_REQUIRE_WEAPON:0 "Hauptbewaffnung hinzufügen, um Rolle zu geben"</v>
+        <v>EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED:0 "§Rollenwechsel nicht erlaubt§!"</v>
       </c>
       <c r="D193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A193),"",C193)</f>
-        <v> EQUIPMENT_DESIGNER_PLANE_ROLE_REQUIRE_WEAPON:0 "Hauptbewaffnung hinzufügen, um Rolle zu geben"</v>
+        <v>EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED:0 "§Rollenwechsel nicht erlaubt§!"</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="C194" s="1" t="str">
         <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v>""</v>
+        <v>EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED_LICENSED:0 "Dies ist eine lizenzierte Konstruktion und darf nur in der angegebenen Rolle verwendet werden. Für jede zusätzliche Rolle müssen neue Lizenzen erworben werden."</v>
       </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
-        <v/>
+        <v>EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED_LICENSED:0 "Dies ist eine lizenzierte Konstruktion und darf nur in der angegebenen Rolle verwendet werden. Für jede zusätzliche Rolle müssen neue Lizenzen erworben werden."</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="C195" s="1" t="str">
         <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v> # Specialized names can be provided by appending the archetype/hull token. These will take priority if available. E.g. ""</v>
+        <v>EQUIPMENT_DESIGNER_BELOW_MINIMUM_SPEED:0 "§RMax Speed liegt unter dem $SPEED$-Minimum§!"</v>
       </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
-        <v> # Specialized names can be provided by appending the archetype/hull token. These will take priority if available. E.g. ""</v>
+        <v>EQUIPMENT_DESIGNER_BELOW_MINIMUM_SPEED:0 "§RMax Speed liegt unter dem $SPEED$-Minimum§!"</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C196" s="1" t="str">
         <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v> #ship_designer_screen_ship_hull_cruiser: "Leichter Kreuzer"</v>
+        <v>EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST:0 "§RWeight exceeds Thrust§!"</v>
       </c>
       <c r="D196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A196),"",C196)</f>
-        <v> #ship_designer_screen_ship_hull_cruiser: "Leichter Kreuzer"</v>
+        <v>EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST:0 "§RWeight exceeds Thrust§!"</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C197" s="1" t="str">
         <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
-        <v> #ship_designer_capital_ship_ship_hull_cruiser: "Schwerer Kreuzer"</v>
+        <v>EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST_FOR_MISSIONS:0 "§RWeight exceeds Thrust für diese Missionen:§!"</v>
       </c>
       <c r="D197" s="1" t="str">
         <f aca="false">IF(ISBLANK(A197),"",C197)</f>
-        <v> #ship_designer_capital_ship_ship_hull_cruiser: "Schwerer Kreuzer"</v>
+        <v>EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST_FOR_MISSIONS:0 "§RWeight exceeds Thrust für diese Missionen:§!"</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C198" s="1" t="str">
         <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v> ship_designer_submarine:0 "$AUSRÜSTUNG_U-BOOT$"</v>
+        <v>EQUIPMENT_DESIGNER_PLANE_ROLE_REQUIRE_WEAPON:0 "Hauptbewaffnung hinzufügen, um Rolle zu geben"</v>
       </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
-        <v> ship_designer_submarine:0 "$AUSRÜSTUNG_U-BOOT$"</v>
+        <v>EQUIPMENT_DESIGNER_PLANE_ROLE_REQUIRE_WEAPON:0 "Hauptbewaffnung hinzufügen, um Rolle zu geben"</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="C199" s="1" t="str">
         <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
-        <v> ship_designer_capital_ship:0 "$AUSRÜSTUNG_KAPITALSCHIFF$"</v>
+        <v>""</v>
       </c>
       <c r="D199" s="1" t="str">
         <f aca="false">IF(ISBLANK(A199),"",C199)</f>
-        <v> ship_designer_capital_ship:0 "$AUSRÜSTUNG_KAPITALSCHIFF$"</v>
+        <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B200" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C200" s="1" t="str">
         <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
-        <v> ship_designer_screen:0 "$AUSSTATTUNG_SCHIRM$"</v>
+        <v># Specialized names can be provided by appending the archetype/hull token. These will take priority if available. E.g. ""</v>
       </c>
       <c r="D200" s="1" t="str">
         <f aca="false">IF(ISBLANK(A200),"",C200)</f>
-        <v> ship_designer_screen:0 "$AUSSTATTUNG_SCHIRM$"</v>
+        <v># Specialized names can be provided by appending the archetype/hull token. These will take priority if available. E.g. ""</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5574,101 +5640,101 @@
       </c>
       <c r="C201" s="1" t="str">
         <f aca="false">A201 &amp;" " &amp;"""" &amp;B201 &amp;""""</f>
-        <v> ship_designer_carrier:0 "$AUSRÜSTUNG_TRÄGER$"</v>
+        <v>#ship_designer_screen_ship_hull_cruiser: "Leichter Kreuzer"</v>
       </c>
       <c r="D201" s="1" t="str">
         <f aca="false">IF(ISBLANK(A201),"",C201)</f>
-        <v> ship_designer_carrier:0 "$AUSRÜSTUNG_TRÄGER$"</v>
+        <v>#ship_designer_screen_ship_hull_cruiser: "Leichter Kreuzer"</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="C202" s="1" t="str">
         <f aca="false">A202 &amp;" " &amp;"""" &amp;B202 &amp;""""</f>
-        <v>""</v>
+        <v>#ship_designer_capital_ship_ship_hull_cruiser: "Schwerer Kreuzer"</v>
       </c>
       <c r="D202" s="1" t="str">
         <f aca="false">IF(ISBLANK(A202),"",C202)</f>
-        <v/>
+        <v>#ship_designer_capital_ship_ship_hull_cruiser: "Schwerer Kreuzer"</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C203" s="1" t="str">
         <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
-        <v> tank_designer_tankette_tank_chassis:0 "Tanker"</v>
+        <v>ship_designer_submarine:0 "$AUSRÜSTUNG_U-BOOT$"</v>
       </c>
       <c r="D203" s="1" t="str">
         <f aca="false">IF(ISBLANK(A203),"",C203)</f>
-        <v> tank_designer_tankette_tank_chassis:0 "Tanker"</v>
+        <v>ship_designer_submarine:0 "$AUSRÜSTUNG_U-BOOT$"</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C204" s="1" t="str">
         <f aca="false">A204 &amp;" " &amp;"""" &amp;B204 &amp;""""</f>
-        <v> tank_designer_tankette_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_tankette_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
+        <v>ship_designer_capital_ship:0 "$AUSRÜSTUNG_KAPITALSCHIFF$"</v>
       </c>
       <c r="D204" s="1" t="str">
         <f aca="false">IF(ISBLANK(A204),"",C204)</f>
-        <v> tank_designer_tankette_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_tankette_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
+        <v>ship_designer_capital_ship:0 "$AUSRÜSTUNG_KAPITALSCHIFF$"</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C205" s="1" t="str">
         <f aca="false">A205 &amp;" " &amp;"""" &amp;B205 &amp;""""</f>
-        <v> tank_designer_light_tank_chassis:0 "Leichter Panzer"</v>
+        <v>ship_designer_screen:0 "$AUSSTATTUNG_SCHIRM$"</v>
       </c>
       <c r="D205" s="1" t="str">
         <f aca="false">IF(ISBLANK(A205),"",C205)</f>
-        <v> tank_designer_light_tank_chassis:0 "Leichter Panzer"</v>
+        <v>ship_designer_screen:0 "$AUSSTATTUNG_SCHIRM$"</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C206" s="1" t="str">
         <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
-        <v> tank_designer_light_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_light_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
+        <v>ship_designer_carrier:0 "$AUSRÜSTUNG_TRÄGER$"</v>
       </c>
       <c r="D206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A206),"",C206)</f>
-        <v> tank_designer_light_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_light_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
+        <v>ship_designer_carrier:0 "$AUSRÜSTUNG_TRÄGER$"</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="C207" s="1" t="str">
         <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v> tank_designer_medium_tank_chassis:0 "Mittlerer Panzer"</v>
+        <v>""</v>
       </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
-        <v> tank_designer_medium_tank_chassis:0 "Mittlerer Panzer"</v>
+        <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,11 +5746,11 @@
       </c>
       <c r="C208" s="1" t="str">
         <f aca="false">A208 &amp;" " &amp;"""" &amp;B208 &amp;""""</f>
-        <v> tank_designer_medium_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_medium_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
+        <v>tank_designer_tankette_tank_chassis:0 "Tanker"</v>
       </c>
       <c r="D208" s="1" t="str">
         <f aca="false">IF(ISBLANK(A208),"",C208)</f>
-        <v> tank_designer_medium_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_medium_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
+        <v>tank_designer_tankette_tank_chassis:0 "Tanker"</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,11 +5762,11 @@
       </c>
       <c r="C209" s="1" t="str">
         <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v> tank_designer_medium_advanced_tank_chassis:0 "Erweiterter mittlerer Panzer"</v>
+        <v>tank_designer_tankette_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_tankette_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
       </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
-        <v> tank_designer_medium_advanced_tank_chassis:0 "Erweiterter mittlerer Panzer"</v>
+        <v>tank_designer_tankette_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_tankette_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,11 +5778,11 @@
       </c>
       <c r="C210" s="1" t="str">
         <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
-        <v> tank_designer_medium_advanced_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_medium_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
+        <v>tank_designer_light_tank_chassis:0 "Leichter Panzer"</v>
       </c>
       <c r="D210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A210),"",C210)</f>
-        <v> tank_designer_medium_advanced_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_medium_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
+        <v>tank_designer_light_tank_chassis:0 "Leichter Panzer"</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,11 +5794,11 @@
       </c>
       <c r="C211" s="1" t="str">
         <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
-        <v> tank_designer_heavy_tank_chassis:0 "Schwerer Panzer"</v>
+        <v>tank_designer_light_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_light_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
       </c>
       <c r="D211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A211),"",C211)</f>
-        <v> tank_designer_heavy_tank_chassis:0 "Schwerer Panzer"</v>
+        <v>tank_designer_light_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_light_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,11 +5810,11 @@
       </c>
       <c r="C212" s="1" t="str">
         <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
-        <v> tank_designer_heavy_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_heavy_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
+        <v>tank_designer_medium_tank_chassis:0 "Mittlerer Panzer"</v>
       </c>
       <c r="D212" s="1" t="str">
         <f aca="false">IF(ISBLANK(A212),"",C212)</f>
-        <v> tank_designer_heavy_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_heavy_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
+        <v>tank_designer_medium_tank_chassis:0 "Mittlerer Panzer"</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,11 +5826,11 @@
       </c>
       <c r="C213" s="1" t="str">
         <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
-        <v> tank_designer_super_heavy_tank_chassis:0 "Superschwerer Panzer"</v>
+        <v>tank_designer_medium_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_medium_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
       </c>
       <c r="D213" s="1" t="str">
         <f aca="false">IF(ISBLANK(A213),"",C213)</f>
-        <v> tank_designer_super_heavy_tank_chassis:0 "Superschwerer Panzer"</v>
+        <v>tank_designer_medium_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_medium_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,11 +5842,11 @@
       </c>
       <c r="C214" s="1" t="str">
         <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
-        <v> tank_designer_super_heavy_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_super_heavy_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
+        <v>tank_designer_medium_advanced_tank_chassis:0 "Erweiterter mittlerer Panzer"</v>
       </c>
       <c r="D214" s="1" t="str">
         <f aca="false">IF(ISBLANK(A214),"",C214)</f>
-        <v> tank_designer_super_heavy_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_super_heavy_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
+        <v>tank_designer_medium_advanced_tank_chassis:0 "Erweiterter mittlerer Panzer"</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,11 +5858,11 @@
       </c>
       <c r="C215" s="1" t="str">
         <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
-        <v> tank_designer_modern_tank_chassis:0 "Moderner Panzer"</v>
+        <v>tank_designer_medium_advanced_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_medium_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
       </c>
       <c r="D215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A215),"",C215)</f>
-        <v> tank_designer_modern_tank_chassis:0 "Moderner Panzer"</v>
+        <v>tank_designer_medium_advanced_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_medium_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5808,11 +5874,11 @@
       </c>
       <c r="C216" s="1" t="str">
         <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
-        <v> tank_designer_modern_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_modern_tank_chassis|H$ verbietet, zu dieser Rolle zu wechseln."</v>
+        <v>tank_designer_heavy_tank_chassis:0 "Schwerer Panzer"</v>
       </c>
       <c r="D216" s="1" t="str">
         <f aca="false">IF(ISBLANK(A216),"",C216)</f>
-        <v> tank_designer_modern_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_modern_tank_chassis|H$ verbietet, zu dieser Rolle zu wechseln."</v>
+        <v>tank_designer_heavy_tank_chassis:0 "Schwerer Panzer"</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,11 +5890,11 @@
       </c>
       <c r="C217" s="1" t="str">
         <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
-        <v> tank_designer_amphibious_tank_chassis:0 "Amphibischer Panzer"</v>
+        <v>tank_designer_heavy_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_heavy_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
       </c>
       <c r="D217" s="1" t="str">
         <f aca="false">IF(ISBLANK(A217),"",C217)</f>
-        <v> tank_designer_amphibious_tank_chassis:0 "Amphibischer Panzer"</v>
+        <v>tank_designer_heavy_tank_chassis_role_disallowed:0 "Entferne das Modul, das der Rolle $tank_designer_heavy_tank_chassis|H$ verbietet, in diese Rolle zu wechseln."</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,11 +5906,11 @@
       </c>
       <c r="C218" s="1" t="str">
         <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
-        <v> tank_designer_amphibious_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_amphibischer_panzer_fahrgestell|H$ verbietet, zu ihr zu wechseln."</v>
+        <v>tank_designer_super_heavy_tank_chassis:0 "Superschwerer Panzer"</v>
       </c>
       <c r="D218" s="1" t="str">
         <f aca="false">IF(ISBLANK(A218),"",C218)</f>
-        <v> tank_designer_amphibious_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_amphibischer_panzer_fahrgestell|H$ verbietet, zu ihr zu wechseln."</v>
+        <v>tank_designer_super_heavy_tank_chassis:0 "Superschwerer Panzer"</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,11 +5922,11 @@
       </c>
       <c r="C219" s="1" t="str">
         <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
-        <v> tank_designer_amphibious:0 "Amphibisch"</v>
+        <v>tank_designer_super_heavy_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_super_heavy_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
       </c>
       <c r="D219" s="1" t="str">
         <f aca="false">IF(ISBLANK(A219),"",C219)</f>
-        <v> tank_designer_amphibious:0 "Amphibisch"</v>
+        <v>tank_designer_super_heavy_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_super_heavy_tank_chassis|H$ verbietet, zu ihr zu wechseln."</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,11 +5938,11 @@
       </c>
       <c r="C220" s="1" t="str">
         <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
-        <v> tank_designer_amphibious_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HAmphibious§! erlaubt, dorthin zu wechseln."</v>
+        <v>tank_designer_modern_tank_chassis:0 "Moderner Panzer"</v>
       </c>
       <c r="D220" s="1" t="str">
         <f aca="false">IF(ISBLANK(A220),"",C220)</f>
-        <v> tank_designer_amphibious_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HAmphibious§! erlaubt, dorthin zu wechseln."</v>
+        <v>tank_designer_modern_tank_chassis:0 "Moderner Panzer"</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5888,11 +5954,11 @@
       </c>
       <c r="C221" s="1" t="str">
         <f aca="false">A221 &amp;" " &amp;"""" &amp;B221 &amp;""""</f>
-        <v> tank_designer_anti_air:0 "Luftabwehr"</v>
+        <v>tank_designer_modern_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_modern_tank_chassis|H$ verbietet, zu dieser Rolle zu wechseln."</v>
       </c>
       <c r="D221" s="1" t="str">
         <f aca="false">IF(ISBLANK(A221),"",C221)</f>
-        <v> tank_designer_anti_air:0 "Luftabwehr"</v>
+        <v>tank_designer_modern_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_modern_tank_chassis|H$ verbietet, zu dieser Rolle zu wechseln."</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,11 +5970,11 @@
       </c>
       <c r="C222" s="1" t="str">
         <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
-        <v> tank_designer_anti_air_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HAnti-Air§! ermöglicht, zu ihr zu wechseln."</v>
+        <v>tank_designer_amphibious_tank_chassis:0 "Amphibischer Panzer"</v>
       </c>
       <c r="D222" s="1" t="str">
         <f aca="false">IF(ISBLANK(A222),"",C222)</f>
-        <v> tank_designer_anti_air_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HAnti-Air§! ermöglicht, zu ihr zu wechseln."</v>
+        <v>tank_designer_amphibious_tank_chassis:0 "Amphibischer Panzer"</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,11 +5986,11 @@
       </c>
       <c r="C223" s="1" t="str">
         <f aca="false">A223 &amp;" " &amp;"""" &amp;B223 &amp;""""</f>
-        <v> tank_designer_artillery:0 "Artillerie"</v>
+        <v>tank_designer_amphibious_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_amphibischer_panzer_fahrgestell|H$ verbietet, zu ihr zu wechseln."</v>
       </c>
       <c r="D223" s="1" t="str">
         <f aca="false">IF(ISBLANK(A223),"",C223)</f>
-        <v> tank_designer_artillery:0 "Artillerie"</v>
+        <v>tank_designer_amphibious_tank_chassis_role_disallowed:0 "Entferne das Modul, das es der Rolle $tank_designer_amphibischer_panzer_fahrgestell|H$ verbietet, zu ihr zu wechseln."</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,11 +6002,11 @@
       </c>
       <c r="C224" s="1" t="str">
         <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
-        <v> tank_designer_artillery_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HArtillery§! ermöglicht, zu ihr zu wechseln."</v>
+        <v>tank_designer_amphibious:0 "Amphibisch"</v>
       </c>
       <c r="D224" s="1" t="str">
         <f aca="false">IF(ISBLANK(A224),"",C224)</f>
-        <v> tank_designer_artillery_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HArtillery§! ermöglicht, zu ihr zu wechseln."</v>
+        <v>tank_designer_amphibious:0 "Amphibisch"</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,11 +6018,11 @@
       </c>
       <c r="C225" s="1" t="str">
         <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
-        <v> tank_designer_anti_tank:0 "Panzer-Zerstörer"</v>
+        <v>tank_designer_amphibious_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HAmphibious§! erlaubt, dorthin zu wechseln."</v>
       </c>
       <c r="D225" s="1" t="str">
         <f aca="false">IF(ISBLANK(A225),"",C225)</f>
-        <v> tank_designer_anti_tank:0 "Panzer-Zerstörer"</v>
+        <v>tank_designer_amphibious_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HAmphibious§! erlaubt, dorthin zu wechseln."</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5968,11 +6034,11 @@
       </c>
       <c r="C226" s="1" t="str">
         <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v> tank_designer_anti_tank_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HTank Destroyer§! ermöglicht, zu ihr zu wechseln."</v>
+        <v>tank_designer_anti_air:0 "Luftabwehr"</v>
       </c>
       <c r="D226" s="1" t="str">
         <f aca="false">IF(ISBLANK(A226),"",C226)</f>
-        <v> tank_designer_anti_tank_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HTank Destroyer§! ermöglicht, zu ihr zu wechseln."</v>
+        <v>tank_designer_anti_air:0 "Luftabwehr"</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,11 +6050,11 @@
       </c>
       <c r="C227" s="1" t="str">
         <f aca="false">A227 &amp;" " &amp;"""" &amp;B227 &amp;""""</f>
-        <v> tank_designer_rocket:0 "Sturmgeschütz"</v>
+        <v>tank_designer_anti_air_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HAnti-Air§! ermöglicht, zu ihr zu wechseln."</v>
       </c>
       <c r="D227" s="1" t="str">
         <f aca="false">IF(ISBLANK(A227),"",C227)</f>
-        <v> tank_designer_rocket:0 "Sturmgeschütz"</v>
+        <v>tank_designer_anti_air_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HAnti-Air§! ermöglicht, zu ihr zu wechseln."</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,11 +6066,11 @@
       </c>
       <c r="C228" s="1" t="str">
         <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v> tank_designer_rocket_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HAssault Gun§! ermöglicht, dorthin zu wechseln."</v>
+        <v>tank_designer_artillery:0 "Artillerie"</v>
       </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
-        <v> tank_designer_rocket_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HAssault Gun§! ermöglicht, dorthin zu wechseln."</v>
+        <v>tank_designer_artillery:0 "Artillerie"</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,11 +6082,11 @@
       </c>
       <c r="C229" s="1" t="str">
         <f aca="false">A229 &amp;" " &amp;"""" &amp;B229 &amp;""""</f>
-        <v> tank_designer_flame:1 "Nahunterstützungspanzer"</v>
+        <v>tank_designer_artillery_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HArtillery§! ermöglicht, zu ihr zu wechseln."</v>
       </c>
       <c r="D229" s="1" t="str">
         <f aca="false">IF(ISBLANK(A229),"",C229)</f>
-        <v> tank_designer_flame:1 "Nahunterstützungspanzer"</v>
+        <v>tank_designer_artillery_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HArtillery§! ermöglicht, zu ihr zu wechseln."</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,11 +6098,11 @@
       </c>
       <c r="C230" s="1" t="str">
         <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v> tank_designer_flame_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HClose Unterstützung§! ermöglicht, zu ihr zu wechseln."</v>
+        <v>tank_designer_anti_tank:0 "Panzer-Zerstörer"</v>
       </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
-        <v> tank_designer_flame_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HClose Unterstützung§! ermöglicht, zu ihr zu wechseln."</v>
+        <v>tank_designer_anti_tank:0 "Panzer-Zerstörer"</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,11 +6114,11 @@
       </c>
       <c r="C231" s="1" t="str">
         <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
-        <v> tank_designer_motorized:1 "Aufklärer"</v>
+        <v>tank_designer_anti_tank_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HTank Destroyer§! ermöglicht, zu ihr zu wechseln."</v>
       </c>
       <c r="D231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A231),"",C231)</f>
-        <v> tank_designer_motorized:1 "Aufklärer"</v>
+        <v>tank_designer_anti_tank_role_disallowed:0 "Füge ein Modul hinzu, das es der Rolle §HTank Destroyer§! ermöglicht, zu ihr zu wechseln."</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6064,11 +6130,11 @@
       </c>
       <c r="C232" s="1" t="str">
         <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v> tank_designer_motorized_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HRecon§! ermöglicht, dorthin zu wechseln."</v>
+        <v>tank_designer_rocket:0 "Sturmgeschütz"</v>
       </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
-        <v> tank_designer_motorized_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HRecon§! ermöglicht, dorthin zu wechseln."</v>
+        <v>tank_designer_rocket:0 "Sturmgeschütz"</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,11 +6146,11 @@
       </c>
       <c r="C233" s="1" t="str">
         <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v> tank_designer_support:1 "Kommando-Panzer"</v>
+        <v>tank_designer_rocket_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HAssault Gun§! ermöglicht, dorthin zu wechseln."</v>
       </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
-        <v> tank_designer_support:1 "Kommando-Panzer"</v>
+        <v>tank_designer_rocket_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HAssault Gun§! ermöglicht, dorthin zu wechseln."</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6096,143 +6162,143 @@
       </c>
       <c r="C234" s="1" t="str">
         <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
-        <v> tank_designer_support_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HCommand Tank§! ermöglicht, in diese Rolle zu wechseln."</v>
+        <v>tank_designer_flame:1 "Nahunterstützungspanzer"</v>
       </c>
       <c r="D234" s="1" t="str">
         <f aca="false">IF(ISBLANK(A234),"",C234)</f>
-        <v> tank_designer_support_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HCommand Tank§! ermöglicht, in diese Rolle zu wechseln."</v>
+        <v>tank_designer_flame:1 "Nahunterstützungspanzer"</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="C235" s="1" t="str">
         <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
-        <v>""</v>
+        <v>tank_designer_flame_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HClose Unterstützung§! ermöglicht, zu ihr zu wechseln."</v>
       </c>
       <c r="D235" s="1" t="str">
         <f aca="false">IF(ISBLANK(A235),"",C235)</f>
-        <v/>
+        <v>tank_designer_flame_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HClose Unterstützung§! ermöglicht, zu ihr zu wechseln."</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="C236" s="1" t="str">
         <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
-        <v>""</v>
+        <v>tank_designer_motorized:1 "Aufklärer"</v>
       </c>
       <c r="D236" s="1" t="str">
         <f aca="false">IF(ISBLANK(A236),"",C236)</f>
-        <v/>
+        <v>tank_designer_motorized:1 "Aufklärer"</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C237" s="1" t="str">
         <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
-        <v> plane_designer_fighter:0 "Abfangjäger"</v>
+        <v>tank_designer_motorized_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HRecon§! ermöglicht, dorthin zu wechseln."</v>
       </c>
       <c r="D237" s="1" t="str">
         <f aca="false">IF(ISBLANK(A237),"",C237)</f>
-        <v> plane_designer_fighter:0 "Abfangjäger"</v>
+        <v>tank_designer_motorized_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HRecon§! ermöglicht, dorthin zu wechseln."</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C238" s="1" t="str">
         <f aca="false">A238 &amp;" " &amp;"""" &amp;B238 &amp;""""</f>
-        <v> plane_designer_interceptor:0 "Abfangjäger"</v>
+        <v>tank_designer_support:1 "Kommando-Panzer"</v>
       </c>
       <c r="D238" s="1" t="str">
         <f aca="false">IF(ISBLANK(A238),"",C238)</f>
-        <v> plane_designer_interceptor:0 "Abfangjäger"</v>
+        <v>tank_designer_support:1 "Kommando-Panzer"</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C239" s="1" t="str">
         <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
-        <v> plane_designer_tactical_bomber:0 "Taktischer Bomber"</v>
+        <v>tank_designer_support_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HCommand Tank§! ermöglicht, in diese Rolle zu wechseln."</v>
       </c>
       <c r="D239" s="1" t="str">
         <f aca="false">IF(ISBLANK(A239),"",C239)</f>
-        <v> plane_designer_tactical_bomber:0 "Taktischer Bomber"</v>
+        <v>tank_designer_support_role_disallowed:0 "Fügen Sie ein Modul hinzu, das es der Rolle §HCommand Tank§! ermöglicht, in diese Rolle zu wechseln."</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="C240" s="1" t="str">
         <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
-        <v> plane_designer_strategic_bomber:0 "Strategischer Bomber"</v>
+        <v>""</v>
       </c>
       <c r="D240" s="1" t="str">
         <f aca="false">IF(ISBLANK(A240),"",C240)</f>
-        <v> plane_designer_strategic_bomber:0 "Strategischer Bomber"</v>
+        <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="C241" s="1" t="str">
         <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
-        <v> plane_designer_cas:0 "CAS"</v>
+        <v>""</v>
       </c>
       <c r="D241" s="1" t="str">
         <f aca="false">IF(ISBLANK(A241),"",C241)</f>
-        <v> plane_designer_cas:0 "CAS"</v>
+        <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C242" s="1" t="str">
         <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
-        <v> plane_designer_naval_bomber:0 "Marinebomber"</v>
+        <v>plane_designer_fighter:0 "Abfangjäger"</v>
       </c>
       <c r="D242" s="1" t="str">
         <f aca="false">IF(ISBLANK(A242),"",C242)</f>
-        <v> plane_designer_naval_bomber:0 "Marinebomber"</v>
+        <v>plane_designer_fighter:0 "Abfangjäger"</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="C243" s="1" t="str">
         <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
-        <v> plane_designer_suicide:1 "Selbstmordbomber"</v>
+        <v>plane_designer_interceptor:0 "Abfangjäger"</v>
       </c>
       <c r="D243" s="1" t="str">
         <f aca="false">IF(ISBLANK(A243),"",C243)</f>
-        <v> plane_designer_suicide:1 "Selbstmordbomber"</v>
+        <v>plane_designer_interceptor:0 "Abfangjäger"</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6240,176 +6306,176 @@
         <v>473</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="C244" s="1" t="str">
         <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
-        <v> plane_designer_scout_plane:0 "Aufklärer"</v>
+        <v>plane_designer_tactical_bomber:0 "Taktischer Bomber"</v>
       </c>
       <c r="D244" s="1" t="str">
         <f aca="false">IF(ISBLANK(A244),"",C244)</f>
-        <v> plane_designer_scout_plane:0 "Aufklärer"</v>
+        <v>plane_designer_tactical_bomber:0 "Taktischer Bomber"</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C245" s="1" t="str">
         <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
-        <v> plane_designer_maritime_patrol_plane:1 "Marine-Patrouillenbomber"</v>
+        <v>plane_designer_strategic_bomber:0 "Strategischer Bomber"</v>
       </c>
       <c r="D245" s="1" t="str">
         <f aca="false">IF(ISBLANK(A245),"",C245)</f>
-        <v> plane_designer_maritime_patrol_plane:1 "Marine-Patrouillenbomber"</v>
+        <v>plane_designer_strategic_bomber:0 "Strategischer Bomber"</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C246" s="1" t="str">
         <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
-        <v> plane_designer_heavy_fighter:0 "Schweres Jagdflugzeug"</v>
+        <v>plane_designer_cas:0 "CAS"</v>
       </c>
       <c r="D246" s="1" t="str">
         <f aca="false">IF(ISBLANK(A246),"",C246)</f>
-        <v> plane_designer_heavy_fighter:0 "Schweres Jagdflugzeug"</v>
+        <v>plane_designer_cas:0 "CAS"</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="C247" s="1" t="str">
         <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
-        <v>""</v>
+        <v>plane_designer_naval_bomber:0 "Marinebomber"</v>
       </c>
       <c r="D247" s="1" t="str">
         <f aca="false">IF(ISBLANK(A247),"",C247)</f>
-        <v/>
+        <v>plane_designer_naval_bomber:0 "Marinebomber"</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="C248" s="1" t="str">
         <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v> ### name list themes ""</v>
+        <v>plane_designer_suicide:1 "Selbstmordbomber"</v>
       </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
-        <v> ### name list themes ""</v>
+        <v>plane_designer_suicide:1 "Selbstmordbomber"</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="C249" s="1" t="str">
         <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
-        <v> #l_german: ""</v>
+        <v>plane_designer_scout_plane:0 "Aufklärer"</v>
       </c>
       <c r="D249" s="1" t="str">
         <f aca="false">IF(ISBLANK(A249),"",C249)</f>
-        <v> #l_german: ""</v>
+        <v>plane_designer_scout_plane:0 "Aufklärer"</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="C250" s="1" t="str">
         <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v> # name list themes -- updated to include country-specific and other new list names ""</v>
+        <v>plane_designer_maritime_patrol_plane:1 "Marine-Patrouillenbomber"</v>
       </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
-        <v> # name list themes -- updated to include country-specific and other new list names ""</v>
+        <v>plane_designer_maritime_patrol_plane:1 "Marine-Patrouillenbomber"</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C251" s="1" t="str">
         <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v> NAME_THEME_RIVERS:0 "Flüsse"</v>
+        <v>plane_designer_heavy_fighter:0 "Schweres Jagdflugzeug"</v>
       </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
-        <v> NAME_THEME_RIVERS:0 "Flüsse"</v>
+        <v>plane_designer_heavy_fighter:0 "Schweres Jagdflugzeug"</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="C252" s="1" t="str">
         <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
-        <v> NAME_THEME_FISH:0 "Fische"</v>
+        <v>""</v>
       </c>
       <c r="D252" s="1" t="str">
         <f aca="false">IF(ISBLANK(A252),"",C252)</f>
-        <v> NAME_THEME_FISH:0 "Fische"</v>
+        <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C253" s="1" t="str">
         <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
-        <v> NAME_THEME_ANIMALS:0 "Tiere"</v>
+        <v>### name list themes ""</v>
       </c>
       <c r="D253" s="1" t="str">
         <f aca="false">IF(ISBLANK(A253),"",C253)</f>
-        <v> NAME_THEME_ANIMALS:0 "Tiere"</v>
+        <v>### name list themes ""</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C254" s="1" t="str">
         <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_CARRIERS:0 "Historische Flugzeugträger"</v>
+        <v>#l_german: ""</v>
       </c>
       <c r="D254" s="1" t="str">
         <f aca="false">IF(ISBLANK(A254),"",C254)</f>
-        <v> NAME_THEME_HISTORICAL_CARRIERS:0 "Historische Flugzeugträger"</v>
+        <v>#l_german: ""</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B255" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C255" s="1" t="str">
         <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
-        <v> NAME_THEME_BATTLES:0 "Berühmte Schlachten"</v>
+        <v># name list themes -- updated to include country-specific and other new list names ""</v>
       </c>
       <c r="D255" s="1" t="str">
         <f aca="false">IF(ISBLANK(A255),"",C255)</f>
-        <v> NAME_THEME_BATTLES:0 "Berühmte Schlachten"</v>
+        <v># name list themes -- updated to include country-specific and other new list names ""</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6421,11 +6487,11 @@
       </c>
       <c r="C256" s="1" t="str">
         <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_DESTROYERS:0 "Historische Zerstörer"</v>
+        <v>NAME_THEME_RIVERS:0 "Flüsse"</v>
       </c>
       <c r="D256" s="1" t="str">
         <f aca="false">IF(ISBLANK(A256),"",C256)</f>
-        <v> NAME_THEME_HISTORICAL_DESTROYERS:0 "Historische Zerstörer"</v>
+        <v>NAME_THEME_RIVERS:0 "Flüsse"</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6437,11 +6503,11 @@
       </c>
       <c r="C257" s="1" t="str">
         <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_HEAVY_DESTROYERS:0 "Historische große Zerstörer"</v>
+        <v>NAME_THEME_FISH:0 "Fische"</v>
       </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
-        <v> NAME_THEME_HISTORICAL_HEAVY_DESTROYERS:0 "Historische große Zerstörer"</v>
+        <v>NAME_THEME_FISH:0 "Fische"</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6453,11 +6519,11 @@
       </c>
       <c r="C258" s="1" t="str">
         <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_SUBMARINES:0 "Historische U-Boote"</v>
+        <v>NAME_THEME_ANIMALS:0 "Tiere"</v>
       </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
-        <v> NAME_THEME_HISTORICAL_SUBMARINES:0 "Historische U-Boote"</v>
+        <v>NAME_THEME_ANIMALS:0 "Tiere"</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6469,11 +6535,11 @@
       </c>
       <c r="C259" s="1" t="str">
         <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_SUBMARINES_COASTAL:0 "Historische Küsten-U-Boote"</v>
+        <v>NAME_THEME_HISTORICAL_CARRIERS:0 "Historische Flugzeugträger"</v>
       </c>
       <c r="D259" s="1" t="str">
         <f aca="false">IF(ISBLANK(A259),"",C259)</f>
-        <v> NAME_THEME_HISTORICAL_SUBMARINES_COASTAL:0 "Historische Küsten-U-Boote"</v>
+        <v>NAME_THEME_HISTORICAL_CARRIERS:0 "Historische Flugzeugträger"</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6485,11 +6551,11 @@
       </c>
       <c r="C260" s="1" t="str">
         <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_CL:0 "Historische Leichte Kreuzer"</v>
+        <v>NAME_THEME_BATTLES:0 "Berühmte Schlachten"</v>
       </c>
       <c r="D260" s="1" t="str">
         <f aca="false">IF(ISBLANK(A260),"",C260)</f>
-        <v> NAME_THEME_HISTORICAL_CL:0 "Historische Leichte Kreuzer"</v>
+        <v>NAME_THEME_BATTLES:0 "Berühmte Schlachten"</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6501,11 +6567,11 @@
       </c>
       <c r="C261" s="1" t="str">
         <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_CA:0 "Historische Schwere Kreuzer"</v>
+        <v>NAME_THEME_HISTORICAL_DESTROYERS:0 "Historische Zerstörer"</v>
       </c>
       <c r="D261" s="1" t="str">
         <f aca="false">IF(ISBLANK(A261),"",C261)</f>
-        <v> NAME_THEME_HISTORICAL_CA:0 "Historische Schwere Kreuzer"</v>
+        <v>NAME_THEME_HISTORICAL_DESTROYERS:0 "Historische Zerstörer"</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6517,11 +6583,11 @@
       </c>
       <c r="C262" s="1" t="str">
         <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_CM:0 "Historische Minenlegungskreuzer"</v>
+        <v>NAME_THEME_HISTORICAL_HEAVY_DESTROYERS:0 "Historische große Zerstörer"</v>
       </c>
       <c r="D262" s="1" t="str">
         <f aca="false">IF(ISBLANK(A262),"",C262)</f>
-        <v> NAME_THEME_HISTORICAL_CM:0 "Historische Minenlegungskreuzer"</v>
+        <v>NAME_THEME_HISTORICAL_HEAVY_DESTROYERS:0 "Historische große Zerstörer"</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,11 +6599,11 @@
       </c>
       <c r="C263" s="1" t="str">
         <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_CB:0 "Historische Große Kreuzer"</v>
+        <v>NAME_THEME_HISTORICAL_SUBMARINES:0 "Historische U-Boote"</v>
       </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
-        <v> NAME_THEME_HISTORICAL_CB:0 "Historische Große Kreuzer"</v>
+        <v>NAME_THEME_HISTORICAL_SUBMARINES:0 "Historische U-Boote"</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,11 +6615,11 @@
       </c>
       <c r="C264" s="1" t="str">
         <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_BC:0 "Historische Schlachtkreuzer"</v>
+        <v>NAME_THEME_HISTORICAL_SUBMARINES_COASTAL:0 "Historische Küsten-U-Boote"</v>
       </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
-        <v> NAME_THEME_HISTORICAL_BC:0 "Historische Schlachtkreuzer"</v>
+        <v>NAME_THEME_HISTORICAL_SUBMARINES_COASTAL:0 "Historische Küsten-U-Boote"</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6565,11 +6631,11 @@
       </c>
       <c r="C265" s="1" t="str">
         <f aca="false">A265 &amp;" " &amp;"""" &amp;B265 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_BB:0 "Historische Schlachtschiffe"</v>
+        <v>NAME_THEME_HISTORICAL_CL:0 "Historische Leichte Kreuzer"</v>
       </c>
       <c r="D265" s="1" t="str">
         <f aca="false">IF(ISBLANK(A265),"",C265)</f>
-        <v> NAME_THEME_HISTORICAL_BB:0 "Historische Schlachtschiffe"</v>
+        <v>NAME_THEME_HISTORICAL_CL:0 "Historische Leichte Kreuzer"</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6581,11 +6647,11 @@
       </c>
       <c r="C266" s="1" t="str">
         <f aca="false">A266 &amp;" " &amp;"""" &amp;B266 &amp;""""</f>
-        <v> NAME_THEME_STATES:0 "Staaten"</v>
+        <v>NAME_THEME_HISTORICAL_CA:0 "Historische Schwere Kreuzer"</v>
       </c>
       <c r="D266" s="1" t="str">
         <f aca="false">IF(ISBLANK(A266),"",C266)</f>
-        <v> NAME_THEME_STATES:0 "Staaten"</v>
+        <v>NAME_THEME_HISTORICAL_CA:0 "Historische Schwere Kreuzer"</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6597,11 +6663,11 @@
       </c>
       <c r="C267" s="1" t="str">
         <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
-        <v> NAME_THEME_CITIES:0 "Städte"</v>
+        <v>NAME_THEME_HISTORICAL_CM:0 "Historische Minenlegungskreuzer"</v>
       </c>
       <c r="D267" s="1" t="str">
         <f aca="false">IF(ISBLANK(A267),"",C267)</f>
-        <v> NAME_THEME_CITIES:0 "Städte"</v>
+        <v>NAME_THEME_HISTORICAL_CM:0 "Historische Minenlegungskreuzer"</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6613,11 +6679,11 @@
       </c>
       <c r="C268" s="1" t="str">
         <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
-        <v> NAME_THEME_PROVINCES:0 "Provinzen"</v>
+        <v>NAME_THEME_HISTORICAL_CB:0 "Historische Große Kreuzer"</v>
       </c>
       <c r="D268" s="1" t="str">
         <f aca="false">IF(ISBLANK(A268),"",C268)</f>
-        <v> NAME_THEME_PROVINCES:0 "Provinzen"</v>
+        <v>NAME_THEME_HISTORICAL_CB:0 "Historische Große Kreuzer"</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6629,11 +6695,11 @@
       </c>
       <c r="C269" s="1" t="str">
         <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
-        <v> NAME_THEME_KINGS:0 "Könige"</v>
+        <v>NAME_THEME_HISTORICAL_BC:0 "Historische Schlachtkreuzer"</v>
       </c>
       <c r="D269" s="1" t="str">
         <f aca="false">IF(ISBLANK(A269),"",C269)</f>
-        <v> NAME_THEME_KINGS:0 "Könige"</v>
+        <v>NAME_THEME_HISTORICAL_BC:0 "Historische Schlachtkreuzer"</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,11 +6711,11 @@
       </c>
       <c r="C270" s="1" t="str">
         <f aca="false">A270 &amp;" " &amp;"""" &amp;B270 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_FIGURES:0 "Historische Figuren"</v>
+        <v>NAME_THEME_HISTORICAL_BB:0 "Historische Schlachtschiffe"</v>
       </c>
       <c r="D270" s="1" t="str">
         <f aca="false">IF(ISBLANK(A270),"",C270)</f>
-        <v> NAME_THEME_HISTORICAL_FIGURES:0 "Historische Figuren"</v>
+        <v>NAME_THEME_HISTORICAL_BB:0 "Historische Schlachtschiffe"</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6661,11 +6727,11 @@
       </c>
       <c r="C271" s="1" t="str">
         <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v> NAME_THEME_GREEK_MYTHOLOGY:0 "Griechische Mythologie"</v>
+        <v>NAME_THEME_STATES:0 "Staaten"</v>
       </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
-        <v> NAME_THEME_GREEK_MYTHOLOGY:0 "Griechische Mythologie"</v>
+        <v>NAME_THEME_STATES:0 "Staaten"</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6677,11 +6743,11 @@
       </c>
       <c r="C272" s="1" t="str">
         <f aca="false">A272 &amp;" " &amp;"""" &amp;B272 &amp;""""</f>
-        <v> NAME_THEME_NORDIC_MYTHOLOGY:0 "Nordische Mythologie"</v>
+        <v>NAME_THEME_CITIES:0 "Städte"</v>
       </c>
       <c r="D272" s="1" t="str">
         <f aca="false">IF(ISBLANK(A272),"",C272)</f>
-        <v> NAME_THEME_NORDIC_MYTHOLOGY:0 "Nordische Mythologie"</v>
+        <v>NAME_THEME_CITIES:0 "Städte"</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,11 +6759,11 @@
       </c>
       <c r="C273" s="1" t="str">
         <f aca="false">A273 &amp;" " &amp;"""" &amp;B273 &amp;""""</f>
-        <v> NAME_THEME_SLAVIC_MYTHOLOGY:0 "Slawische Mythologie"</v>
+        <v>NAME_THEME_PROVINCES:0 "Provinzen"</v>
       </c>
       <c r="D273" s="1" t="str">
         <f aca="false">IF(ISBLANK(A273),"",C273)</f>
-        <v> NAME_THEME_SLAVIC_MYTHOLOGY:0 "Slawische Mythologie"</v>
+        <v>NAME_THEME_PROVINCES:0 "Provinzen"</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,11 +6775,11 @@
       </c>
       <c r="C274" s="1" t="str">
         <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
-        <v> NAME_THEME_GERMANIC_MYTHOLOGY:0 "Germanische Mythologie"</v>
+        <v>NAME_THEME_KINGS:0 "Könige"</v>
       </c>
       <c r="D274" s="1" t="str">
         <f aca="false">IF(ISBLANK(A274),"",C274)</f>
-        <v> NAME_THEME_GERMANIC_MYTHOLOGY:0 "Germanische Mythologie"</v>
+        <v>NAME_THEME_KINGS:0 "Könige"</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,11 +6791,11 @@
       </c>
       <c r="C275" s="1" t="str">
         <f aca="false">A275 &amp;" " &amp;"""" &amp;B275 &amp;""""</f>
-        <v> NAME_THEME_IMPERIAL_DD:0 "Kaiserliche Zerstörer"</v>
+        <v>NAME_THEME_HISTORICAL_FIGURES:0 "Historische Figuren"</v>
       </c>
       <c r="D275" s="1" t="str">
         <f aca="false">IF(ISBLANK(A275),"",C275)</f>
-        <v> NAME_THEME_IMPERIAL_DD:0 "Kaiserliche Zerstörer"</v>
+        <v>NAME_THEME_HISTORICAL_FIGURES:0 "Historische Figuren"</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,11 +6807,11 @@
       </c>
       <c r="C276" s="1" t="str">
         <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
-        <v> NAME_THEME_IMPERIAL_CL:0 "Kaiserliche Leichte Kreuzer"</v>
+        <v>NAME_THEME_GREEK_MYTHOLOGY:0 "Griechische Mythologie"</v>
       </c>
       <c r="D276" s="1" t="str">
         <f aca="false">IF(ISBLANK(A276),"",C276)</f>
-        <v> NAME_THEME_IMPERIAL_CL:0 "Kaiserliche Leichte Kreuzer"</v>
+        <v>NAME_THEME_GREEK_MYTHOLOGY:0 "Griechische Mythologie"</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,11 +6823,11 @@
       </c>
       <c r="C277" s="1" t="str">
         <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
-        <v> NAME_THEME_IMPERIAL_CA:0 "Kaiserliche Schwere Kreuzer"</v>
+        <v>NAME_THEME_NORDIC_MYTHOLOGY:0 "Nordische Mythologie"</v>
       </c>
       <c r="D277" s="1" t="str">
         <f aca="false">IF(ISBLANK(A277),"",C277)</f>
-        <v> NAME_THEME_IMPERIAL_CA:0 "Kaiserliche Schwere Kreuzer"</v>
+        <v>NAME_THEME_NORDIC_MYTHOLOGY:0 "Nordische Mythologie"</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6773,11 +6839,11 @@
       </c>
       <c r="C278" s="1" t="str">
         <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
-        <v> NAME_THEME_IMPERIAL_BC:0 "Kaiserliche Schlachtkreuzer"</v>
+        <v>NAME_THEME_SLAVIC_MYTHOLOGY:0 "Slawische Mythologie"</v>
       </c>
       <c r="D278" s="1" t="str">
         <f aca="false">IF(ISBLANK(A278),"",C278)</f>
-        <v> NAME_THEME_IMPERIAL_BC:0 "Kaiserliche Schlachtkreuzer"</v>
+        <v>NAME_THEME_SLAVIC_MYTHOLOGY:0 "Slawische Mythologie"</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,11 +6855,11 @@
       </c>
       <c r="C279" s="1" t="str">
         <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
-        <v> NAME_THEME_IMPERIAL_BB:0 "Imperiale Schlachtschiffe"</v>
+        <v>NAME_THEME_GERMANIC_MYTHOLOGY:0 "Germanische Mythologie"</v>
       </c>
       <c r="D279" s="1" t="str">
         <f aca="false">IF(ISBLANK(A279),"",C279)</f>
-        <v> NAME_THEME_IMPERIAL_BB:0 "Imperiale Schlachtschiffe"</v>
+        <v>NAME_THEME_GERMANIC_MYTHOLOGY:0 "Germanische Mythologie"</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,102 +6871,102 @@
       </c>
       <c r="C280" s="1" t="str">
         <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
-        <v> NAME_THEME_IMPERIAL_CARRIERS:0 "Imperiale Flugzeugträger"</v>
+        <v>NAME_THEME_IMPERIAL_DD:0 "Kaiserliche Zerstörer"</v>
       </c>
       <c r="D280" s="1" t="str">
         <f aca="false">IF(ISBLANK(A280),"",C280)</f>
-        <v> NAME_THEME_IMPERIAL_CARRIERS:0 "Imperiale Flugzeugträger"</v>
+        <v>NAME_THEME_IMPERIAL_DD:0 "Kaiserliche Zerstörer"</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="3"/>
+      <c r="A281" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="C281" s="1" t="str">
         <f aca="false">A281 &amp;" " &amp;"""" &amp;B281 &amp;""""</f>
-        <v>""</v>
+        <v>NAME_THEME_IMPERIAL_CL:0 "Kaiserliche Leichte Kreuzer"</v>
       </c>
       <c r="D281" s="1" t="str">
         <f aca="false">IF(ISBLANK(A281),"",C281)</f>
-        <v/>
+        <v>NAME_THEME_IMPERIAL_CL:0 "Kaiserliche Leichte Kreuzer"</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C282" s="1" t="str">
         <f aca="false">A282 &amp;" " &amp;"""" &amp;B282 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_DE:0 "Historische Zerstörer-Eskorten"</v>
+        <v>NAME_THEME_IMPERIAL_CA:0 "Kaiserliche Schwere Kreuzer"</v>
       </c>
       <c r="D282" s="1" t="str">
         <f aca="false">IF(ISBLANK(A282),"",C282)</f>
-        <v> NAME_THEME_HISTORICAL_DE:0 "Historische Zerstörer-Eskorten"</v>
+        <v>NAME_THEME_IMPERIAL_CA:0 "Kaiserliche Schwere Kreuzer"</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C283" s="1" t="str">
         <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_TB:0 "Historische Torpedoboote"</v>
+        <v>NAME_THEME_IMPERIAL_BC:0 "Kaiserliche Schlachtkreuzer"</v>
       </c>
       <c r="D283" s="1" t="str">
         <f aca="false">IF(ISBLANK(A283),"",C283)</f>
-        <v> NAME_THEME_HISTORICAL_TB:0 "Historische Torpedoboote"</v>
+        <v>NAME_THEME_IMPERIAL_BC:0 "Kaiserliche Schlachtkreuzer"</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C284" s="1" t="str">
         <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_K:0 "Historische Korvetten"</v>
+        <v>NAME_THEME_IMPERIAL_BB:0 "Imperiale Schlachtschiffe"</v>
       </c>
       <c r="D284" s="1" t="str">
         <f aca="false">IF(ISBLANK(A284),"",C284)</f>
-        <v> NAME_THEME_HISTORICAL_K:0 "Historische Korvetten"</v>
+        <v>NAME_THEME_IMPERIAL_BB:0 "Imperiale Schlachtschiffe"</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C285" s="1" t="str">
         <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_E:0 "Historische Eskorten"</v>
+        <v>NAME_THEME_IMPERIAL_CARRIERS:0 "Imperiale Flugzeugträger"</v>
       </c>
       <c r="D285" s="1" t="str">
         <f aca="false">IF(ISBLANK(A285),"",C285)</f>
-        <v> NAME_THEME_HISTORICAL_E:0 "Historische Eskorten"</v>
+        <v>NAME_THEME_IMPERIAL_CARRIERS:0 "Imperiale Flugzeugträger"</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>550</v>
-      </c>
+      <c r="B286" s="3"/>
       <c r="C286" s="1" t="str">
         <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_FF:0 "Historische Fregatten"</v>
+        <v>""</v>
       </c>
       <c r="D286" s="1" t="str">
         <f aca="false">IF(ISBLANK(A286),"",C286)</f>
-        <v> NAME_THEME_HISTORICAL_FF:0 "Historische Fregatten"</v>
+        <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6912,11 +6978,11 @@
       </c>
       <c r="C287" s="1" t="str">
         <f aca="false">A287 &amp;" " &amp;"""" &amp;B287 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_PC:0 "Historische Patrouillenschiffe"</v>
+        <v>NAME_THEME_HISTORICAL_DE:0 "Historische Zerstörer-Eskorten"</v>
       </c>
       <c r="D287" s="1" t="str">
         <f aca="false">IF(ISBLANK(A287),"",C287)</f>
-        <v> NAME_THEME_HISTORICAL_PC:0 "Historische Patrouillenschiffe"</v>
+        <v>NAME_THEME_HISTORICAL_DE:0 "Historische Zerstörer-Eskorten"</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6928,11 +6994,11 @@
       </c>
       <c r="C288" s="1" t="str">
         <f aca="false">A288 &amp;" " &amp;"""" &amp;B288 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_SC:0 "Historische U-Jagdboote"</v>
+        <v>NAME_THEME_HISTORICAL_TB:0 "Historische Torpedoboote"</v>
       </c>
       <c r="D288" s="1" t="str">
         <f aca="false">IF(ISBLANK(A288),"",C288)</f>
-        <v> NAME_THEME_HISTORICAL_SC:0 "Historische U-Jagdboote"</v>
+        <v>NAME_THEME_HISTORICAL_TB:0 "Historische Torpedoboote"</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6944,11 +7010,11 @@
       </c>
       <c r="C289" s="1" t="str">
         <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_CVL:0 "Historische Leichte/Escort-Träger"</v>
+        <v>NAME_THEME_HISTORICAL_K:0 "Historische Korvetten"</v>
       </c>
       <c r="D289" s="1" t="str">
         <f aca="false">IF(ISBLANK(A289),"",C289)</f>
-        <v> NAME_THEME_HISTORICAL_CVL:0 "Historische Leichte/Escort-Träger"</v>
+        <v>NAME_THEME_HISTORICAL_K:0 "Historische Korvetten"</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6960,11 +7026,11 @@
       </c>
       <c r="C290" s="1" t="str">
         <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_CVL_ONLY:0 "Historische Leichte Transportschiffe"</v>
+        <v>NAME_THEME_HISTORICAL_E:0 "Historische Eskorten"</v>
       </c>
       <c r="D290" s="1" t="str">
         <f aca="false">IF(ISBLANK(A290),"",C290)</f>
-        <v> NAME_THEME_HISTORICAL_CVL_ONLY:0 "Historische Leichte Transportschiffe"</v>
+        <v>NAME_THEME_HISTORICAL_E:0 "Historische Eskorten"</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6976,11 +7042,11 @@
       </c>
       <c r="C291" s="1" t="str">
         <f aca="false">A291 &amp;" " &amp;"""" &amp;B291 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_CVE:0 "Historische Geleitträger"</v>
+        <v>NAME_THEME_HISTORICAL_FF:0 "Historische Fregatten"</v>
       </c>
       <c r="D291" s="1" t="str">
         <f aca="false">IF(ISBLANK(A291),"",C291)</f>
-        <v> NAME_THEME_HISTORICAL_CVE:0 "Historische Geleitträger"</v>
+        <v>NAME_THEME_HISTORICAL_FF:0 "Historische Fregatten"</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6992,11 +7058,11 @@
       </c>
       <c r="C292" s="1" t="str">
         <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_CLAA:0 "Historische Flak-Kreuzer"</v>
+        <v>NAME_THEME_HISTORICAL_PC:0 "Historische Patrouillenschiffe"</v>
       </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
-        <v> NAME_THEME_HISTORICAL_CLAA:0 "Historische Flak-Kreuzer"</v>
+        <v>NAME_THEME_HISTORICAL_PC:0 "Historische Patrouillenschiffe"</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7008,11 +7074,11 @@
       </c>
       <c r="C293" s="1" t="str">
         <f aca="false">A293 &amp;" " &amp;"""" &amp;B293 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_MINELAYERS:0 "Historische Minenleger"</v>
+        <v>NAME_THEME_HISTORICAL_SC:0 "Historische U-Jagdboote"</v>
       </c>
       <c r="D293" s="1" t="str">
         <f aca="false">IF(ISBLANK(A293),"",C293)</f>
-        <v> NAME_THEME_HISTORICAL_MINELAYERS:0 "Historische Minenleger"</v>
+        <v>NAME_THEME_HISTORICAL_SC:0 "Historische U-Jagdboote"</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7024,11 +7090,11 @@
       </c>
       <c r="C294" s="1" t="str">
         <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_MINESWEEPERS:0 "Historische Minenräumboote"</v>
+        <v>NAME_THEME_HISTORICAL_CVL:0 "Historische Leichte/Escort-Träger"</v>
       </c>
       <c r="D294" s="1" t="str">
         <f aca="false">IF(ISBLANK(A294),"",C294)</f>
-        <v> NAME_THEME_HISTORICAL_MINESWEEPERS:0 "Historische Minenräumboote"</v>
+        <v>NAME_THEME_HISTORICAL_CVL:0 "Historische Leichte/Escort-Träger"</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7040,11 +7106,11 @@
       </c>
       <c r="C295" s="1" t="str">
         <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
-        <v> NAME_THEME_LEADERS:0 "Berühmte Führungspersönlichkeiten"</v>
+        <v>NAME_THEME_HISTORICAL_CVL_ONLY:0 "Historische Leichte Transportschiffe"</v>
       </c>
       <c r="D295" s="1" t="str">
         <f aca="false">IF(ISBLANK(A295),"",C295)</f>
-        <v> NAME_THEME_LEADERS:0 "Berühmte Führungspersönlichkeiten"</v>
+        <v>NAME_THEME_HISTORICAL_CVL_ONLY:0 "Historische Leichte Transportschiffe"</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7056,11 +7122,11 @@
       </c>
       <c r="C296" s="1" t="str">
         <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v> NAME_THEME_MYTHOLOGY:0 "Mythologie"</v>
+        <v>NAME_THEME_HISTORICAL_CVE:0 "Historische Geleitträger"</v>
       </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
-        <v> NAME_THEME_MYTHOLOGY:0 "Mythologie"</v>
+        <v>NAME_THEME_HISTORICAL_CVE:0 "Historische Geleitträger"</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7072,11 +7138,11 @@
       </c>
       <c r="C297" s="1" t="str">
         <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v> NAME_THEME_REGIONS:0 "Regionen"</v>
+        <v>NAME_THEME_HISTORICAL_CLAA:0 "Historische Flak-Kreuzer"</v>
       </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
-        <v> NAME_THEME_REGIONS:0 "Regionen"</v>
+        <v>NAME_THEME_HISTORICAL_CLAA:0 "Historische Flak-Kreuzer"</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,11 +7154,11 @@
       </c>
       <c r="C298" s="1" t="str">
         <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
-        <v> NAME_THEME_PREFECTURES:0 "Provinzen und Präfekturen"</v>
+        <v>NAME_THEME_HISTORICAL_MINELAYERS:0 "Historische Minenleger"</v>
       </c>
       <c r="D298" s="1" t="str">
         <f aca="false">IF(ISBLANK(A298),"",C298)</f>
-        <v> NAME_THEME_PREFECTURES:0 "Provinzen und Präfekturen"</v>
+        <v>NAME_THEME_HISTORICAL_MINELAYERS:0 "Historische Minenleger"</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,11 +7170,11 @@
       </c>
       <c r="C299" s="1" t="str">
         <f aca="false">A299 &amp;" " &amp;"""" &amp;B299 &amp;""""</f>
-        <v> NAME_THEME_COUNTIES:0 "Landkreise"</v>
+        <v>NAME_THEME_HISTORICAL_MINESWEEPERS:0 "Historische Minenräumboote"</v>
       </c>
       <c r="D299" s="1" t="str">
         <f aca="false">IF(ISBLANK(A299),"",C299)</f>
-        <v> NAME_THEME_COUNTIES:0 "Landkreise"</v>
+        <v>NAME_THEME_HISTORICAL_MINESWEEPERS:0 "Historische Minenräumboote"</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7120,11 +7186,11 @@
       </c>
       <c r="C300" s="1" t="str">
         <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v> NAME_THEME_COLONIES:0 "Kolonien"</v>
+        <v>NAME_THEME_LEADERS:0 "Berühmte Führungspersönlichkeiten"</v>
       </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
-        <v> NAME_THEME_COLONIES:0 "Kolonien"</v>
+        <v>NAME_THEME_LEADERS:0 "Berühmte Führungspersönlichkeiten"</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7136,11 +7202,11 @@
       </c>
       <c r="C301" s="1" t="str">
         <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v> NAME_THEME_TRIBES:0 "Eingeborene Stämme"</v>
+        <v>NAME_THEME_MYTHOLOGY:0 "Mythologie"</v>
       </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
-        <v> NAME_THEME_TRIBES:0 "Eingeborene Stämme"</v>
+        <v>NAME_THEME_MYTHOLOGY:0 "Mythologie"</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7152,11 +7218,11 @@
       </c>
       <c r="C302" s="1" t="str">
         <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v> NAME_THEME_BIRDS:0 "Vögel"</v>
+        <v>NAME_THEME_REGIONS:0 "Regionen"</v>
       </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
-        <v> NAME_THEME_BIRDS:0 "Vögel"</v>
+        <v>NAME_THEME_REGIONS:0 "Regionen"</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,11 +7234,11 @@
       </c>
       <c r="C303" s="1" t="str">
         <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v> NAME_THEME_FLOWERS:0 "Blumen"</v>
+        <v>NAME_THEME_PREFECTURES:0 "Provinzen und Präfekturen"</v>
       </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
-        <v> NAME_THEME_FLOWERS:0 "Blumen"</v>
+        <v>NAME_THEME_PREFECTURES:0 "Provinzen und Präfekturen"</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,11 +7250,11 @@
       </c>
       <c r="C304" s="1" t="str">
         <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v> NAME_THEME_HEXAGRAM:0 "Chinesische Hexagramme"</v>
+        <v>NAME_THEME_COUNTIES:0 "Landkreise"</v>
       </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
-        <v> NAME_THEME_HEXAGRAM:0 "Chinesische Hexagramme"</v>
+        <v>NAME_THEME_COUNTIES:0 "Landkreise"</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7200,11 +7266,11 @@
       </c>
       <c r="C305" s="1" t="str">
         <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v> NAME_THEME_SOLAR_TERM:0 "Chinesische Sonnenbegriffe"</v>
+        <v>NAME_THEME_COLONIES:0 "Kolonien"</v>
       </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
-        <v> NAME_THEME_SOLAR_TERM:0 "Chinesische Sonnenbegriffe"</v>
+        <v>NAME_THEME_COLONIES:0 "Kolonien"</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7216,11 +7282,11 @@
       </c>
       <c r="C306" s="1" t="str">
         <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
-        <v> NAME_THEME_108_STARS:0 "108 Sterne des Schicksals"</v>
+        <v>NAME_THEME_TRIBES:0 "Eingeborene Stämme"</v>
       </c>
       <c r="D306" s="1" t="str">
         <f aca="false">IF(ISBLANK(A306),"",C306)</f>
-        <v> NAME_THEME_108_STARS:0 "108 Sterne des Schicksals"</v>
+        <v>NAME_THEME_TRIBES:0 "Eingeborene Stämme"</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7232,11 +7298,11 @@
       </c>
       <c r="C307" s="1" t="str">
         <f aca="false">A307 &amp;" " &amp;"""" &amp;B307 &amp;""""</f>
-        <v> NAME_THEME_INSPIRATION:0 "Inspirierend"</v>
+        <v>NAME_THEME_BIRDS:0 "Vögel"</v>
       </c>
       <c r="D307" s="1" t="str">
         <f aca="false">IF(ISBLANK(A307),"",C307)</f>
-        <v> NAME_THEME_INSPIRATION:0 "Inspirierend"</v>
+        <v>NAME_THEME_BIRDS:0 "Vögel"</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7248,11 +7314,11 @@
       </c>
       <c r="C308" s="1" t="str">
         <f aca="false">A308 &amp;" " &amp;"""" &amp;B308 &amp;""""</f>
-        <v> NAME_THEME_WEAPONS:0 "Waffen"</v>
+        <v>NAME_THEME_FLOWERS:0 "Blumen"</v>
       </c>
       <c r="D308" s="1" t="str">
         <f aca="false">IF(ISBLANK(A308),"",C308)</f>
-        <v> NAME_THEME_WEAPONS:0 "Waffen"</v>
+        <v>NAME_THEME_FLOWERS:0 "Blumen"</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7264,11 +7330,11 @@
       </c>
       <c r="C309" s="1" t="str">
         <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v> NAME_THEME_WEATHER:0 "Wetter"</v>
+        <v>NAME_THEME_HEXAGRAM:0 "Chinesische Hexagramme"</v>
       </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
-        <v> NAME_THEME_WEATHER:0 "Wetter"</v>
+        <v>NAME_THEME_HEXAGRAM:0 "Chinesische Hexagramme"</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7280,11 +7346,11 @@
       </c>
       <c r="C310" s="1" t="str">
         <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
-        <v> NAME_THEME_NATURE:0 "Natur"</v>
+        <v>NAME_THEME_SOLAR_TERM:0 "Chinesische Sonnenbegriffe"</v>
       </c>
       <c r="D310" s="1" t="str">
         <f aca="false">IF(ISBLANK(A310),"",C310)</f>
-        <v> NAME_THEME_NATURE:0 "Natur"</v>
+        <v>NAME_THEME_SOLAR_TERM:0 "Chinesische Sonnenbegriffe"</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7296,11 +7362,11 @@
       </c>
       <c r="C311" s="1" t="str">
         <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
-        <v> NAME_THEME_RIVER_MOUNTAIN:0 "Flüsse und Berge"</v>
+        <v>NAME_THEME_108_STARS:0 "108 Sterne des Schicksals"</v>
       </c>
       <c r="D311" s="1" t="str">
         <f aca="false">IF(ISBLANK(A311),"",C311)</f>
-        <v> NAME_THEME_RIVER_MOUNTAIN:0 "Flüsse und Berge"</v>
+        <v>NAME_THEME_108_STARS:0 "108 Sterne des Schicksals"</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7312,11 +7378,11 @@
       </c>
       <c r="C312" s="1" t="str">
         <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
-        <v> NAME_THEME_CONFEDERATE_DD:0 "Konföderierte Zerstörer"</v>
+        <v>NAME_THEME_INSPIRATION:0 "Inspirierend"</v>
       </c>
       <c r="D312" s="1" t="str">
         <f aca="false">IF(ISBLANK(A312),"",C312)</f>
-        <v> NAME_THEME_CONFEDERATE_DD:0 "Konföderierte Zerstörer"</v>
+        <v>NAME_THEME_INSPIRATION:0 "Inspirierend"</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,11 +7394,11 @@
       </c>
       <c r="C313" s="1" t="str">
         <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
-        <v> NAME_THEME_CONFEDERATE_CL:0 "Leichte Kreuzer der Konföderation"</v>
+        <v>NAME_THEME_WEAPONS:0 "Waffen"</v>
       </c>
       <c r="D313" s="1" t="str">
         <f aca="false">IF(ISBLANK(A313),"",C313)</f>
-        <v> NAME_THEME_CONFEDERATE_CL:0 "Leichte Kreuzer der Konföderation"</v>
+        <v>NAME_THEME_WEAPONS:0 "Waffen"</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,11 +7410,11 @@
       </c>
       <c r="C314" s="1" t="str">
         <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
-        <v> NAME_THEME_CONFEDERATE_CA:0 "Schwere Kreuzer der Konföderation"</v>
+        <v>NAME_THEME_WEATHER:0 "Wetter"</v>
       </c>
       <c r="D314" s="1" t="str">
         <f aca="false">IF(ISBLANK(A314),"",C314)</f>
-        <v> NAME_THEME_CONFEDERATE_CA:0 "Schwere Kreuzer der Konföderation"</v>
+        <v>NAME_THEME_WEATHER:0 "Wetter"</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7360,11 +7426,11 @@
       </c>
       <c r="C315" s="1" t="str">
         <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
-        <v> NAME_THEME_CONFEDERATE_BC:0 "Konföderierte Schlachtkreuzer"</v>
+        <v>NAME_THEME_NATURE:0 "Natur"</v>
       </c>
       <c r="D315" s="1" t="str">
         <f aca="false">IF(ISBLANK(A315),"",C315)</f>
-        <v> NAME_THEME_CONFEDERATE_BC:0 "Konföderierte Schlachtkreuzer"</v>
+        <v>NAME_THEME_NATURE:0 "Natur"</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,11 +7442,11 @@
       </c>
       <c r="C316" s="1" t="str">
         <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
-        <v> NAME_THEME_CONFEDERATE_BB:0 "Konföderierte Schlachtschiffe"</v>
+        <v>NAME_THEME_RIVER_MOUNTAIN:0 "Flüsse und Berge"</v>
       </c>
       <c r="D316" s="1" t="str">
         <f aca="false">IF(ISBLANK(A316),"",C316)</f>
-        <v> NAME_THEME_CONFEDERATE_BB:0 "Konföderierte Schlachtschiffe"</v>
+        <v>NAME_THEME_RIVER_MOUNTAIN:0 "Flüsse und Berge"</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7392,11 +7458,11 @@
       </c>
       <c r="C317" s="1" t="str">
         <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
-        <v> NAME_THEME_CONFEDERATE_CARRIERS:0 "Konföderierte Flugzeugträger"</v>
+        <v>NAME_THEME_CONFEDERATE_DD:0 "Konföderierte Zerstörer"</v>
       </c>
       <c r="D317" s="1" t="str">
         <f aca="false">IF(ISBLANK(A317),"",C317)</f>
-        <v> NAME_THEME_CONFEDERATE_CARRIERS:0 "Konföderierte Flugzeugträger"</v>
+        <v>NAME_THEME_CONFEDERATE_DD:0 "Konföderierte Zerstörer"</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7408,11 +7474,11 @@
       </c>
       <c r="C318" s="1" t="str">
         <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
-        <v> NAME_THEME_CONFEDERATE_SUBMARINES:0 "Konföderierte U-Boote"</v>
+        <v>NAME_THEME_CONFEDERATE_CL:0 "Leichte Kreuzer der Konföderation"</v>
       </c>
       <c r="D318" s="1" t="str">
         <f aca="false">IF(ISBLANK(A318),"",C318)</f>
-        <v> NAME_THEME_CONFEDERATE_SUBMARINES:0 "Konföderierte U-Boote"</v>
+        <v>NAME_THEME_CONFEDERATE_CL:0 "Leichte Kreuzer der Konföderation"</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7424,11 +7490,11 @@
       </c>
       <c r="C319" s="1" t="str">
         <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_SHCHUKAS:0 "Historische Schtschuka-U-Boote"</v>
+        <v>NAME_THEME_CONFEDERATE_CA:0 "Schwere Kreuzer der Konföderation"</v>
       </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
-        <v> NAME_THEME_HISTORICAL_SHCHUKAS:0 "Historische Schtschuka-U-Boote"</v>
+        <v>NAME_THEME_CONFEDERATE_CA:0 "Schwere Kreuzer der Konföderation"</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7440,11 +7506,11 @@
       </c>
       <c r="C320" s="1" t="str">
         <f aca="false">A320 &amp;" " &amp;"""" &amp;B320 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_STALINETS:0 "Historische Stalinets-U-Boote"</v>
+        <v>NAME_THEME_CONFEDERATE_BC:0 "Konföderierte Schlachtkreuzer"</v>
       </c>
       <c r="D320" s="1" t="str">
         <f aca="false">IF(ISBLANK(A320),"",C320)</f>
-        <v> NAME_THEME_HISTORICAL_STALINETS:0 "Historische Stalinets-U-Boote"</v>
+        <v>NAME_THEME_CONFEDERATE_BC:0 "Konföderierte Schlachtkreuzer"</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7456,11 +7522,11 @@
       </c>
       <c r="C321" s="1" t="str">
         <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_LENINETS:0 "Historische Leninets-U-Boote"</v>
+        <v>NAME_THEME_CONFEDERATE_BB:0 "Konföderierte Schlachtschiffe"</v>
       </c>
       <c r="D321" s="1" t="str">
         <f aca="false">IF(ISBLANK(A321),"",C321)</f>
-        <v> NAME_THEME_HISTORICAL_LENINETS:0 "Historische Leninets-U-Boote"</v>
+        <v>NAME_THEME_CONFEDERATE_BB:0 "Konföderierte Schlachtschiffe"</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7472,11 +7538,11 @@
       </c>
       <c r="C322" s="1" t="str">
         <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_DEKABRIST:0 "Historische Dekabristen-Abos"</v>
+        <v>NAME_THEME_CONFEDERATE_CARRIERS:0 "Konföderierte Flugzeugträger"</v>
       </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
-        <v> NAME_THEME_HISTORICAL_DEKABRIST:0 "Historische Dekabristen-Abos"</v>
+        <v>NAME_THEME_CONFEDERATE_CARRIERS:0 "Konföderierte Flugzeugträger"</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7488,11 +7554,11 @@
       </c>
       <c r="C323" s="1" t="str">
         <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_PRAVDA:0 "Historische Pravda-Abos"</v>
+        <v>NAME_THEME_CONFEDERATE_SUBMARINES:0 "Konföderierte U-Boote"</v>
       </c>
       <c r="D323" s="1" t="str">
         <f aca="false">IF(ISBLANK(A323),"",C323)</f>
-        <v> NAME_THEME_HISTORICAL_PRAVDA:0 "Historische Pravda-Abos"</v>
+        <v>NAME_THEME_CONFEDERATE_SUBMARINES:0 "Konföderierte U-Boote"</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7504,11 +7570,11 @@
       </c>
       <c r="C324" s="1" t="str">
         <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_MSERIES:0 "Historische Malyutka Abos"</v>
+        <v>NAME_THEME_HISTORICAL_SHCHUKAS:0 "Historische Schtschuka-U-Boote"</v>
       </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
-        <v> NAME_THEME_HISTORICAL_MSERIES:0 "Historische Malyutka Abos"</v>
+        <v>NAME_THEME_HISTORICAL_SHCHUKAS:0 "Historische Schtschuka-U-Boote"</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7520,11 +7586,11 @@
       </c>
       <c r="C325" s="1" t="str">
         <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_BSERIES:0 "Historische Bars Abos"</v>
+        <v>NAME_THEME_HISTORICAL_STALINETS:0 "Historische Stalinets-U-Boote"</v>
       </c>
       <c r="D325" s="1" t="str">
         <f aca="false">IF(ISBLANK(A325),"",C325)</f>
-        <v> NAME_THEME_HISTORICAL_BSERIES:0 "Historische Bars Abos"</v>
+        <v>NAME_THEME_HISTORICAL_STALINETS:0 "Historische Stalinets-U-Boote"</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7536,11 +7602,11 @@
       </c>
       <c r="C326" s="1" t="str">
         <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_KSERIES:0 "Historische Kreyserskaja Abos"</v>
+        <v>NAME_THEME_HISTORICAL_LENINETS:0 "Historische Leninets-U-Boote"</v>
       </c>
       <c r="D326" s="1" t="str">
         <f aca="false">IF(ISBLANK(A326),"",C326)</f>
-        <v> NAME_THEME_HISTORICAL_KSERIES:0 "Historische Kreyserskaja Abos"</v>
+        <v>NAME_THEME_HISTORICAL_LENINETS:0 "Historische Leninets-U-Boote"</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7552,11 +7618,11 @@
       </c>
       <c r="C327" s="1" t="str">
         <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_AGSERIES:0 "Historische Amerikanskiy Golland Abos"</v>
+        <v>NAME_THEME_HISTORICAL_DEKABRIST:0 "Historische Dekabristen-Abos"</v>
       </c>
       <c r="D327" s="1" t="str">
         <f aca="false">IF(ISBLANK(A327),"",C327)</f>
-        <v> NAME_THEME_HISTORICAL_AGSERIES:0 "Historische Amerikanskiy Golland Abos"</v>
+        <v>NAME_THEME_HISTORICAL_DEKABRIST:0 "Historische Dekabristen-Abos"</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7568,11 +7634,11 @@
       </c>
       <c r="C328" s="1" t="str">
         <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_SUBS_OCLASS:0 "Historische Abos der O-Klasse"</v>
+        <v>NAME_THEME_HISTORICAL_PRAVDA:0 "Historische Pravda-Abos"</v>
       </c>
       <c r="D328" s="1" t="str">
         <f aca="false">IF(ISBLANK(A328),"",C328)</f>
-        <v> NAME_THEME_HISTORICAL_SUBS_OCLASS:0 "Historische Abos der O-Klasse"</v>
+        <v>NAME_THEME_HISTORICAL_PRAVDA:0 "Historische Pravda-Abos"</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7584,11 +7650,11 @@
       </c>
       <c r="C329" s="1" t="str">
         <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v> NAME_THEME_HISTORICAL_SUBS_KCLASS:0 "Historische U-Boote der K-Klasse"</v>
+        <v>NAME_THEME_HISTORICAL_MSERIES:0 "Historische Malyutka Abos"</v>
       </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
-        <v> NAME_THEME_HISTORICAL_SUBS_KCLASS:0 "Historische U-Boote der K-Klasse"</v>
+        <v>NAME_THEME_HISTORICAL_MSERIES:0 "Historische Malyutka Abos"</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7600,101 +7666,101 @@
       </c>
       <c r="C330" s="1" t="str">
         <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v> NAVAL_ROLE_SELECT_DESC:1 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und spezifischere Verstärkungseinstellungen in Ihren Truppenzusammenstellungen zu ermöglichen."</v>
+        <v>NAME_THEME_HISTORICAL_BSERIES:0 "Historische Bars Abos"</v>
       </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
-        <v> NAVAL_ROLE_SELECT_DESC:1 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und spezifischere Verstärkungseinstellungen in Ihren Truppenzusammenstellungen zu ermöglichen."</v>
+        <v>NAME_THEME_HISTORICAL_BSERIES:0 "Historische Bars Abos"</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>640</v>
+      </c>
       <c r="C331" s="1" t="str">
         <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v>""</v>
+        <v>NAME_THEME_HISTORICAL_KSERIES:0 "Historische Kreyserskaja Abos"</v>
       </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
-        <v/>
+        <v>NAME_THEME_HISTORICAL_KSERIES:0 "Historische Kreyserskaja Abos"</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C332" s="1" t="str">
         <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_EACH_LEVEL_STAT_HEADER:1 "§Jede Stufe gewährt:§!"</v>
+        <v>NAME_THEME_HISTORICAL_AGSERIES:0 "Historische Amerikanskiy Golland Abos"</v>
       </c>
       <c r="D332" s="1" t="str">
         <f aca="false">IF(ISBLANK(A332),"",C332)</f>
-        <v> EQUIPMENT_UPGRADE_EACH_LEVEL_STAT_HEADER:1 "§Jede Stufe gewährt:§!"</v>
+        <v>NAME_THEME_HISTORICAL_AGSERIES:0 "Historische Amerikanskiy Golland Abos"</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C333" s="1" t="str">
         <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_CURRENT_MAX_LEVEL:0 "Aktuelle Höchststufe: $LEVEL|H0$"</v>
+        <v>NAME_THEME_HISTORICAL_SUBS_OCLASS:0 "Historische Abos der O-Klasse"</v>
       </c>
       <c r="D333" s="1" t="str">
         <f aca="false">IF(ISBLANK(A333),"",C333)</f>
-        <v> EQUIPMENT_UPGRADE_CURRENT_MAX_LEVEL:0 "Aktuelle Höchststufe: $LEVEL|H0$"</v>
+        <v>NAME_THEME_HISTORICAL_SUBS_OCLASS:0 "Historische Abos der O-Klasse"</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C334" s="1" t="str">
         <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_LEVEL_AND_UP:0 "Stufe $LEVEL|H$ und höher:"</v>
+        <v>NAME_THEME_HISTORICAL_SUBS_KCLASS:0 "Historische U-Boote der K-Klasse"</v>
       </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
-        <v> EQUIPMENT_UPGRADE_LEVEL_AND_UP:0 "Stufe $LEVEL|H$ und höher:"</v>
+        <v>NAME_THEME_HISTORICAL_SUBS_KCLASS:0 "Historische U-Boote der K-Klasse"</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C335" s="1" t="str">
         <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_ALREADY_AT_HIGHEST_LEVEL:1 "Bereits auf höchster Stufe"</v>
+        <v>NAVAL_ROLE_SELECT_DESC:1 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und spezifischere Verstärkungseinstellungen in Ihren Truppenzusammenstellungen zu ermöglichen."</v>
       </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
-        <v> EQUIPMENT_UPGRADE_ALREADY_AT_HIGHEST_LEVEL:1 "Bereits auf höchster Stufe"</v>
+        <v>NAVAL_ROLE_SELECT_DESC:1 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und spezifischere Verstärkungseinstellungen in Ihren Truppenzusammenstellungen zu ermöglichen."</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="C336" s="1" t="str">
         <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_ALREADY_AT_LOWEST_LEVEL:1 "Bereits auf der niedrigsten Stufe"</v>
+        <v>""</v>
       </c>
       <c r="D336" s="1" t="str">
         <f aca="false">IF(ISBLANK(A336),"",C336)</f>
-        <v> EQUIPMENT_UPGRADE_ALREADY_AT_LOWEST_LEVEL:1 "Bereits auf der niedrigsten Stufe"</v>
+        <v/>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7706,11 +7772,11 @@
       </c>
       <c r="C337" s="1" t="str">
         <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_LEVEL_BLOCKED_BY:1 "§HNext level requires:§!"</v>
+        <v>EQUIPMENT_UPGRADE_EACH_LEVEL_STAT_HEADER:1 "§Jede Stufe gewährt:§!"</v>
       </c>
       <c r="D337" s="1" t="str">
         <f aca="false">IF(ISBLANK(A337),"",C337)</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_LEVEL_BLOCKED_BY:1 "§HNext level requires:§!"</v>
+        <v>EQUIPMENT_UPGRADE_EACH_LEVEL_STAT_HEADER:1 "§Jede Stufe gewährt:§!"</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7722,11 +7788,11 @@
       </c>
       <c r="C338" s="1" t="str">
         <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_UPGRADE_COST:1 "Kosten $XPICON$$COST|H0$ zum Erhöhen"</v>
+        <v>EQUIPMENT_UPGRADE_CURRENT_MAX_LEVEL:0 "Aktuelle Höchststufe: $LEVEL|H0$"</v>
       </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_UPGRADE_COST:1 "Kosten $XPICON$$COST|H0$ zum Erhöhen"</v>
+        <v>EQUIPMENT_UPGRADE_CURRENT_MAX_LEVEL:0 "Aktuelle Höchststufe: $LEVEL|H0$"</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7738,11 +7804,11 @@
       </c>
       <c r="C339" s="1" t="str">
         <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_PREV_UPGRADE_COST:0 "Kosten $XPICON$$COST|H0$ zur Senkung"</v>
+        <v>EQUIPMENT_UPGRADE_LEVEL_AND_UP:0 "Stufe $LEVEL|H$ und höher:"</v>
       </c>
       <c r="D339" s="1" t="str">
         <f aca="false">IF(ISBLANK(A339),"",C339)</f>
-        <v> EQUIPMENT_UPGRADE_PREV_UPGRADE_COST:0 "Kosten $XPICON$$COST|H0$ zur Senkung"</v>
+        <v>EQUIPMENT_UPGRADE_LEVEL_AND_UP:0 "Stufe $LEVEL|H$ und höher:"</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7754,11 +7820,11 @@
       </c>
       <c r="C340" s="1" t="str">
         <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_UPGRADE_GRANTS:1 "§HNext upgrade:§!"</v>
+        <v>EQUIPMENT_UPGRADE_ALREADY_AT_HIGHEST_LEVEL:1 "Bereits auf höchster Stufe"</v>
       </c>
       <c r="D340" s="1" t="str">
         <f aca="false">IF(ISBLANK(A340),"",C340)</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_UPGRADE_GRANTS:1 "§HNext upgrade:§!"</v>
+        <v>EQUIPMENT_UPGRADE_ALREADY_AT_HIGHEST_LEVEL:1 "Bereits auf höchster Stufe"</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7770,11 +7836,11 @@
       </c>
       <c r="C341" s="1" t="str">
         <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_PREV_UPGRADE_GRANTS:0 "§HNext downgrade:§!"</v>
+        <v>EQUIPMENT_UPGRADE_ALREADY_AT_LOWEST_LEVEL:1 "Bereits auf der niedrigsten Stufe"</v>
       </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
-        <v> EQUIPMENT_UPGRADE_PREV_UPGRADE_GRANTS:0 "§HNext downgrade:§!"</v>
+        <v>EQUIPMENT_UPGRADE_ALREADY_AT_LOWEST_LEVEL:1 "Bereits auf der niedrigsten Stufe"</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7786,11 +7852,11 @@
       </c>
       <c r="C342" s="1" t="str">
         <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_UPGRADE_REFUND:0 "$EQUIPMENT_UPGRADE_PREV_UPGRADE_REFUND$"</v>
+        <v>EQUIPMENT_UPGRADE_NEXT_LEVEL_BLOCKED_BY:1 "§HNext level requires:§!"</v>
       </c>
       <c r="D342" s="1" t="str">
         <f aca="false">IF(ISBLANK(A342),"",C342)</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_UPGRADE_REFUND:0 "$EQUIPMENT_UPGRADE_PREV_UPGRADE_REFUND$"</v>
+        <v>EQUIPMENT_UPGRADE_NEXT_LEVEL_BLOCKED_BY:1 "§HNext level requires:§!"</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7802,11 +7868,11 @@
       </c>
       <c r="C343" s="1" t="str">
         <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_PREV_UPGRADE_REFUND:1 "Reduziert die Kosten um $XPICON$$COST|H0$"</v>
+        <v>EQUIPMENT_UPGRADE_NEXT_UPGRADE_COST:1 "Kosten $XPICON$$COST|H0$ zum Erhöhen"</v>
       </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
-        <v> EQUIPMENT_UPGRADE_PREV_UPGRADE_REFUND:1 "Reduziert die Kosten um $XPICON$$COST|H0$"</v>
+        <v>EQUIPMENT_UPGRADE_NEXT_UPGRADE_COST:1 "Kosten $XPICON$$COST|H0$ zum Erhöhen"</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7818,11 +7884,11 @@
       </c>
       <c r="C344" s="1" t="str">
         <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_RESOURCE_CHANGE:1 "§HResource use change:§!"</v>
+        <v>EQUIPMENT_UPGRADE_PREV_UPGRADE_COST:0 "Kosten $XPICON$$COST|H0$ zur Senkung"</v>
       </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
-        <v> EQUIPMENT_UPGRADE_RESOURCE_CHANGE:1 "§HResource use change:§!"</v>
+        <v>EQUIPMENT_UPGRADE_PREV_UPGRADE_COST:0 "Kosten $XPICON$$COST|H0$ zur Senkung"</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,11 +7900,11 @@
       </c>
       <c r="C345" s="1" t="str">
         <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_MISSING_INDIRECT_REQUIREMENT:0 "§RA indirect dependency is not satisfied§!"</v>
+        <v>EQUIPMENT_UPGRADE_NEXT_UPGRADE_GRANTS:1 "§HNext upgrade:§!"</v>
       </c>
       <c r="D345" s="1" t="str">
         <f aca="false">IF(ISBLANK(A345),"",C345)</f>
-        <v> EQUIPMENT_MODULE_MISSING_INDIRECT_REQUIREMENT:0 "§RA indirect dependency is not satisfied§!"</v>
+        <v>EQUIPMENT_UPGRADE_NEXT_UPGRADE_GRANTS:1 "§HNext upgrade:§!"</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7850,11 +7916,11 @@
       </c>
       <c r="C346" s="1" t="str">
         <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_HEADER:1 "§R$CATEGORY|H$ erfordert:§!"</v>
+        <v>EQUIPMENT_UPGRADE_PREV_UPGRADE_GRANTS:0 "§HNext downgrade:§!"</v>
       </c>
       <c r="D346" s="1" t="str">
         <f aca="false">IF(ISBLANK(A346),"",C346)</f>
-        <v> EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_HEADER:1 "§R$CATEGORY|H$ erfordert:§!"</v>
+        <v>EQUIPMENT_UPGRADE_PREV_UPGRADE_GRANTS:0 "§HNext downgrade:§!"</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7866,11 +7932,11 @@
       </c>
       <c r="C347" s="1" t="str">
         <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_ENTRY:1 "- $MODULE|H$ in einem $SLOT|H$-Slot"</v>
+        <v>EQUIPMENT_UPGRADE_NEXT_UPGRADE_REFUND:0 "$EQUIPMENT_UPGRADE_PREV_UPGRADE_REFUND$"</v>
       </c>
       <c r="D347" s="1" t="str">
         <f aca="false">IF(ISBLANK(A347),"",C347)</f>
-        <v> EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_ENTRY:1 "- $MODULE|H$ in einem $SLOT|H$-Slot"</v>
+        <v>EQUIPMENT_UPGRADE_NEXT_UPGRADE_REFUND:0 "$EQUIPMENT_UPGRADE_PREV_UPGRADE_REFUND$"</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7882,11 +7948,11 @@
       </c>
       <c r="C348" s="1" t="str">
         <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED:1 "§RModule der Kategorie $CATEGORY|H$ sind für den Slot $SLOT|H$ nicht erlaubt§!"</v>
+        <v>EQUIPMENT_UPGRADE_PREV_UPGRADE_REFUND:1 "Reduziert die Kosten um $XPICON$$COST|H0$"</v>
       </c>
       <c r="D348" s="1" t="str">
         <f aca="false">IF(ISBLANK(A348),"",C348)</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED:1 "§RModule der Kategorie $CATEGORY|H$ sind für den Slot $SLOT|H$ nicht erlaubt§!"</v>
+        <v>EQUIPMENT_UPGRADE_PREV_UPGRADE_REFUND:1 "Reduziert die Kosten um $XPICON$$COST|H0$"</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7898,11 +7964,11 @@
       </c>
       <c r="C349" s="1" t="str">
         <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED_BY_MODULE:0 "§R$MODULE|H$ verbieten Module der Kategorie $CATEGORY|H$§!\n\n"</v>
+        <v>EQUIPMENT_UPGRADE_RESOURCE_CHANGE:1 "§HResource use change:§!"</v>
       </c>
       <c r="D349" s="1" t="str">
         <f aca="false">IF(ISBLANK(A349),"",C349)</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED_BY_MODULE:0 "§R$MODULE|H$ verbieten Module der Kategorie $CATEGORY|H$§!\n\n"</v>
+        <v>EQUIPMENT_UPGRADE_RESOURCE_CHANGE:1 "§HResource use change:§!"</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7914,11 +7980,11 @@
       </c>
       <c r="C350" s="1" t="str">
         <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_BLOCKED_BY:0 "§RModule der Kategorie $CATEGORY|H$ werden durch $BLOCKING|H$§ gesperrt!"</v>
+        <v>EQUIPMENT_MODULE_MISSING_INDIRECT_REQUIREMENT:0 "§RA indirect dependency is not satisfied§!"</v>
       </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_BLOCKED_BY:0 "§RModule der Kategorie $CATEGORY|H$ werden durch $BLOCKING|H$§ gesperrt!"</v>
+        <v>EQUIPMENT_MODULE_MISSING_INDIRECT_REQUIREMENT:0 "§RA indirect dependency is not satisfied§!"</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7930,11 +7996,11 @@
       </c>
       <c r="C351" s="1" t="str">
         <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_WOULD_BLOCK:0 "§RWürde aktuelles Modul blockieren: $BLOCK|H$§!"</v>
+        <v>EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_HEADER:1 "§R$CATEGORY|H$ erfordert:§!"</v>
       </c>
       <c r="D351" s="1" t="str">
         <f aca="false">IF(ISBLANK(A351),"",C351)</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_WOULD_BLOCK:0 "§RWürde aktuelles Modul blockieren: $BLOCK|H$§!"</v>
+        <v>EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_HEADER:1 "§R$CATEGORY|H$ erfordert:§!"</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,11 +8012,11 @@
       </c>
       <c r="C352" s="1" t="str">
         <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
-        <v> DESIGNER_COMPOSITION_VALUE:0 "$TYPE$: $VALUE|%1Y$\n"</v>
+        <v>EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_ENTRY:1 "- $MODULE|H$ in einem $SLOT|H$-Slot"</v>
       </c>
       <c r="D352" s="1" t="str">
         <f aca="false">IF(ISBLANK(A352),"",C352)</f>
-        <v> DESIGNER_COMPOSITION_VALUE:0 "$TYPE$: $VALUE|%1Y$\n"</v>
+        <v>EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_ENTRY:1 "- $MODULE|H$ in einem $SLOT|H$-Slot"</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7962,11 +8028,11 @@
       </c>
       <c r="C353" s="1" t="str">
         <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v> DESIGNER_COMPOSITION_HEADER:0 "§YComposition§!\n"</v>
+        <v>EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED:1 "§RModule der Kategorie $CATEGORY|H$ sind für den Slot $SLOT|H$ nicht erlaubt§!"</v>
       </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
-        <v> DESIGNER_COMPOSITION_HEADER:0 "§YComposition§!\n"</v>
+        <v>EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED:1 "§RModule der Kategorie $CATEGORY|H$ sind für den Slot $SLOT|H$ nicht erlaubt§!"</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7978,11 +8044,11 @@
       </c>
       <c r="C354" s="1" t="str">
         <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
-        <v> DESIGNER_COMPOSITION_SPECIAL_HEADER:0 "\nSie erhält auch Boni, die darauf basieren:\n"</v>
+        <v>EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED_BY_MODULE:0 "§R$MODULE|H$ verbieten Module der Kategorie $CATEGORY|H$§!\n\n"</v>
       </c>
       <c r="D354" s="1" t="str">
         <f aca="false">IF(ISBLANK(A354),"",C354)</f>
-        <v> DESIGNER_COMPOSITION_SPECIAL_HEADER:0 "\nSie erhält auch Boni, die darauf basieren:\n"</v>
+        <v>EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED_BY_MODULE:0 "§R$MODULE|H$ verbieten Module der Kategorie $CATEGORY|H$§!\n\n"</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7994,11 +8060,11 @@
       </c>
       <c r="C355" s="1" t="str">
         <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v> DESIGNER_COMPOSITION_DELAYED:0 "Die Zusammensetzung einer Division steuert, welche Boni von Beratern und Kommandeuren angewendet werden."</v>
+        <v>EQUIPMENT_MODULE_CATEGORY_BLOCKED_BY:0 "§RModule der Kategorie $CATEGORY|H$ werden durch $BLOCKING|H$§ gesperrt!"</v>
       </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
-        <v> DESIGNER_COMPOSITION_DELAYED:0 "Die Zusammensetzung einer Division steuert, welche Boni von Beratern und Kommandeuren angewendet werden."</v>
+        <v>EQUIPMENT_MODULE_CATEGORY_BLOCKED_BY:0 "§RModule der Kategorie $CATEGORY|H$ werden durch $BLOCKING|H$§ gesperrt!"</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8010,11 +8076,11 @@
       </c>
       <c r="C356" s="1" t="str">
         <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_BLUEPRINT_TYPE_NAME:0 "$TYPE|T$"</v>
+        <v>EQUIPMENT_MODULE_CATEGORY_WOULD_BLOCK:0 "§RWürde aktuelles Modul blockieren: $BLOCK|H$§!"</v>
       </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
-        <v> EQUIPMENT_DESIGNER_BLUEPRINT_TYPE_NAME:0 "$TYPE|T$"</v>
+        <v>EQUIPMENT_MODULE_CATEGORY_WOULD_BLOCK:0 "§RWürde aktuelles Modul blockieren: $BLOCK|H$§!"</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8026,11 +8092,11 @@
       </c>
       <c r="C357" s="1" t="str">
         <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v> SELECT_3D_MODEL:1 "Modell auswählen"</v>
+        <v>DESIGNER_COMPOSITION_VALUE:0 "$TYPE$: $VALUE|%1Y$\n"</v>
       </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
-        <v> SELECT_3D_MODEL:1 "Modell auswählen"</v>
+        <v>DESIGNER_COMPOSITION_VALUE:0 "$TYPE$: $VALUE|%1Y$\n"</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8042,11 +8108,11 @@
       </c>
       <c r="C358" s="1" t="str">
         <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v> SELECT_2D_ICON:0 "Symbol auswählen"</v>
+        <v>DESIGNER_COMPOSITION_HEADER:0 "§YComposition§!\n"</v>
       </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
-        <v> SELECT_2D_ICON:0 "Symbol auswählen"</v>
+        <v>DESIGNER_COMPOSITION_HEADER:0 "§YComposition§!\n"</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8058,11 +8124,11 @@
       </c>
       <c r="C359" s="1" t="str">
         <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
-        <v> SUPPORT_COMPANY_FORBID_HEADER:0 "§YCann nicht kombiniert werden mit:§!"</v>
+        <v>DESIGNER_COMPOSITION_SPECIAL_HEADER:0 "\nSie erhält auch Boni, die darauf basieren:\n"</v>
       </c>
       <c r="D359" s="1" t="str">
         <f aca="false">IF(ISBLANK(A359),"",C359)</f>
-        <v> SUPPORT_COMPANY_FORBID_HEADER:0 "§YCann nicht kombiniert werden mit:§!"</v>
+        <v>DESIGNER_COMPOSITION_SPECIAL_HEADER:0 "\nSie erhält auch Boni, die darauf basieren:\n"</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8074,11 +8140,11 @@
       </c>
       <c r="C360" s="1" t="str">
         <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SELECT_ROLE:0 "Rolle wählen"</v>
+        <v>DESIGNER_COMPOSITION_DELAYED:0 "Die Zusammensetzung einer Division steuert, welche Boni von Beratern und Kommandeuren angewendet werden."</v>
       </c>
       <c r="D360" s="1" t="str">
         <f aca="false">IF(ISBLANK(A360),"",C360)</f>
-        <v> EQUIPMENT_DESIGNER_SELECT_ROLE:0 "Rolle wählen"</v>
+        <v>DESIGNER_COMPOSITION_DELAYED:0 "Die Zusammensetzung einer Division steuert, welche Boni von Beratern und Kommandeuren angewendet werden."</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8090,11 +8156,11 @@
       </c>
       <c r="C361" s="1" t="str">
         <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SELECT_ROLE_DESC:0 "Die §HRole§! bestimmt, welche §HBataillone§! und §HSupport Companies§! mit Ausrüstung dieser Bauart versorgt werden."</v>
+        <v>EQUIPMENT_DESIGNER_BLUEPRINT_TYPE_NAME:0 "$TYPE|T$"</v>
       </c>
       <c r="D361" s="1" t="str">
         <f aca="false">IF(ISBLANK(A361),"",C361)</f>
-        <v> EQUIPMENT_DESIGNER_SELECT_ROLE_DESC:0 "Die §HRole§! bestimmt, welche §HBataillone§! und §HSupport Companies§! mit Ausrüstung dieser Bauart versorgt werden."</v>
+        <v>EQUIPMENT_DESIGNER_BLUEPRINT_TYPE_NAME:0 "$TYPE|T$"</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8106,11 +8172,11 @@
       </c>
       <c r="C362" s="1" t="str">
         <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_ALLOWS_THIS_ROLE:0 "$MODULE|Y$ §Gallows§! diese Rolle."</v>
+        <v>SELECT_3D_MODEL:1 "Modell auswählen"</v>
       </c>
       <c r="D362" s="1" t="str">
         <f aca="false">IF(ISBLANK(A362),"",C362)</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_ALLOWS_THIS_ROLE:0 "$MODULE|Y$ §Gallows§! diese Rolle."</v>
+        <v>SELECT_3D_MODEL:1 "Modell auswählen"</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8122,11 +8188,11 @@
       </c>
       <c r="C363" s="1" t="str">
         <f aca="false">A363 &amp;" " &amp;"""" &amp;B363 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE:0 "$MODULE|Y$ §Rforbids§! diese Rolle."</v>
+        <v>SELECT_2D_ICON:0 "Symbol auswählen"</v>
       </c>
       <c r="D363" s="1" t="str">
         <f aca="false">IF(ISBLANK(A363),"",C363)</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE:0 "$MODULE|Y$ §Rforbids§! diese Rolle."</v>
+        <v>SELECT_2D_ICON:0 "Symbol auswählen"</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8138,11 +8204,11 @@
       </c>
       <c r="C364" s="1" t="str">
         <f aca="false">A364 &amp;" " &amp;"""" &amp;B364 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE_UNLESS:0 "$MODULE|Y$ §Rforbids§! diese Rolle, sofern nicht $REQUIRED_MODULE|Y$ installiert ist."</v>
+        <v>SUPPORT_COMPANY_FORBID_HEADER:0 "§YCann nicht kombiniert werden mit:§!"</v>
       </c>
       <c r="D364" s="1" t="str">
         <f aca="false">IF(ISBLANK(A364),"",C364)</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE_UNLESS:0 "$MODULE|Y$ §Rforbids§! diese Rolle, sofern nicht $REQUIRED_MODULE|Y$ installiert ist."</v>
+        <v>SUPPORT_COMPANY_FORBID_HEADER:0 "§YCann nicht kombiniert werden mit:§!"</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8154,11 +8220,11 @@
       </c>
       <c r="C365" s="1" t="str">
         <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_THIS_ROLE_IS_FORBIDDEN_DESC:0 "Sie können immer noch die Rolle wechseln, aber der Entwurf kann nicht gespeichert werden, bis die Rolle erlaubt ist und kein Modul sie verbietet."</v>
+        <v>EQUIPMENT_DESIGNER_SELECT_ROLE:0 "Rolle wählen"</v>
       </c>
       <c r="D365" s="1" t="str">
         <f aca="false">IF(ISBLANK(A365),"",C365)</f>
-        <v> EQUIPMENT_DESIGNER_THIS_ROLE_IS_FORBIDDEN_DESC:0 "Sie können immer noch die Rolle wechseln, aber der Entwurf kann nicht gespeichert werden, bis die Rolle erlaubt ist und kein Modul sie verbietet."</v>
+        <v>EQUIPMENT_DESIGNER_SELECT_ROLE:0 "Rolle wählen"</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8170,11 +8236,11 @@
       </c>
       <c r="C366" s="1" t="str">
         <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_HOW_TO_ALLOW_THIS_ROLE:0 "Die folgenden §H-Module§! werden §Gallow§! diese Rolle erlauben:"</v>
+        <v>EQUIPMENT_DESIGNER_SELECT_ROLE_DESC:0 "Die §HRole§! bestimmt, welche §HBataillone§! und §HSupport Companies§! mit Ausrüstung dieser Bauart versorgt werden."</v>
       </c>
       <c r="D366" s="1" t="str">
         <f aca="false">IF(ISBLANK(A366),"",C366)</f>
-        <v> EQUIPMENT_DESIGNER_HOW_TO_ALLOW_THIS_ROLE:0 "Die folgenden §H-Module§! werden §Gallow§! diese Rolle erlauben:"</v>
+        <v>EQUIPMENT_DESIGNER_SELECT_ROLE_DESC:0 "Die §HRole§! bestimmt, welche §HBataillone§! und §HSupport Companies§! mit Ausrüstung dieser Bauart versorgt werden."</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8186,11 +8252,11 @@
       </c>
       <c r="C367" s="1" t="str">
         <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
-        <v> EQUIPMENT_TYPE_FORBIDDEN:1 "Ausrüstung dieses Typs ist verboten.\n"</v>
+        <v>EQUIPMENT_DESIGNER_MODULE_ALLOWS_THIS_ROLE:0 "$MODULE|Y$ §Gallows§! diese Rolle."</v>
       </c>
       <c r="D367" s="1" t="str">
         <f aca="false">IF(ISBLANK(A367),"",C367)</f>
-        <v> EQUIPMENT_TYPE_FORBIDDEN:1 "Ausrüstung dieses Typs ist verboten.\n"</v>
+        <v>EQUIPMENT_DESIGNER_MODULE_ALLOWS_THIS_ROLE:0 "$MODULE|Y$ §Gallows§! diese Rolle."</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8202,11 +8268,11 @@
       </c>
       <c r="C368" s="1" t="str">
         <f aca="false">A368 &amp;" " &amp;"""" &amp;B368 &amp;""""</f>
-        <v> DESIGNER_SELECT_NICHE:0 "Wählen Sie §YEquipment Tag§!"</v>
+        <v>EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE:0 "$MODULE|Y$ §Rforbids§! diese Rolle."</v>
       </c>
       <c r="D368" s="1" t="str">
         <f aca="false">IF(ISBLANK(A368),"",C368)</f>
-        <v> DESIGNER_SELECT_NICHE:0 "Wählen Sie §YEquipment Tag§!"</v>
+        <v>EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE:0 "$MODULE|Y$ §Rforbids§! diese Rolle."</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8218,11 +8284,11 @@
       </c>
       <c r="C369" s="1" t="str">
         <f aca="false">A369 &amp;" " &amp;"""" &amp;B369 &amp;""""</f>
-        <v> DESIGNER_SELECT_NICHE_DELAYED:0 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und eine spezifischere Verstärkung Ihrer Divisionen zu ermöglichen."</v>
+        <v>EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE_UNLESS:0 "$MODULE|Y$ §Rforbids§! diese Rolle, sofern nicht $REQUIRED_MODULE|Y$ installiert ist."</v>
       </c>
       <c r="D369" s="1" t="str">
         <f aca="false">IF(ISBLANK(A369),"",C369)</f>
-        <v> DESIGNER_SELECT_NICHE_DELAYED:0 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und eine spezifischere Verstärkung Ihrer Divisionen zu ermöglichen."</v>
+        <v>EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE_UNLESS:0 "$MODULE|Y$ §Rforbids§! diese Rolle, sofern nicht $REQUIRED_MODULE|Y$ installiert ist."</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8234,11 +8300,11 @@
       </c>
       <c r="C370" s="1" t="str">
         <f aca="false">A370 &amp;" " &amp;"""" &amp;B370 &amp;""""</f>
-        <v> DESIGNER_SELECT_NICHE_DISABLED:0 "Division enthält keine gepanzerten Kräfte"</v>
+        <v>EQUIPMENT_DESIGNER_THIS_ROLE_IS_FORBIDDEN_DESC:0 "Sie können immer noch die Rolle wechseln, aber der Entwurf kann nicht gespeichert werden, bis die Rolle erlaubt ist und kein Modul sie verbietet."</v>
       </c>
       <c r="D370" s="1" t="str">
         <f aca="false">IF(ISBLANK(A370),"",C370)</f>
-        <v> DESIGNER_SELECT_NICHE_DISABLED:0 "Division enthält keine gepanzerten Kräfte"</v>
+        <v>EQUIPMENT_DESIGNER_THIS_ROLE_IS_FORBIDDEN_DESC:0 "Sie können immer noch die Rolle wechseln, aber der Entwurf kann nicht gespeichert werden, bis die Rolle erlaubt ist und kein Modul sie verbietet."</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8250,11 +8316,11 @@
       </c>
       <c r="C371" s="1" t="str">
         <f aca="false">A371 &amp;" " &amp;"""" &amp;B371 &amp;""""</f>
-        <v> DESIGNER_SELECT_NICHE_DISABLED_DELAYED:0 "Fügen Sie ein gepanzertes Bataillon oder eine Unterstützungskompanie hinzu, um die Auswahl von §YEquipment Tag§! zu aktivieren."</v>
+        <v>EQUIPMENT_DESIGNER_HOW_TO_ALLOW_THIS_ROLE:0 "Die folgenden §H-Module§! werden §Gallow§! diese Rolle erlauben:"</v>
       </c>
       <c r="D371" s="1" t="str">
         <f aca="false">IF(ISBLANK(A371),"",C371)</f>
-        <v> DESIGNER_SELECT_NICHE_DISABLED_DELAYED:0 "Fügen Sie ein gepanzertes Bataillon oder eine Unterstützungskompanie hinzu, um die Auswahl von §YEquipment Tag§! zu aktivieren."</v>
+        <v>EQUIPMENT_DESIGNER_HOW_TO_ALLOW_THIS_ROLE:0 "Die folgenden §H-Module§! werden §Gallow§! diese Rolle erlauben:"</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8266,11 +8332,11 @@
       </c>
       <c r="C372" s="1" t="str">
         <f aca="false">A372 &amp;" " &amp;"""" &amp;B372 &amp;""""</f>
-        <v> DESIGNER_SELECT_NICHE_AIR_DELAYED:0 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und eine spezifischere Verstärkung Ihrer Luftgeschwader zu ermöglichen."</v>
+        <v>EQUIPMENT_TYPE_FORBIDDEN:1 "Ausrüstung dieses Typs ist verboten.\n"</v>
       </c>
       <c r="D372" s="1" t="str">
         <f aca="false">IF(ISBLANK(A372),"",C372)</f>
-        <v> DESIGNER_SELECT_NICHE_AIR_DELAYED:0 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und eine spezifischere Verstärkung Ihrer Luftgeschwader zu ermöglichen."</v>
+        <v>EQUIPMENT_TYPE_FORBIDDEN:1 "Ausrüstung dieses Typs ist verboten.\n"</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8282,11 +8348,11 @@
       </c>
       <c r="C373" s="1" t="str">
         <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
-        <v> MODULE_ALLOW_MISSION:0 "Ermöglicht die Mission $MISSION|H$"</v>
+        <v>DESIGNER_SELECT_NICHE:0 "Wählen Sie §YEquipment Tag§!"</v>
       </c>
       <c r="D373" s="1" t="str">
         <f aca="false">IF(ISBLANK(A373),"",C373)</f>
-        <v> MODULE_ALLOW_MISSION:0 "Ermöglicht die Mission $MISSION|H$"</v>
+        <v>DESIGNER_SELECT_NICHE:0 "Wählen Sie §YEquipment Tag§!"</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,11 +8364,11 @@
       </c>
       <c r="C374" s="1" t="str">
         <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
-        <v> MODULE_MISSION_RESTRICTED_STATS_HEADER:0 "Wenn auf $MISSIONS$:"</v>
+        <v>DESIGNER_SELECT_NICHE_DELAYED:0 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und eine spezifischere Verstärkung Ihrer Divisionen zu ermöglichen."</v>
       </c>
       <c r="D374" s="1" t="str">
         <f aca="false">IF(ISBLANK(A374),"",C374)</f>
-        <v> MODULE_MISSION_RESTRICTED_STATS_HEADER:0 "Wenn auf $MISSIONS$:"</v>
+        <v>DESIGNER_SELECT_NICHE_DELAYED:0 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und eine spezifischere Verstärkung Ihrer Divisionen zu ermöglichen."</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8314,11 +8380,11 @@
       </c>
       <c r="C375" s="1" t="str">
         <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
-        <v> MODULE_MISSION_RESTRICTED_STATS_DISABLED_DESC:0 "Diese Bewaffnung wird bei $MISSIONS$ nicht verwendet, da eine andere installierte Bewaffnungskategorie Marinezielen größeren Schaden zufügt."</v>
+        <v>DESIGNER_SELECT_NICHE_DISABLED:0 "Division enthält keine gepanzerten Kräfte"</v>
       </c>
       <c r="D375" s="1" t="str">
         <f aca="false">IF(ISBLANK(A375),"",C375)</f>
-        <v> MODULE_MISSION_RESTRICTED_STATS_DISABLED_DESC:0 "Diese Bewaffnung wird bei $MISSIONS$ nicht verwendet, da eine andere installierte Bewaffnungskategorie Marinezielen größeren Schaden zufügt."</v>
+        <v>DESIGNER_SELECT_NICHE_DISABLED:0 "Division enthält keine gepanzerten Kräfte"</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8330,11 +8396,11 @@
       </c>
       <c r="C376" s="1" t="str">
         <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v> EQUIPMENT_COMPARISON:0 "Vergleich der Ausrüstung"</v>
+        <v>DESIGNER_SELECT_NICHE_DISABLED_DELAYED:0 "Fügen Sie ein gepanzertes Bataillon oder eine Unterstützungskompanie hinzu, um die Auswahl von §YEquipment Tag§! zu aktivieren."</v>
       </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
-        <v> EQUIPMENT_COMPARISON:0 "Vergleich der Ausrüstung"</v>
+        <v>DESIGNER_SELECT_NICHE_DISABLED_DELAYED:0 "Fügen Sie ein gepanzertes Bataillon oder eine Unterstützungskompanie hinzu, um die Auswahl von §YEquipment Tag§! zu aktivieren."</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8346,11 +8412,11 @@
       </c>
       <c r="C377" s="1" t="str">
         <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
-        <v> OUR_EQUIPMENT:0 "Eigene"</v>
+        <v>DESIGNER_SELECT_NICHE_AIR_DELAYED:0 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und eine spezifischere Verstärkung Ihrer Luftgeschwader zu ermöglichen."</v>
       </c>
       <c r="D377" s="1" t="str">
         <f aca="false">IF(ISBLANK(A377),"",C377)</f>
-        <v> OUR_EQUIPMENT:0 "Eigene"</v>
+        <v>DESIGNER_SELECT_NICHE_AIR_DELAYED:0 "Hier können Sie Ihre Entwürfe klassifizieren, um sie zu organisieren und eine spezifischere Verstärkung Ihrer Luftgeschwader zu ermöglichen."</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8362,11 +8428,11 @@
       </c>
       <c r="C378" s="1" t="str">
         <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v> FOREIGN_EQUIPMENT:0 "Ausländische"</v>
+        <v>MODULE_ALLOW_MISSION:0 "Ermöglicht die Mission $MISSION|H$"</v>
       </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
-        <v> FOREIGN_EQUIPMENT:0 "Ausländische"</v>
+        <v>MODULE_ALLOW_MISSION:0 "Ermöglicht die Mission $MISSION|H$"</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8378,11 +8444,11 @@
       </c>
       <c r="C379" s="1" t="str">
         <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
-        <v> OBSOLETE_EQUIPMENT:0 "Veraltet"</v>
+        <v>MODULE_MISSION_RESTRICTED_STATS_HEADER:0 "Wenn auf $MISSIONS$:"</v>
       </c>
       <c r="D379" s="1" t="str">
         <f aca="false">IF(ISBLANK(A379),"",C379)</f>
-        <v> OBSOLETE_EQUIPMENT:0 "Veraltet"</v>
+        <v>MODULE_MISSION_RESTRICTED_STATS_HEADER:0 "Wenn auf $MISSIONS$:"</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,11 +8460,11 @@
       </c>
       <c r="C380" s="1" t="str">
         <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
-        <v> FILTER_FLAG_VARIANT_TOOLTIP:0 "Klicken Sie hier, um die Filterung für $COUNTRY|H$ Designs einzuschalten"</v>
+        <v>MODULE_MISSION_RESTRICTED_STATS_DISABLED_DESC:0 "Diese Bewaffnung wird bei $MISSIONS$ nicht verwendet, da eine andere installierte Bewaffnungskategorie Marinezielen größeren Schaden zufügt."</v>
       </c>
       <c r="D380" s="1" t="str">
         <f aca="false">IF(ISBLANK(A380),"",C380)</f>
-        <v> FILTER_FLAG_VARIANT_TOOLTIP:0 "Klicken Sie hier, um die Filterung für $COUNTRY|H$ Designs einzuschalten"</v>
+        <v>MODULE_MISSION_RESTRICTED_STATS_DISABLED_DESC:0 "Diese Bewaffnung wird bei $MISSIONS$ nicht verwendet, da eine andere installierte Bewaffnungskategorie Marinezielen größeren Schaden zufügt."</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8410,11 +8476,11 @@
       </c>
       <c r="C381" s="1" t="str">
         <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_FOREIGN_FILTER:0 "Klicken Sie hier, um die Filterung für Designs in unseren Beständen umzuschalten."</v>
+        <v>EQUIPMENT_COMPARISON:0 "Vergleich der Ausrüstung"</v>
       </c>
       <c r="D381" s="1" t="str">
         <f aca="false">IF(ISBLANK(A381),"",C381)</f>
-        <v> EQUIPMENT_DESIGNER_FOREIGN_FILTER:0 "Klicken Sie hier, um die Filterung für Designs in unseren Beständen umzuschalten."</v>
+        <v>EQUIPMENT_COMPARISON:0 "Vergleich der Ausrüstung"</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8426,11 +8492,11 @@
       </c>
       <c r="C382" s="1" t="str">
         <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_OWN_FILTER:0 "Klicken Sie hier, um den Filter für Designs in feindlichen Lagerbeständen einzuschalten. Sie benötigen hohe Intelligenz, um diese zu sehen."</v>
+        <v>OUR_EQUIPMENT:0 "Eigene"</v>
       </c>
       <c r="D382" s="1" t="str">
         <f aca="false">IF(ISBLANK(A382),"",C382)</f>
-        <v> EQUIPMENT_DESIGNER_OWN_FILTER:0 "Klicken Sie hier, um den Filter für Designs in feindlichen Lagerbeständen einzuschalten. Sie benötigen hohe Intelligenz, um diese zu sehen."</v>
+        <v>OUR_EQUIPMENT:0 "Eigene"</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8442,121 +8508,187 @@
       </c>
       <c r="C383" s="1" t="str">
         <f aca="false">A383 &amp;" " &amp;"""" &amp;B383 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_OBSOLETE_FILTER:0 "Klicken Sie hier, um die Filterung für veraltete Designs einzuschalten."</v>
+        <v>FOREIGN_EQUIPMENT:0 "Ausländische"</v>
       </c>
       <c r="D383" s="1" t="str">
         <f aca="false">IF(ISBLANK(A383),"",C383)</f>
-        <v> EQUIPMENT_DESIGNER_OBSOLETE_FILTER:0 "Klicken Sie hier, um die Filterung für veraltete Designs einzuschalten."</v>
+        <v>FOREIGN_EQUIPMENT:0 "Ausländische"</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>744</v>
+      </c>
       <c r="C384" s="1" t="str">
         <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
-        <v>""</v>
+        <v>OBSOLETE_EQUIPMENT:0 "Veraltet"</v>
       </c>
       <c r="D384" s="1" t="str">
         <f aca="false">IF(ISBLANK(A384),"",C384)</f>
-        <v/>
+        <v>OBSOLETE_EQUIPMENT:0 "Veraltet"</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>746</v>
+      </c>
       <c r="C385" s="1" t="str">
         <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
-        <v>""</v>
+        <v>FILTER_FLAG_VARIANT_TOOLTIP:0 "Klicken Sie hier, um die Filterung für $COUNTRY|H$ Designs einzuschalten"</v>
       </c>
       <c r="D385" s="1" t="str">
         <f aca="false">IF(ISBLANK(A385),"",C385)</f>
-        <v/>
+        <v>FILTER_FLAG_VARIANT_TOOLTIP:0 "Klicken Sie hier, um die Filterung für $COUNTRY|H$ Designs einzuschalten"</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>748</v>
+      </c>
       <c r="C386" s="1" t="str">
         <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
-        <v>""</v>
+        <v>EQUIPMENT_DESIGNER_FOREIGN_FILTER:0 "Klicken Sie hier, um die Filterung für Designs in unseren Beständen umzuschalten."</v>
       </c>
       <c r="D386" s="1" t="str">
         <f aca="false">IF(ISBLANK(A386),"",C386)</f>
-        <v/>
+        <v>EQUIPMENT_DESIGNER_FOREIGN_FILTER:0 "Klicken Sie hier, um die Filterung für Designs in unseren Beständen umzuschalten."</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>750</v>
+      </c>
       <c r="C387" s="1" t="str">
         <f aca="false">A387 &amp;" " &amp;"""" &amp;B387 &amp;""""</f>
-        <v>""</v>
+        <v>EQUIPMENT_DESIGNER_OWN_FILTER:0 "Klicken Sie hier, um den Filter für Designs in feindlichen Lagerbeständen einzuschalten. Sie benötigen hohe Intelligenz, um diese zu sehen."</v>
       </c>
       <c r="D387" s="1" t="str">
         <f aca="false">IF(ISBLANK(A387),"",C387)</f>
-        <v/>
+        <v>EQUIPMENT_DESIGNER_OWN_FILTER:0 "Klicken Sie hier, um den Filter für Designs in feindlichen Lagerbeständen einzuschalten. Sie benötigen hohe Intelligenz, um diese zu sehen."</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>752</v>
+      </c>
       <c r="C388" s="1" t="str">
         <f aca="false">A388 &amp;" " &amp;"""" &amp;B388 &amp;""""</f>
-        <v>""</v>
+        <v>EQUIPMENT_DESIGNER_OBSOLETE_FILTER:0 "Klicken Sie hier, um die Filterung für veraltete Designs einzuschalten."</v>
       </c>
       <c r="D388" s="1" t="str">
         <f aca="false">IF(ISBLANK(A388),"",C388)</f>
-        <v/>
+        <v>EQUIPMENT_DESIGNER_OBSOLETE_FILTER:0 "Klicken Sie hier, um die Filterung für veraltete Designs einzuschalten."</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>754</v>
+      </c>
       <c r="C389" s="1" t="str">
         <f aca="false">A389 &amp;" " &amp;"""" &amp;B389 &amp;""""</f>
-        <v>""</v>
+        <v> HISTORICAL_PRESET: "Voreinstellungen"</v>
       </c>
       <c r="D389" s="1" t="str">
         <f aca="false">IF(ISBLANK(A389),"",C389)</f>
-        <v/>
+        <v> HISTORICAL_PRESET: "Voreinstellungen"</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>756</v>
+      </c>
       <c r="C390" s="1" t="str">
         <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
-        <v>""</v>
+        <v> HISTORICAL_TEMPLATE_ENABLED: "Erstellen Sie eine $ROLE|H$-Vorlage, die möglichst genau zu $NAME|H$ passt."</v>
       </c>
       <c r="D390" s="1" t="str">
         <f aca="false">IF(ISBLANK(A390),"",C390)</f>
-        <v/>
+        <v> HISTORICAL_TEMPLATE_ENABLED: "Erstellen Sie eine $ROLE|H$-Vorlage, die möglichst genau zu $NAME|H$ passt."</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>758</v>
+      </c>
       <c r="C391" s="1" t="str">
         <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
-        <v>""</v>
+        <v> HISTORICAL_TEMPLATE_DISABLED: "Sie benötigen die folgenden Module, um dieses $ROLE|H$-Design zu erstellen:\n\n$RESTRICTIONS$"</v>
       </c>
       <c r="D391" s="1" t="str">
         <f aca="false">IF(ISBLANK(A391),"",C391)</f>
-        <v/>
+        <v> HISTORICAL_TEMPLATE_DISABLED: "Sie benötigen die folgenden Module, um dieses $ROLE|H$-Design zu erstellen:\n\n$RESTRICTIONS$"</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="C392" s="1" t="str">
         <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
-        <v>""</v>
+        <v> SLOT_TITLE_REQUIRED: "$SLOT|H$:"</v>
       </c>
       <c r="D392" s="1" t="str">
         <f aca="false">IF(ISBLANK(A392),"",C392)</f>
-        <v/>
+        <v> SLOT_TITLE_REQUIRED: "$SLOT|H$:"</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>762</v>
+      </c>
       <c r="C393" s="1" t="str">
         <f aca="false">A393 &amp;" " &amp;"""" &amp;B393 &amp;""""</f>
-        <v>""</v>
+        <v> MODULE_NONE_FIXED: "Keiner"</v>
       </c>
       <c r="D393" s="1" t="str">
         <f aca="false">IF(ISBLANK(A393),"",C393)</f>
-        <v/>
+        <v> MODULE_NONE_FIXED: "Keiner"</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>764</v>
+      </c>
       <c r="C394" s="1" t="str">
         <f aca="false">A394 &amp;" " &amp;"""" &amp;B394 &amp;""""</f>
-        <v>""</v>
+        <v> EQUIPMENT_DESIGNER_HISTORICAL_DESIGN_DISABLED_CHASSIS: "Auf historische Voreinstellungen kann nur über ein Blueprint-Chassis oder einen Blueprint-Rumpf zugegriffen werden."</v>
       </c>
       <c r="D394" s="1" t="str">
         <f aca="false">IF(ISBLANK(A394),"",C394)</f>
-        <v/>
+        <v> EQUIPMENT_DESIGNER_HISTORICAL_DESIGN_DISABLED_CHASSIS: "Auf historische Voreinstellungen kann nur über ein Blueprint-Chassis oder einen Blueprint-Rumpf zugegriffen werden."</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9530,19 +9662,54 @@
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D492" s="1"/>
+      <c r="C492" s="1" t="str">
+        <f aca="false">A492 &amp;" " &amp;"""" &amp;B492 &amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D492" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A492),"",C492)</f>
+        <v/>
+      </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D493" s="1"/>
+      <c r="C493" s="1" t="str">
+        <f aca="false">A493 &amp;" " &amp;"""" &amp;B493 &amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D493" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A493),"",C493)</f>
+        <v/>
+      </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D494" s="1"/>
+      <c r="C494" s="1" t="str">
+        <f aca="false">A494 &amp;" " &amp;"""" &amp;B494 &amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D494" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A494),"",C494)</f>
+        <v/>
+      </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D495" s="1"/>
+      <c r="C495" s="1" t="str">
+        <f aca="false">A495 &amp;" " &amp;"""" &amp;B495 &amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D495" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A495),"",C495)</f>
+        <v/>
+      </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D496" s="1"/>
+      <c r="C496" s="1" t="str">
+        <f aca="false">A496 &amp;" " &amp;"""" &amp;B496 &amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D496" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A496),"",C496)</f>
+        <v/>
+      </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D497" s="1"/>
@@ -9552,6 +9719,21 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D499" s="1"/>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D500" s="1"/>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D501" s="1"/>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D502" s="1"/>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D503" s="1"/>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D504" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
